--- a/result/chenting_20151124_noon_2.mat2.xlsx
+++ b/result/chenting_20151124_noon_2.mat2.xlsx
@@ -415,16 +415,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7920402487119039</v>
+        <v>12.25312455495199</v>
       </c>
       <c r="C2" t="n">
-        <v>158089.4895833333</v>
+        <v>13675.3515625</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4839187276860078</v>
+        <v>16.24575837453206</v>
       </c>
       <c r="E2" t="n">
-        <v>158089.1861979167</v>
+        <v>13679.34423828125</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -432,16 +432,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5549807250499725</v>
+        <v>10.82305399576823</v>
       </c>
       <c r="C3" t="n">
-        <v>154568.4583333333</v>
+        <v>13408.3798828125</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3610689267516136</v>
+        <v>12.94764137268066</v>
       </c>
       <c r="E3" t="n">
-        <v>154568.2682291667</v>
+        <v>13410.50406901042</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -449,16 +449,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3932621081670125</v>
+        <v>18.98203086853027</v>
       </c>
       <c r="C4" t="n">
-        <v>151124.046875</v>
+        <v>13157.21647135417</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2328321946163972</v>
+        <v>18.63338931401571</v>
       </c>
       <c r="E4" t="n">
-        <v>151123.8893229167</v>
+        <v>13156.86783854167</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -466,16 +466,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.223515197634697</v>
+        <v>1.536863287289937</v>
       </c>
       <c r="C5" t="n">
-        <v>147758.375</v>
+        <v>12886.31966145833</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2485096945116917</v>
+        <v>2.110089729229609</v>
       </c>
       <c r="E5" t="n">
-        <v>147758.4049479167</v>
+        <v>12886.89347330729</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -483,16 +483,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6265982786814371</v>
+        <v>14.19680658976237</v>
       </c>
       <c r="C6" t="n">
-        <v>144471.53125</v>
+        <v>12650.82389322917</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3116205874830484</v>
+        <v>13.71264751752218</v>
       </c>
       <c r="E6" t="n">
-        <v>144471.2174479167</v>
+        <v>12650.33959960938</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -500,16 +500,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2125274837017059</v>
+        <v>2.802525520324707</v>
       </c>
       <c r="C7" t="n">
-        <v>141260.4270833333</v>
+        <v>12396.48600260417</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2650256802638372</v>
+        <v>2.701053222020467</v>
       </c>
       <c r="E7" t="n">
-        <v>141260.4856770833</v>
+        <v>12396.38468424479</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -517,16 +517,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3065831859906514</v>
+        <v>5.213522752126058</v>
       </c>
       <c r="C8" t="n">
-        <v>138124.3072916667</v>
+        <v>12160.71647135417</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1585083268582821</v>
+        <v>5.24136730035146</v>
       </c>
       <c r="E8" t="n">
-        <v>138124.15625</v>
+        <v>12160.74422200521</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -534,16 +534,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1611495564381281</v>
+        <v>1.06306787331899</v>
       </c>
       <c r="C9" t="n">
-        <v>135060.1302083333</v>
+        <v>11923.15592447917</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2482863180339336</v>
+        <v>1.3791756828626</v>
       </c>
       <c r="E9" t="n">
-        <v>135060.2174479167</v>
+        <v>11923.47192382812</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -551,16 +551,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2965506414572398</v>
+        <v>0.8720310727755228</v>
       </c>
       <c r="C10" t="n">
-        <v>132066.3125</v>
+        <v>11693.86328125</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1809847143789133</v>
+        <v>1.694904799262683</v>
       </c>
       <c r="E10" t="n">
-        <v>132066.1953125</v>
+        <v>11694.68611653646</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -568,16 +568,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5604921380678812</v>
+        <v>3.310946067174276</v>
       </c>
       <c r="C11" t="n">
-        <v>129140.7161458333</v>
+        <v>11471.43196614583</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2945921352754037</v>
+        <v>3.124012311299642</v>
       </c>
       <c r="E11" t="n">
-        <v>129140.4505208333</v>
+        <v>11471.2451171875</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -585,16 +585,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1388697251677513</v>
+        <v>1.315945744514465</v>
       </c>
       <c r="C12" t="n">
-        <v>126280.6380208333</v>
+        <v>11248.92643229167</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2360762506723404</v>
+        <v>1.812047888835271</v>
       </c>
       <c r="E12" t="n">
-        <v>126280.7356770833</v>
+        <v>11249.42236328125</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -602,16 +602,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1382677257061005</v>
+        <v>2.379560708999634</v>
       </c>
       <c r="C13" t="n">
-        <v>123485.3098958333</v>
+        <v>11033.689453125</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1754660236959656</v>
+        <v>1.821738421916962</v>
       </c>
       <c r="E13" t="n">
-        <v>123485.3470052083</v>
+        <v>11033.13118489583</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -619,16 +619,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.432725578546524</v>
+        <v>0.3245679140090942</v>
       </c>
       <c r="C14" t="n">
-        <v>120752.8619791667</v>
+        <v>10819.38834635417</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2330083424846331</v>
+        <v>0.3936043481032054</v>
       </c>
       <c r="E14" t="n">
-        <v>120752.6627604167</v>
+        <v>10819.45711263021</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -636,16 +636,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1800859868526459</v>
+        <v>0.9243715405464172</v>
       </c>
       <c r="C15" t="n">
-        <v>118080.7838541667</v>
+        <v>10611.67838541667</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1740861206005017</v>
+        <v>1.088376671075821</v>
       </c>
       <c r="E15" t="n">
-        <v>118080.7766927083</v>
+        <v>10611.84244791667</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -653,16 +653,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.215906431277593</v>
+        <v>1.915751775105794</v>
       </c>
       <c r="C16" t="n">
-        <v>115468.3489583333</v>
+        <v>10408.22721354167</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1082617342472076</v>
+        <v>1.545941362778346</v>
       </c>
       <c r="E16" t="n">
-        <v>115468.2415364583</v>
+        <v>10407.85750325521</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -670,16 +670,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2462462385495504</v>
+        <v>1.179979761441549</v>
       </c>
       <c r="C17" t="n">
-        <v>112913.6848958333</v>
+        <v>10206.84114583333</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1168105757484833</v>
+        <v>1.881579011678696</v>
       </c>
       <c r="E17" t="n">
-        <v>112913.5533854167</v>
+        <v>10207.54272460938</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -687,16 +687,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1998880306879679</v>
+        <v>0.7602835098902384</v>
       </c>
       <c r="C18" t="n">
-        <v>110415.2682291667</v>
+        <v>10009.59830729167</v>
       </c>
       <c r="D18" t="n">
-        <v>0.114332615553091</v>
+        <v>0.7223365604877472</v>
       </c>
       <c r="E18" t="n">
-        <v>110415.1848958333</v>
+        <v>10009.56022135417</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -704,16 +704,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1869520495335261</v>
+        <v>0.5311150153477987</v>
       </c>
       <c r="C19" t="n">
-        <v>107971.7890625</v>
+        <v>9816.208984375</v>
       </c>
       <c r="D19" t="n">
-        <v>0.100850229151547</v>
+        <v>0.8464214851458868</v>
       </c>
       <c r="E19" t="n">
-        <v>107971.7024739583</v>
+        <v>9816.524169921875</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -721,16 +721,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1290102452039719</v>
+        <v>0.9341287215550741</v>
       </c>
       <c r="C20" t="n">
-        <v>105581.8333333333</v>
+        <v>9627.010416666666</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1191764384663353</v>
+        <v>0.8541325877110163</v>
       </c>
       <c r="E20" t="n">
-        <v>105581.8229166667</v>
+        <v>9626.930419921875</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -738,16 +738,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.236463983853658</v>
+        <v>0.2189001937707265</v>
       </c>
       <c r="C21" t="n">
-        <v>103244.2682291667</v>
+        <v>9440.216145833334</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1219781956945856</v>
+        <v>0.5870672812064489</v>
       </c>
       <c r="E21" t="n">
-        <v>103244.1536458333</v>
+        <v>9440.584147135416</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -755,16 +755,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1579097708066305</v>
+        <v>0.3229559659957886</v>
       </c>
       <c r="C22" t="n">
-        <v>100957.4765625</v>
+        <v>9257.719401041666</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1047220065568884</v>
+        <v>0.2249895619849364</v>
       </c>
       <c r="E22" t="n">
-        <v>100957.42578125</v>
+        <v>9257.62158203125</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -772,16 +772,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1283304492632548</v>
+        <v>0.256812979777654</v>
       </c>
       <c r="C23" t="n">
-        <v>98720.47135416667</v>
+        <v>9078.427734375</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1170465086276333</v>
+        <v>0.1561433871587118</v>
       </c>
       <c r="E23" t="n">
-        <v>98720.46223958333</v>
+        <v>9078.326985677084</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -789,16 +789,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2195463379224142</v>
+        <v>0.09751818577448527</v>
       </c>
       <c r="C24" t="n">
-        <v>96532.1328125</v>
+        <v>8902.342447916666</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1038203844800591</v>
+        <v>0.2811461389064789</v>
       </c>
       <c r="E24" t="n">
-        <v>96532.017578125</v>
+        <v>8902.526204427084</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -806,16 +806,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1132472505172094</v>
+        <v>0.1140042245388031</v>
       </c>
       <c r="C25" t="n">
-        <v>94390.99739583333</v>
+        <v>8729.692057291666</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1287744790315628</v>
+        <v>0.1585952801009019</v>
       </c>
       <c r="E25" t="n">
-        <v>94391.01236979167</v>
+        <v>8729.73681640625</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -823,16 +823,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.2490335156520208</v>
+        <v>0.07387798527876537</v>
       </c>
       <c r="C26" t="n">
-        <v>92296.38020833333</v>
+        <v>8560.173502604166</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1089134672656655</v>
+        <v>0.1148075430343549</v>
       </c>
       <c r="E26" t="n">
-        <v>92296.24348958333</v>
+        <v>8560.214436848959</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -840,16 +840,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.176785945892334</v>
+        <v>0.1045622676610947</v>
       </c>
       <c r="C27" t="n">
-        <v>90246.7890625</v>
+        <v>8393.8466796875</v>
       </c>
       <c r="D27" t="n">
-        <v>0.09236833864512543</v>
+        <v>0.1258986635754506</v>
       </c>
       <c r="E27" t="n">
-        <v>90246.70052083333</v>
+        <v>8393.868001302084</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -857,16 +857,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1152515038847923</v>
+        <v>0.2128517826398214</v>
       </c>
       <c r="C28" t="n">
-        <v>88241.34114583333</v>
+        <v>8230.658203125</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1153110439578692</v>
+        <v>0.1620955777664979</v>
       </c>
       <c r="E28" t="n">
-        <v>88241.34049479167</v>
+        <v>8230.607503255209</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -874,16 +874,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.2010871867338816</v>
+        <v>0.2481226821740468</v>
       </c>
       <c r="C29" t="n">
-        <v>86279.20052083333</v>
+        <v>8070.421875</v>
       </c>
       <c r="D29" t="n">
-        <v>0.09140674211084843</v>
+        <v>0.1532604619860649</v>
       </c>
       <c r="E29" t="n">
-        <v>86279.091796875</v>
+        <v>8070.327067057292</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -891,16 +891,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1822406202554703</v>
+        <v>0.1510690848032633</v>
       </c>
       <c r="C30" t="n">
-        <v>84359.08854166667</v>
+        <v>7913.030924479167</v>
       </c>
       <c r="D30" t="n">
-        <v>0.09915362065657973</v>
+        <v>0.1598251201212406</v>
       </c>
       <c r="E30" t="n">
-        <v>84359.00520833333</v>
+        <v>7913.039672851562</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -908,16 +908,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1741356501976649</v>
+        <v>0.171862984697024</v>
       </c>
       <c r="C31" t="n">
-        <v>82480.19791666667</v>
+        <v>7758.682942708333</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0950428241242965</v>
+        <v>0.1046062260866165</v>
       </c>
       <c r="E31" t="n">
-        <v>82480.11848958333</v>
+        <v>7758.615804036458</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -925,16 +925,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.1634138325850169</v>
+        <v>0.1689109951257706</v>
       </c>
       <c r="C32" t="n">
-        <v>80641.5859375</v>
+        <v>7607.1708984375</v>
       </c>
       <c r="D32" t="n">
-        <v>0.09773301612585783</v>
+        <v>0.1250617944945892</v>
       </c>
       <c r="E32" t="n">
-        <v>80641.52018229167</v>
+        <v>7607.127034505208</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -942,16 +942,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1173898279666901</v>
+        <v>0.07619993885358174</v>
       </c>
       <c r="C33" t="n">
-        <v>78842.3046875</v>
+        <v>7458.396484375</v>
       </c>
       <c r="D33" t="n">
-        <v>0.116370693470041</v>
+        <v>0.1437259720017513</v>
       </c>
       <c r="E33" t="n">
-        <v>78842.3046875</v>
+        <v>7458.464070638021</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -959,16 +959,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1730012694994608</v>
+        <v>0.1581908464431763</v>
       </c>
       <c r="C34" t="n">
-        <v>77081.6171875</v>
+        <v>7312.560221354167</v>
       </c>
       <c r="D34" t="n">
-        <v>0.08854293636977673</v>
+        <v>0.1004998876402775</v>
       </c>
       <c r="E34" t="n">
-        <v>77081.53385416667</v>
+        <v>7312.502400716146</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -976,16 +976,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1954695284366608</v>
+        <v>0.1069576740264893</v>
       </c>
       <c r="C35" t="n">
-        <v>75358.5</v>
+        <v>7169.300130208333</v>
       </c>
       <c r="D35" t="n">
-        <v>0.08872193330898881</v>
+        <v>0.1154708762963613</v>
       </c>
       <c r="E35" t="n">
-        <v>75358.39388020833</v>
+        <v>7169.308797200521</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -993,16 +993,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.2027390350898107</v>
+        <v>0.1374803334474564</v>
       </c>
       <c r="C36" t="n">
-        <v>73672.1953125</v>
+        <v>7028.787272135417</v>
       </c>
       <c r="D36" t="n">
-        <v>0.08085511170793325</v>
+        <v>0.1136214590320985</v>
       </c>
       <c r="E36" t="n">
-        <v>73672.07291666667</v>
+        <v>7028.763509114583</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1010,16 +1010,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1219286868969599</v>
+        <v>0.07132172460357349</v>
       </c>
       <c r="C37" t="n">
-        <v>72021.78645833333</v>
+        <v>6890.78955078125</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1048325871427854</v>
+        <v>0.1250888556241989</v>
       </c>
       <c r="E37" t="n">
-        <v>72021.76822916667</v>
+        <v>6890.843383789062</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1027,16 +1027,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.2219702899456024</v>
+        <v>0.1445066084464391</v>
       </c>
       <c r="C38" t="n">
-        <v>70406.73697916667</v>
+        <v>6755.502766927083</v>
       </c>
       <c r="D38" t="n">
-        <v>0.08756712342922886</v>
+        <v>0.09565161106487115</v>
       </c>
       <c r="E38" t="n">
-        <v>70406.60221354167</v>
+        <v>6755.454020182292</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1044,16 +1044,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1128894363840421</v>
+        <v>0.1134018773833911</v>
       </c>
       <c r="C39" t="n">
-        <v>68825.91927083333</v>
+        <v>6622.634928385417</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1185115029414495</v>
+        <v>0.1065636314451694</v>
       </c>
       <c r="E39" t="n">
-        <v>68825.92317708333</v>
+        <v>6622.628011067708</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1061,16 +1061,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.2871254285176595</v>
+        <v>0.1619671285152435</v>
       </c>
       <c r="C40" t="n">
-        <v>67279.0703125</v>
+        <v>6492.326497395833</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1225035724540551</v>
+        <v>0.1302149246136347</v>
       </c>
       <c r="E40" t="n">
-        <v>67278.90299479167</v>
+        <v>6492.294799804688</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1078,16 +1078,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1164422805110614</v>
+        <v>0.06636530968050162</v>
       </c>
       <c r="C41" t="n">
-        <v>65764.79427083333</v>
+        <v>6364.3154296875</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1165060121566057</v>
+        <v>0.1135079277058442</v>
       </c>
       <c r="E41" t="n">
-        <v>65764.796875</v>
+        <v>6364.362548828125</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1095,16 +1095,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1868646095196406</v>
+        <v>0.0807766318321228</v>
       </c>
       <c r="C42" t="n">
-        <v>64283.04296875</v>
+        <v>6238.805338541667</v>
       </c>
       <c r="D42" t="n">
-        <v>0.08233932258250813</v>
+        <v>0.1230977717787027</v>
       </c>
       <c r="E42" t="n">
-        <v>64282.93782552084</v>
+        <v>6238.84765625</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1112,16 +1112,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1723191539446513</v>
+        <v>0.1474983294804891</v>
       </c>
       <c r="C43" t="n">
-        <v>62832.73828125</v>
+        <v>6115.7001953125</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0967199547837178</v>
+        <v>0.08538918973257144</v>
       </c>
       <c r="E43" t="n">
-        <v>62832.66373697916</v>
+        <v>6115.638142903646</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1129,16 +1129,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.19306381046772</v>
+        <v>0.1193837995330493</v>
       </c>
       <c r="C44" t="n">
-        <v>61413.32552083334</v>
+        <v>5994.801432291667</v>
       </c>
       <c r="D44" t="n">
-        <v>0.09737537739177544</v>
+        <v>0.07527680446704228</v>
       </c>
       <c r="E44" t="n">
-        <v>61413.22981770834</v>
+        <v>5994.757405598958</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1146,16 +1146,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1873112221558889</v>
+        <v>0.1706040799617767</v>
       </c>
       <c r="C45" t="n">
-        <v>60024.10546875</v>
+        <v>5876.245768229167</v>
       </c>
       <c r="D45" t="n">
-        <v>0.08692417914668719</v>
+        <v>0.09225534709791343</v>
       </c>
       <c r="E45" t="n">
-        <v>60024.0048828125</v>
+        <v>5876.167439778646</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1163,16 +1163,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1488782813151678</v>
+        <v>0.08304669211308162</v>
       </c>
       <c r="C46" t="n">
-        <v>58664.41015625</v>
+        <v>5759.77978515625</v>
       </c>
       <c r="D46" t="n">
-        <v>0.08731100056320429</v>
+        <v>0.08700473171969254</v>
       </c>
       <c r="E46" t="n">
-        <v>58664.349609375</v>
+        <v>5759.783772786458</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1180,16 +1180,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1626341690619787</v>
+        <v>0.1090818643569946</v>
       </c>
       <c r="C47" t="n">
-        <v>57333.70703125</v>
+        <v>5645.611979166667</v>
       </c>
       <c r="D47" t="n">
-        <v>0.08369893875593941</v>
+        <v>0.1146109650532405</v>
       </c>
       <c r="E47" t="n">
-        <v>57333.62630208334</v>
+        <v>5645.617553710938</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1197,16 +1197,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1870795687039693</v>
+        <v>0.1928912550210953</v>
       </c>
       <c r="C48" t="n">
-        <v>56031.3203125</v>
+        <v>5533.65771484375</v>
       </c>
       <c r="D48" t="n">
-        <v>0.08504864402736227</v>
+        <v>0.09351646900177002</v>
       </c>
       <c r="E48" t="n">
-        <v>56031.21809895834</v>
+        <v>5533.558308919271</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1214,16 +1214,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1668801456689835</v>
+        <v>0.1108517025907834</v>
       </c>
       <c r="C49" t="n">
-        <v>54756.62890625</v>
+        <v>5423.64404296875</v>
       </c>
       <c r="D49" t="n">
-        <v>0.08642717512945335</v>
+        <v>0.2346540912985802</v>
       </c>
       <c r="E49" t="n">
-        <v>54756.54720052084</v>
+        <v>5423.767862955729</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1231,16 +1231,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1911967794100443</v>
+        <v>0.09056708340843518</v>
       </c>
       <c r="C50" t="n">
-        <v>53509.1171875</v>
+        <v>5315.763834635417</v>
       </c>
       <c r="D50" t="n">
-        <v>0.07396699208766222</v>
+        <v>0.1091670642296473</v>
       </c>
       <c r="E50" t="n">
-        <v>53509.00032552084</v>
+        <v>5315.782511393229</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1248,16 +1248,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.1487233067552249</v>
+        <v>0.191046009461085</v>
       </c>
       <c r="C51" t="n">
-        <v>52288.09375</v>
+        <v>5210.039713541667</v>
       </c>
       <c r="D51" t="n">
-        <v>0.08868022852887709</v>
+        <v>0.09120779670774937</v>
       </c>
       <c r="E51" t="n">
-        <v>52288.03352864584</v>
+        <v>5209.939778645833</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1265,16 +1265,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0.1994578192631404</v>
+        <v>0.1102792421976725</v>
       </c>
       <c r="C52" t="n">
-        <v>51093.1796875</v>
+        <v>5106.129231770833</v>
       </c>
       <c r="D52" t="n">
-        <v>0.08247584740941723</v>
+        <v>0.08999543419728677</v>
       </c>
       <c r="E52" t="n">
-        <v>51093.0625</v>
+        <v>5106.109008789062</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1282,16 +1282,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1933213224013647</v>
+        <v>0.08997146040201187</v>
       </c>
       <c r="C53" t="n">
-        <v>49923.66666666666</v>
+        <v>5004.240234375</v>
       </c>
       <c r="D53" t="n">
-        <v>0.08759053470566869</v>
+        <v>0.1255745328962803</v>
       </c>
       <c r="E53" t="n">
-        <v>49923.560546875</v>
+        <v>5004.275919596354</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1299,16 +1299,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0.180427814523379</v>
+        <v>0.1482032264272372</v>
       </c>
       <c r="C54" t="n">
-        <v>48779.078125</v>
+        <v>4904.354817708333</v>
       </c>
       <c r="D54" t="n">
-        <v>0.08221195777878165</v>
+        <v>0.1104291727145513</v>
       </c>
       <c r="E54" t="n">
-        <v>48778.98079427084</v>
+        <v>4904.316975911458</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1316,16 +1316,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1608961621920268</v>
+        <v>0.1043688158194224</v>
       </c>
       <c r="C55" t="n">
-        <v>47658.90234375</v>
+        <v>4806.263509114583</v>
       </c>
       <c r="D55" t="n">
-        <v>0.08672683561841647</v>
+        <v>0.08919422701001167</v>
       </c>
       <c r="E55" t="n">
-        <v>47658.8291015625</v>
+        <v>4806.248413085938</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1333,16 +1333,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1835022618373235</v>
+        <v>0.1050856063763301</v>
       </c>
       <c r="C56" t="n">
-        <v>46562.65234375</v>
+        <v>4710.067057291667</v>
       </c>
       <c r="D56" t="n">
-        <v>0.08752310772736867</v>
+        <v>0.1285214852541685</v>
       </c>
       <c r="E56" t="n">
-        <v>46562.55598958334</v>
+        <v>4710.090454101562</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1350,16 +1350,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0.2122709403435389</v>
+        <v>0.1884790410598119</v>
       </c>
       <c r="C57" t="n">
-        <v>45489.82552083334</v>
+        <v>4615.77392578125</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0895840913678209</v>
+        <v>0.1034974601740638</v>
       </c>
       <c r="E57" t="n">
-        <v>45489.70279947916</v>
+        <v>4615.68896484375</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1367,16 +1367,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1874564290046692</v>
+        <v>0.1534447173277537</v>
       </c>
       <c r="C58" t="n">
-        <v>44439.86197916666</v>
+        <v>4523.157389322917</v>
       </c>
       <c r="D58" t="n">
-        <v>0.08765281798938911</v>
+        <v>0.09082868850479524</v>
       </c>
       <c r="E58" t="n">
-        <v>44439.76334635416</v>
+        <v>4523.094767252604</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1384,16 +1384,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.183940127491951</v>
+        <v>0.09215841442346573</v>
       </c>
       <c r="C59" t="n">
-        <v>43412.36328125</v>
+        <v>4432.275227864583</v>
       </c>
       <c r="D59" t="n">
-        <v>0.08171332363660137</v>
+        <v>0.09922797915836175</v>
       </c>
       <c r="E59" t="n">
-        <v>43412.26139322916</v>
+        <v>4432.282348632812</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1401,16 +1401,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0.2021078517039617</v>
+        <v>0.1777139604091644</v>
       </c>
       <c r="C60" t="n">
-        <v>42406.86197916666</v>
+        <v>4343.26220703125</v>
       </c>
       <c r="D60" t="n">
-        <v>0.08281530113890767</v>
+        <v>0.08948313755293687</v>
       </c>
       <c r="E60" t="n">
-        <v>42406.7431640625</v>
+        <v>4343.173909505208</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1418,16 +1418,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1767165263493856</v>
+        <v>0.05673919369777044</v>
       </c>
       <c r="C61" t="n">
-        <v>41422.84505208334</v>
+        <v>4255.73486328125</v>
       </c>
       <c r="D61" t="n">
-        <v>0.08640555137147506</v>
+        <v>0.1897184277574221</v>
       </c>
       <c r="E61" t="n">
-        <v>41422.7548828125</v>
+        <v>4255.868041992188</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1435,16 +1435,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1940655261278152</v>
+        <v>0.1334645772973696</v>
       </c>
       <c r="C62" t="n">
-        <v>40459.95182291666</v>
+        <v>4170.068684895833</v>
       </c>
       <c r="D62" t="n">
-        <v>0.08018387155607343</v>
+        <v>0.1360762597372135</v>
       </c>
       <c r="E62" t="n">
-        <v>40459.837890625</v>
+        <v>4170.071166992188</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1452,16 +1452,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1791864931583405</v>
+        <v>0.1548056254784266</v>
       </c>
       <c r="C63" t="n">
-        <v>39517.66796875</v>
+        <v>4085.986409505208</v>
       </c>
       <c r="D63" t="n">
-        <v>0.08323565901567538</v>
+        <v>0.07939797826111317</v>
       </c>
       <c r="E63" t="n">
-        <v>39517.57161458334</v>
+        <v>4085.910929361979</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1469,16 +1469,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1795297016700109</v>
+        <v>0.08602176606655121</v>
       </c>
       <c r="C64" t="n">
-        <v>38595.62890625</v>
+        <v>4003.424886067708</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0848314609999458</v>
+        <v>0.09507929719984531</v>
       </c>
       <c r="E64" t="n">
-        <v>38595.53385416666</v>
+        <v>4003.433919270833</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1486,16 +1486,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0.1832661976416906</v>
+        <v>0.2751727451880773</v>
       </c>
       <c r="C65" t="n">
-        <v>37693.38151041666</v>
+        <v>3922.693603515625</v>
       </c>
       <c r="D65" t="n">
-        <v>0.08877004558841388</v>
+        <v>0.2172379580636819</v>
       </c>
       <c r="E65" t="n">
-        <v>37693.2880859375</v>
+        <v>3922.635701497396</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1503,16 +1503,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1945149352153142</v>
+        <v>0.1225283195575078</v>
       </c>
       <c r="C66" t="n">
-        <v>36810.54557291666</v>
+        <v>3843.177897135417</v>
       </c>
       <c r="D66" t="n">
-        <v>0.08777096432944138</v>
+        <v>0.1186860762536526</v>
       </c>
       <c r="E66" t="n">
-        <v>36810.43912760416</v>
+        <v>3843.174072265625</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1520,16 +1520,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1840035319328308</v>
+        <v>0.05710257713993391</v>
       </c>
       <c r="C67" t="n">
-        <v>35946.69661458334</v>
+        <v>3765.274088541667</v>
       </c>
       <c r="D67" t="n">
-        <v>0.08820589166134596</v>
+        <v>0.2507053626080354</v>
       </c>
       <c r="E67" t="n">
-        <v>35946.59993489584</v>
+        <v>3765.4677734375</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1537,16 +1537,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1820414712031682</v>
+        <v>0.1212747866908709</v>
       </c>
       <c r="C68" t="n">
-        <v>35101.45052083334</v>
+        <v>3688.999755859375</v>
       </c>
       <c r="D68" t="n">
-        <v>0.08976812443385522</v>
+        <v>0.1152907032519579</v>
       </c>
       <c r="E68" t="n">
-        <v>35101.359375</v>
+        <v>3688.993713378906</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1554,16 +1554,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0.1922890096902847</v>
+        <v>0.06768800814946492</v>
       </c>
       <c r="C69" t="n">
-        <v>34274.45833333334</v>
+        <v>3614.072102864583</v>
       </c>
       <c r="D69" t="n">
-        <v>0.09039046242833138</v>
+        <v>0.1933550635973612</v>
       </c>
       <c r="E69" t="n">
-        <v>34274.35579427084</v>
+        <v>3614.19775390625</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1571,16 +1571,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>0.1832218418518702</v>
+        <v>0.139408603310585</v>
       </c>
       <c r="C70" t="n">
-        <v>33465.29166666666</v>
+        <v>3540.71337890625</v>
       </c>
       <c r="D70" t="n">
-        <v>0.09122041302422683</v>
+        <v>0.0895975021024545</v>
       </c>
       <c r="E70" t="n">
-        <v>33465.20052083334</v>
+        <v>3540.663594563802</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1588,16 +1588,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0.2056507517894109</v>
+        <v>0.2342103372017542</v>
       </c>
       <c r="C71" t="n">
-        <v>32673.64518229167</v>
+        <v>3468.788899739583</v>
       </c>
       <c r="D71" t="n">
-        <v>0.08996826348205407</v>
+        <v>0.1689878726998965</v>
       </c>
       <c r="E71" t="n">
-        <v>32673.529296875</v>
+        <v>3468.723673502604</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1605,16 +1605,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>0.2041654239098231</v>
+        <v>0.1069962059458097</v>
       </c>
       <c r="C72" t="n">
-        <v>31899.10872395833</v>
+        <v>3398.027180989583</v>
       </c>
       <c r="D72" t="n">
-        <v>0.09312359243631363</v>
+        <v>0.1086754699548085</v>
       </c>
       <c r="E72" t="n">
-        <v>31898.99739583333</v>
+        <v>3398.028828938802</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1622,16 +1622,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>0.1849594215552012</v>
+        <v>0.06635419776042302</v>
       </c>
       <c r="C73" t="n">
-        <v>31141.33919270833</v>
+        <v>3328.71337890625</v>
       </c>
       <c r="D73" t="n">
-        <v>0.09539355182399352</v>
+        <v>0.1086509376764297</v>
       </c>
       <c r="E73" t="n">
-        <v>31141.24983723958</v>
+        <v>3328.755615234375</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1639,16 +1639,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>0.191854844490687</v>
+        <v>0.08506014322241147</v>
       </c>
       <c r="C74" t="n">
-        <v>30400.03190104167</v>
+        <v>3260.792561848958</v>
       </c>
       <c r="D74" t="n">
-        <v>0.09406063767770927</v>
+        <v>0.09073865662018459</v>
       </c>
       <c r="E74" t="n">
-        <v>30399.93408203125</v>
+        <v>3260.798258463542</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1656,16 +1656,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>0.1927082091569901</v>
+        <v>0.07265649860103925</v>
       </c>
       <c r="C75" t="n">
-        <v>29674.81510416667</v>
+        <v>3194.154866536458</v>
       </c>
       <c r="D75" t="n">
-        <v>0.09932885598391294</v>
+        <v>0.1797415452698866</v>
       </c>
       <c r="E75" t="n">
-        <v>29674.72233072917</v>
+        <v>3194.262003580729</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1673,16 +1673,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>0.1842892915010452</v>
+        <v>0.08875475948055585</v>
       </c>
       <c r="C76" t="n">
-        <v>28965.37174479167</v>
+        <v>3128.840983072917</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0989668124044935</v>
+        <v>0.1061739418655634</v>
       </c>
       <c r="E76" t="n">
-        <v>28965.28645833333</v>
+        <v>3128.858337402344</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1690,16 +1690,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>0.202880322933197</v>
+        <v>0.07057176282008489</v>
       </c>
       <c r="C77" t="n">
-        <v>28271.40234375</v>
+        <v>3064.757649739583</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0996826986471812</v>
+        <v>0.1035589228073756</v>
       </c>
       <c r="E77" t="n">
-        <v>28271.298828125</v>
+        <v>3064.790568033854</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1707,16 +1707,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>0.2083173890908559</v>
+        <v>0.2082977791627248</v>
       </c>
       <c r="C78" t="n">
-        <v>27592.55989583333</v>
+        <v>3002.072265625</v>
       </c>
       <c r="D78" t="n">
-        <v>0.09552549477666616</v>
+        <v>0.1526784201463064</v>
       </c>
       <c r="E78" t="n">
-        <v>27592.447265625</v>
+        <v>3002.01670328776</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1724,16 +1724,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>0.1972912053267161</v>
+        <v>0.14668225000302</v>
       </c>
       <c r="C79" t="n">
-        <v>26928.525390625</v>
+        <v>2940.411539713542</v>
       </c>
       <c r="D79" t="n">
-        <v>0.09717597812414169</v>
+        <v>0.08480081117401521</v>
       </c>
       <c r="E79" t="n">
-        <v>26928.42529296875</v>
+        <v>2940.349690755208</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1741,16 +1741,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>0.2027175178130468</v>
+        <v>0.09541083127260208</v>
       </c>
       <c r="C80" t="n">
-        <v>26279.029296875</v>
+        <v>2879.956217447917</v>
       </c>
       <c r="D80" t="n">
-        <v>0.09967605769634247</v>
+        <v>0.09023837062219779</v>
       </c>
       <c r="E80" t="n">
-        <v>26278.92594401042</v>
+        <v>2879.95107014974</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1758,16 +1758,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>0.2010613282521566</v>
+        <v>0.1694893836975098</v>
       </c>
       <c r="C81" t="n">
-        <v>25643.759765625</v>
+        <v>2820.803466796875</v>
       </c>
       <c r="D81" t="n">
-        <v>0.1007296579579512</v>
+        <v>0.1104538682848215</v>
       </c>
       <c r="E81" t="n">
-        <v>25643.65934244792</v>
+        <v>2820.74452718099</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1775,16 +1775,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>0.191195473074913</v>
+        <v>0.09520599866906802</v>
       </c>
       <c r="C82" t="n">
-        <v>25022.41015625</v>
+        <v>2762.65673828125</v>
       </c>
       <c r="D82" t="n">
-        <v>0.1082297209650278</v>
+        <v>0.09975213867922623</v>
       </c>
       <c r="E82" t="n">
-        <v>25022.32698567708</v>
+        <v>2762.661275227865</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1792,16 +1792,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>0.2243583848079046</v>
+        <v>0.1588597844044367</v>
       </c>
       <c r="C83" t="n">
-        <v>24414.76888020833</v>
+        <v>2705.78271484375</v>
       </c>
       <c r="D83" t="n">
-        <v>0.1008596246441205</v>
+        <v>0.107179722438256</v>
       </c>
       <c r="E83" t="n">
-        <v>24414.64567057292</v>
+        <v>2705.73095703125</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1809,16 +1809,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>0.1997217784325282</v>
+        <v>0.07147695496678352</v>
       </c>
       <c r="C84" t="n">
-        <v>23820.44401041667</v>
+        <v>2649.875162760417</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1027610159168641</v>
+        <v>0.1183224649478992</v>
       </c>
       <c r="E84" t="n">
-        <v>23820.34716796875</v>
+        <v>2649.922017415365</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1826,16 +1826,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>0.2145813703536987</v>
+        <v>0.111659641067187</v>
       </c>
       <c r="C85" t="n">
-        <v>23239.255859375</v>
+        <v>2595.187581380208</v>
       </c>
       <c r="D85" t="n">
-        <v>0.1001611740017931</v>
+        <v>0.07954176298032205</v>
       </c>
       <c r="E85" t="n">
-        <v>23239.14127604167</v>
+        <v>2595.155456542969</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1843,16 +1843,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>0.2002529899279276</v>
+        <v>0.1030869682629903</v>
       </c>
       <c r="C86" t="n">
-        <v>22670.87369791667</v>
+        <v>2541.524495442708</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1041205550233523</v>
+        <v>0.1117051442464193</v>
       </c>
       <c r="E86" t="n">
-        <v>22670.77799479167</v>
+        <v>2541.533060709635</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1860,16 +1860,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>0.2178923686345418</v>
+        <v>0.05501390372713407</v>
       </c>
       <c r="C87" t="n">
-        <v>22115.09830729167</v>
+        <v>2488.876302083333</v>
       </c>
       <c r="D87" t="n">
-        <v>0.1017554719001055</v>
+        <v>0.1461092624813318</v>
       </c>
       <c r="E87" t="n">
-        <v>22114.982421875</v>
+        <v>2488.967366536458</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1877,16 +1877,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>0.208528608083725</v>
+        <v>0.2408909449974696</v>
       </c>
       <c r="C88" t="n">
-        <v>21571.61328125</v>
+        <v>2437.494547526042</v>
       </c>
       <c r="D88" t="n">
-        <v>0.1020738864317536</v>
+        <v>0.125642537449797</v>
       </c>
       <c r="E88" t="n">
-        <v>21571.50634765625</v>
+        <v>2437.379333496094</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1894,16 +1894,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>0.1919172604878744</v>
+        <v>0.173164039850235</v>
       </c>
       <c r="C89" t="n">
-        <v>21040.18033854167</v>
+        <v>2386.879720052083</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1062929791708787</v>
+        <v>0.1164242594192425</v>
       </c>
       <c r="E89" t="n">
-        <v>21040.0947265625</v>
+        <v>2386.822977701823</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1911,16 +1911,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>0.2167547941207886</v>
+        <v>0.1068590059876442</v>
       </c>
       <c r="C90" t="n">
-        <v>20520.61002604167</v>
+        <v>2337.262451171875</v>
       </c>
       <c r="D90" t="n">
-        <v>0.1029541973645488</v>
+        <v>0.09316316060721874</v>
       </c>
       <c r="E90" t="n">
-        <v>20520.49544270833</v>
+        <v>2337.248677571615</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1928,16 +1928,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>0.2030673523743947</v>
+        <v>0.060147142658631</v>
       </c>
       <c r="C91" t="n">
-        <v>20012.57486979167</v>
+        <v>2288.648681640625</v>
       </c>
       <c r="D91" t="n">
-        <v>0.105379697556297</v>
+        <v>0.1566169535120328</v>
       </c>
       <c r="E91" t="n">
-        <v>20012.47623697917</v>
+        <v>2288.745239257812</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1945,16 +1945,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>0.1924101064602534</v>
+        <v>0.06590239082773526</v>
       </c>
       <c r="C92" t="n">
-        <v>19515.88346354167</v>
+        <v>2241.051839192708</v>
       </c>
       <c r="D92" t="n">
-        <v>0.1085437716295322</v>
+        <v>0.1070493205140034</v>
       </c>
       <c r="E92" t="n">
-        <v>19515.79996744792</v>
+        <v>2241.092895507812</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1962,16 +1962,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>0.2202886293331782</v>
+        <v>0.06949015334248543</v>
       </c>
       <c r="C93" t="n">
-        <v>19030.33723958333</v>
+        <v>2194.396891276042</v>
       </c>
       <c r="D93" t="n">
-        <v>0.1037223224217693</v>
+        <v>0.1672275351981322</v>
       </c>
       <c r="E93" t="n">
-        <v>19030.22086588542</v>
+        <v>2194.494649251302</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1979,16 +1979,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>0.2012254397074381</v>
+        <v>0.1104334518313408</v>
       </c>
       <c r="C94" t="n">
-        <v>18555.62369791667</v>
+        <v>2148.704182942708</v>
       </c>
       <c r="D94" t="n">
-        <v>0.1071940362453461</v>
+        <v>0.1104403274754683</v>
       </c>
       <c r="E94" t="n">
-        <v>18555.529296875</v>
+        <v>2148.70420328776</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1996,16 +1996,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>0.1971745838721593</v>
+        <v>0.08890542512138684</v>
       </c>
       <c r="C95" t="n">
-        <v>18091.58203125</v>
+        <v>2103.855794270833</v>
       </c>
       <c r="D95" t="n">
-        <v>0.1092472883562247</v>
+        <v>0.1115643916030725</v>
       </c>
       <c r="E95" t="n">
-        <v>18091.494140625</v>
+        <v>2103.878377278646</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2013,16 +2013,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>0.2133557597796122</v>
+        <v>0.1519461075464884</v>
       </c>
       <c r="C96" t="n">
-        <v>17637.99674479167</v>
+        <v>2059.982259114583</v>
       </c>
       <c r="D96" t="n">
-        <v>0.1073442076643308</v>
+        <v>0.09194665402173996</v>
       </c>
       <c r="E96" t="n">
-        <v>17637.89013671875</v>
+        <v>2059.92226155599</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2030,16 +2030,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>0.2068865795930227</v>
+        <v>0.18855220079422</v>
       </c>
       <c r="C97" t="n">
-        <v>17194.61328125</v>
+        <v>2016.959920247396</v>
       </c>
       <c r="D97" t="n">
-        <v>0.1096309100588163</v>
+        <v>0.1056517977267504</v>
       </c>
       <c r="E97" t="n">
-        <v>17194.51595052083</v>
+        <v>2016.877024332682</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2047,16 +2047,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>0.2178622235854467</v>
+        <v>0.1840608268976212</v>
       </c>
       <c r="C98" t="n">
-        <v>16761.26041666667</v>
+        <v>1974.758911132812</v>
       </c>
       <c r="D98" t="n">
-        <v>0.109266921877861</v>
+        <v>0.1050330543269714</v>
       </c>
       <c r="E98" t="n">
-        <v>16761.15250651042</v>
+        <v>1974.679860432943</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2064,16 +2064,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>0.2169270366430283</v>
+        <v>0.07302237302064896</v>
       </c>
       <c r="C99" t="n">
-        <v>16337.70735677083</v>
+        <v>1933.296549479167</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1103121570001046</v>
+        <v>0.1030865817641218</v>
       </c>
       <c r="E99" t="n">
-        <v>16337.60050455729</v>
+        <v>1933.326588948568</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2081,16 +2081,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>0.2219656159480413</v>
+        <v>0.08739597350358963</v>
       </c>
       <c r="C100" t="n">
-        <v>15923.76204427083</v>
+        <v>1892.790161132812</v>
       </c>
       <c r="D100" t="n">
-        <v>0.1096625508119663</v>
+        <v>0.08848323300480843</v>
       </c>
       <c r="E100" t="n">
-        <v>15923.64973958333</v>
+        <v>1892.791239420573</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2098,16 +2098,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>0.2043349891901016</v>
+        <v>0.1169635901848475</v>
       </c>
       <c r="C101" t="n">
-        <v>15519.20149739583</v>
+        <v>1853.109985351562</v>
       </c>
       <c r="D101" t="n">
-        <v>0.1130958888679743</v>
+        <v>0.1017208192497492</v>
       </c>
       <c r="E101" t="n">
-        <v>15519.11018880208</v>
+        <v>1853.094767252604</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2115,16 +2115,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>0.2159850398699442</v>
+        <v>0.0709989642103513</v>
       </c>
       <c r="C102" t="n">
-        <v>15123.884765625</v>
+        <v>1814.152058919271</v>
       </c>
       <c r="D102" t="n">
-        <v>0.1112760609636704</v>
+        <v>0.1104921934505304</v>
       </c>
       <c r="E102" t="n">
-        <v>15123.78019205729</v>
+        <v>1814.191538492839</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2132,16 +2132,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>0.2195844650268555</v>
+        <v>0.2028791606426239</v>
       </c>
       <c r="C103" t="n">
-        <v>14737.58561197917</v>
+        <v>1776.153523763021</v>
       </c>
       <c r="D103" t="n">
-        <v>0.1105533707886934</v>
+        <v>0.1295828794439634</v>
       </c>
       <c r="E103" t="n">
-        <v>14737.47680664062</v>
+        <v>1776.080261230469</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2149,16 +2149,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>0.2153333624204</v>
+        <v>0.04783150491615137</v>
       </c>
       <c r="C104" t="n">
-        <v>14360.11393229167</v>
+        <v>1738.637776692708</v>
       </c>
       <c r="D104" t="n">
-        <v>0.1124961872895559</v>
+        <v>0.1586253506441911</v>
       </c>
       <c r="E104" t="n">
-        <v>14360.01098632812</v>
+        <v>1738.748596191406</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2166,16 +2166,16 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>0.2151562223831812</v>
+        <v>0.1857475439707438</v>
       </c>
       <c r="C105" t="n">
-        <v>13991.30110677083</v>
+        <v>1702.177937825521</v>
       </c>
       <c r="D105" t="n">
-        <v>0.1142170584450165</v>
+        <v>0.1141557432711124</v>
       </c>
       <c r="E105" t="n">
-        <v>13991.2001953125</v>
+        <v>1702.106353759766</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2183,16 +2183,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>0.2282080302635829</v>
+        <v>0.07312681029240291</v>
       </c>
       <c r="C106" t="n">
-        <v>13630.9794921875</v>
+        <v>1666.209391276042</v>
       </c>
       <c r="D106" t="n">
-        <v>0.1125533307592074</v>
+        <v>0.120384156703949</v>
       </c>
       <c r="E106" t="n">
-        <v>13630.86360677083</v>
+        <v>1666.256622314453</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2200,16 +2200,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>0.2198061943054199</v>
+        <v>0.1390732079744339</v>
       </c>
       <c r="C107" t="n">
-        <v>13278.9326171875</v>
+        <v>1631.143473307292</v>
       </c>
       <c r="D107" t="n">
-        <v>0.1145138281087081</v>
+        <v>0.0923709546526273</v>
       </c>
       <c r="E107" t="n">
-        <v>13278.82747395833</v>
+        <v>1631.096771240234</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2217,16 +2217,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>0.2239902913570404</v>
+        <v>0.155641183257103</v>
       </c>
       <c r="C108" t="n">
-        <v>12935.02734375</v>
+        <v>1596.74169921875</v>
       </c>
       <c r="D108" t="n">
-        <v>0.114922863120834</v>
+        <v>0.09890699138243993</v>
       </c>
       <c r="E108" t="n">
-        <v>12934.91853841146</v>
+        <v>1596.684946695964</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2234,16 +2234,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>0.221599668264389</v>
+        <v>0.1206001366178195</v>
       </c>
       <c r="C109" t="n">
-        <v>12599.0732421875</v>
+        <v>1562.990600585938</v>
       </c>
       <c r="D109" t="n">
-        <v>0.1158842171231906</v>
+        <v>0.1005194932222366</v>
       </c>
       <c r="E109" t="n">
-        <v>12598.96752929688</v>
+        <v>1562.970489501953</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2251,16 +2251,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>0.2304110676050186</v>
+        <v>0.1818722486495972</v>
       </c>
       <c r="C110" t="n">
-        <v>12270.92578125</v>
+        <v>1530.020345052083</v>
       </c>
       <c r="D110" t="n">
-        <v>0.1158316768705845</v>
+        <v>0.1157684090236823</v>
       </c>
       <c r="E110" t="n">
-        <v>12270.81119791667</v>
+        <v>1529.954274495443</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2268,16 +2268,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>0.2181021173795064</v>
+        <v>0.1834902067979177</v>
       </c>
       <c r="C111" t="n">
-        <v>11950.38313802083</v>
+        <v>1497.663208007812</v>
       </c>
       <c r="D111" t="n">
-        <v>0.1185965978850921</v>
+        <v>0.118924044072628</v>
       </c>
       <c r="E111" t="n">
-        <v>11950.28361002604</v>
+        <v>1497.598653157552</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2285,16 +2285,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>0.231160894036293</v>
+        <v>0.1933169613281886</v>
       </c>
       <c r="C112" t="n">
-        <v>11637.34049479167</v>
+        <v>1465.979410807292</v>
       </c>
       <c r="D112" t="n">
-        <v>0.1170170822491248</v>
+        <v>0.1104006407161554</v>
       </c>
       <c r="E112" t="n">
-        <v>11637.22639973958</v>
+        <v>1465.896545410156</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2302,16 +2302,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>0.2220648874839147</v>
+        <v>0.07433326790730159</v>
       </c>
       <c r="C113" t="n">
-        <v>11331.58919270833</v>
+        <v>1434.81494140625</v>
       </c>
       <c r="D113" t="n">
-        <v>0.1193556947012742</v>
+        <v>0.1116331915060679</v>
       </c>
       <c r="E113" t="n">
-        <v>11331.48665364583</v>
+        <v>1434.852233886719</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2319,16 +2319,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>0.2203595985968908</v>
+        <v>0.05441874576111635</v>
       </c>
       <c r="C114" t="n">
-        <v>11033.00716145833</v>
+        <v>1404.386189778646</v>
       </c>
       <c r="D114" t="n">
-        <v>0.1201436333358288</v>
+        <v>0.1906769474347433</v>
       </c>
       <c r="E114" t="n">
-        <v>11032.90714518229</v>
+        <v>1404.522471110026</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2336,16 +2336,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>0.223713164528211</v>
+        <v>0.07644832630952199</v>
       </c>
       <c r="C115" t="n">
-        <v>10741.443359375</v>
+        <v>1374.626993815104</v>
       </c>
       <c r="D115" t="n">
-        <v>0.1201791396985451</v>
+        <v>0.1077465610578656</v>
       </c>
       <c r="E115" t="n">
-        <v>10741.34000651042</v>
+        <v>1374.658284505208</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2353,16 +2353,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>0.2204006512959798</v>
+        <v>0.1667788873116175</v>
       </c>
       <c r="C116" t="n">
-        <v>10456.73404947917</v>
+        <v>1345.551310221354</v>
       </c>
       <c r="D116" t="n">
-        <v>0.1227277001986901</v>
+        <v>0.1088194816062848</v>
       </c>
       <c r="E116" t="n">
-        <v>10456.63623046875</v>
+        <v>1345.493336995443</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2370,16 +2370,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>0.2316152354081472</v>
+        <v>0.115877091884613</v>
       </c>
       <c r="C117" t="n">
-        <v>10178.76595052083</v>
+        <v>1316.935587565104</v>
       </c>
       <c r="D117" t="n">
-        <v>0.121233006939292</v>
+        <v>0.1211759597063065</v>
       </c>
       <c r="E117" t="n">
-        <v>10178.65543619792</v>
+        <v>1316.940877278646</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2387,16 +2387,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>0.2192741433779399</v>
+        <v>0.05477235093712807</v>
       </c>
       <c r="C118" t="n">
-        <v>9907.347005208334</v>
+        <v>1288.900594075521</v>
       </c>
       <c r="D118" t="n">
-        <v>0.1235116720199585</v>
+        <v>0.1857693480948607</v>
       </c>
       <c r="E118" t="n">
-        <v>9907.25146484375</v>
+        <v>1289.031585693359</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2404,16 +2404,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>0.2245794137318929</v>
+        <v>0.1232791269818942</v>
       </c>
       <c r="C119" t="n">
-        <v>9642.387044270834</v>
+        <v>1261.576293945312</v>
       </c>
       <c r="D119" t="n">
-        <v>0.1241221229235331</v>
+        <v>0.1120028228809436</v>
       </c>
       <c r="E119" t="n">
-        <v>9642.286214192709</v>
+        <v>1261.565012613932</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2421,16 +2421,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>0.231473371386528</v>
+        <v>0.2558298657337825</v>
       </c>
       <c r="C120" t="n">
-        <v>9383.733723958334</v>
+        <v>1234.8828125</v>
       </c>
       <c r="D120" t="n">
-        <v>0.1232765950262547</v>
+        <v>0.1542742407570283</v>
       </c>
       <c r="E120" t="n">
-        <v>9383.625244140625</v>
+        <v>1234.781229654948</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2438,16 +2438,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>0.2244823724031448</v>
+        <v>0.1489656170209249</v>
       </c>
       <c r="C121" t="n">
-        <v>9131.235026041666</v>
+        <v>1208.506632486979</v>
       </c>
       <c r="D121" t="n">
-        <v>0.1250216284145912</v>
+        <v>0.09371333755552769</v>
       </c>
       <c r="E121" t="n">
-        <v>9131.135823567709</v>
+        <v>1208.451375325521</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2455,16 +2455,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>0.2278592238823573</v>
+        <v>0.1016237065196037</v>
       </c>
       <c r="C122" t="n">
-        <v>8884.788411458334</v>
+        <v>1182.736857096354</v>
       </c>
       <c r="D122" t="n">
-        <v>0.1249893686423699</v>
+        <v>0.09453706753750642</v>
       </c>
       <c r="E122" t="n">
-        <v>8884.685628255209</v>
+        <v>1182.729797363281</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2472,16 +2472,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>0.217696929971377</v>
+        <v>0.1300805608431498</v>
       </c>
       <c r="C123" t="n">
-        <v>8644.236979166666</v>
+        <v>1157.579060872396</v>
       </c>
       <c r="D123" t="n">
-        <v>0.1273989037921031</v>
+        <v>0.2473322562873363</v>
       </c>
       <c r="E123" t="n">
-        <v>8644.146809895834</v>
+        <v>1157.696309407552</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2489,16 +2489,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>0.2298630873362223</v>
+        <v>0.1327240218718847</v>
       </c>
       <c r="C124" t="n">
-        <v>8409.495442708334</v>
+        <v>1132.923014322917</v>
       </c>
       <c r="D124" t="n">
-        <v>0.1261948843797048</v>
+        <v>0.08961441802481811</v>
       </c>
       <c r="E124" t="n">
-        <v>8409.391682942709</v>
+        <v>1132.8798828125</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2506,16 +2506,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>0.22112109263738</v>
+        <v>0.1547693759202957</v>
       </c>
       <c r="C125" t="n">
-        <v>8180.391438802083</v>
+        <v>1108.802856445312</v>
       </c>
       <c r="D125" t="n">
-        <v>0.1286098311344782</v>
+        <v>0.1167037530491749</v>
       </c>
       <c r="E125" t="n">
-        <v>8180.298990885417</v>
+        <v>1108.764770507812</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2523,16 +2523,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>0.2232185949881872</v>
+        <v>0.07179369404911995</v>
       </c>
       <c r="C126" t="n">
-        <v>7956.84130859375</v>
+        <v>1085.085611979167</v>
       </c>
       <c r="D126" t="n">
-        <v>0.1302230829993884</v>
+        <v>0.1350315697491169</v>
       </c>
       <c r="E126" t="n">
-        <v>7956.748372395833</v>
+        <v>1085.148813883464</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2540,16 +2540,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>0.2330985168615977</v>
+        <v>0.2345504860083262</v>
       </c>
       <c r="C127" t="n">
-        <v>7738.722330729167</v>
+        <v>1062.112589518229</v>
       </c>
       <c r="D127" t="n">
-        <v>0.1284207353989283</v>
+        <v>0.1191250613580147</v>
       </c>
       <c r="E127" t="n">
-        <v>7738.617635091146</v>
+        <v>1061.99717203776</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2557,16 +2557,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>0.2263339906930923</v>
+        <v>0.183880145351092</v>
       </c>
       <c r="C128" t="n">
-        <v>7525.889811197917</v>
+        <v>1039.411905924479</v>
       </c>
       <c r="D128" t="n">
-        <v>0.1297391833116611</v>
+        <v>0.1195052675902843</v>
       </c>
       <c r="E128" t="n">
-        <v>7525.793334960938</v>
+        <v>1039.347534179688</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2574,16 +2574,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>0.2350983719031016</v>
+        <v>0.1397524128357569</v>
       </c>
       <c r="C129" t="n">
-        <v>7318.266764322917</v>
+        <v>1017.195353190104</v>
       </c>
       <c r="D129" t="n">
-        <v>0.1290859766304493</v>
+        <v>0.1002483554184437</v>
       </c>
       <c r="E129" t="n">
-        <v>7318.160807291667</v>
+        <v>1017.155858357747</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2591,16 +2591,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>0.2322816600402196</v>
+        <v>0.1021283641457558</v>
       </c>
       <c r="C130" t="n">
-        <v>7115.710774739583</v>
+        <v>995.4533894856771</v>
       </c>
       <c r="D130" t="n">
-        <v>0.1293271786222855</v>
+        <v>0.1126392272611459</v>
       </c>
       <c r="E130" t="n">
-        <v>7115.607828776042</v>
+        <v>995.4638926188151</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2608,16 +2608,16 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>0.2308642466862997</v>
+        <v>0.1567487170298894</v>
       </c>
       <c r="C131" t="n">
-        <v>6918.125813802083</v>
+        <v>974.2638142903646</v>
       </c>
       <c r="D131" t="n">
-        <v>0.1302553291122119</v>
+        <v>0.09457849152386189</v>
       </c>
       <c r="E131" t="n">
-        <v>6918.025268554688</v>
+        <v>974.2016347249349</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2625,16 +2625,16 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>0.2237023264169693</v>
+        <v>0.1450825283924738</v>
       </c>
       <c r="C132" t="n">
-        <v>6725.3984375</v>
+        <v>953.4549560546875</v>
       </c>
       <c r="D132" t="n">
-        <v>0.1317008528858423</v>
+        <v>0.09625043037037055</v>
       </c>
       <c r="E132" t="n">
-        <v>6725.306477864583</v>
+        <v>953.4061177571615</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2642,16 +2642,16 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>0.2274498889843623</v>
+        <v>0.2545802692572276</v>
       </c>
       <c r="C133" t="n">
-        <v>6537.438313802083</v>
+        <v>933.2085774739584</v>
       </c>
       <c r="D133" t="n">
-        <v>0.1318142029146353</v>
+        <v>0.1689947495857874</v>
       </c>
       <c r="E133" t="n">
-        <v>6537.342732747396</v>
+        <v>933.1229705810547</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2659,16 +2659,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>0.2375997404257456</v>
+        <v>0.157506600022316</v>
       </c>
       <c r="C134" t="n">
-        <v>6354.140462239583</v>
+        <v>913.1909586588541</v>
       </c>
       <c r="D134" t="n">
-        <v>0.1305800918489695</v>
+        <v>0.08664251739780109</v>
       </c>
       <c r="E134" t="n">
-        <v>6354.033365885417</v>
+        <v>913.1200968424479</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2676,16 +2676,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>0.2376534442106883</v>
+        <v>0.07644249498844147</v>
       </c>
       <c r="C135" t="n">
-        <v>6175.381673177083</v>
+        <v>893.6141153971354</v>
       </c>
       <c r="D135" t="n">
-        <v>0.1308742295950651</v>
+        <v>0.1222475326309602</v>
       </c>
       <c r="E135" t="n">
-        <v>6175.274943033854</v>
+        <v>893.6598968505859</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2693,16 +2693,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>0.2405292242765427</v>
+        <v>0.0471910455574592</v>
       </c>
       <c r="C136" t="n">
-        <v>6001.079264322917</v>
+        <v>874.5054524739584</v>
       </c>
       <c r="D136" t="n">
-        <v>0.1310022044926882</v>
+        <v>0.2125945265094439</v>
       </c>
       <c r="E136" t="n">
-        <v>6000.969807942708</v>
+        <v>874.6708424886068</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2710,16 +2710,16 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>0.2379714151223501</v>
+        <v>0.04998310407002767</v>
       </c>
       <c r="C137" t="n">
-        <v>5831.127604166667</v>
+        <v>855.8380737304688</v>
       </c>
       <c r="D137" t="n">
-        <v>0.1313486552486817</v>
+        <v>0.1688890506823858</v>
       </c>
       <c r="E137" t="n">
-        <v>5831.020955403646</v>
+        <v>855.9569753011068</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2727,16 +2727,16 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>0.2256395369768143</v>
+        <v>0.0782614288230737</v>
       </c>
       <c r="C138" t="n">
-        <v>5665.423502604167</v>
+        <v>837.5982869466146</v>
       </c>
       <c r="D138" t="n">
-        <v>0.134185070792834</v>
+        <v>0.127303550640742</v>
       </c>
       <c r="E138" t="n">
-        <v>5665.331949869792</v>
+        <v>837.6473134358724</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2744,16 +2744,16 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>0.2289005766312281</v>
+        <v>0.05287641783555349</v>
       </c>
       <c r="C139" t="n">
-        <v>5503.902180989583</v>
+        <v>819.6975708007812</v>
       </c>
       <c r="D139" t="n">
-        <v>0.1346875919649998</v>
+        <v>0.1617045067250729</v>
       </c>
       <c r="E139" t="n">
-        <v>5503.808064778646</v>
+        <v>819.8064117431641</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2761,16 +2761,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>0.2297929873069127</v>
+        <v>0.1223241463303566</v>
       </c>
       <c r="C140" t="n">
-        <v>5346.452962239583</v>
+        <v>802.2781982421875</v>
       </c>
       <c r="D140" t="n">
-        <v>0.1346580038468043</v>
+        <v>0.08868746925145388</v>
       </c>
       <c r="E140" t="n">
-        <v>5346.357828776042</v>
+        <v>802.2445678710938</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2778,16 +2778,16 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>0.2408700833717982</v>
+        <v>0.1542063107093175</v>
       </c>
       <c r="C141" t="n">
-        <v>5192.999186197917</v>
+        <v>785.1983439127604</v>
       </c>
       <c r="D141" t="n">
-        <v>0.1328450807680686</v>
+        <v>0.09063124035795529</v>
       </c>
       <c r="E141" t="n">
-        <v>5192.891153971354</v>
+        <v>785.1347605387369</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2795,16 +2795,16 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>0.2316004186868668</v>
+        <v>0.1016561836004257</v>
       </c>
       <c r="C142" t="n">
-        <v>5043.417643229167</v>
+        <v>768.4032999674479</v>
       </c>
       <c r="D142" t="n">
-        <v>0.1346085009475549</v>
+        <v>0.1081393000980218</v>
       </c>
       <c r="E142" t="n">
-        <v>5043.320638020833</v>
+        <v>768.4097646077474</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2812,16 +2812,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>0.2349519828955332</v>
+        <v>0.1145099873344104</v>
       </c>
       <c r="C143" t="n">
-        <v>4897.658854166667</v>
+        <v>752.0364379882812</v>
       </c>
       <c r="D143" t="n">
-        <v>0.1350995879620314</v>
+        <v>0.1516986141602198</v>
       </c>
       <c r="E143" t="n">
-        <v>4897.558837890625</v>
+        <v>752.0736338297526</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2829,16 +2829,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>0.2272202720244726</v>
+        <v>0.1258829832077026</v>
       </c>
       <c r="C144" t="n">
-        <v>4755.61279296875</v>
+        <v>736.0254720052084</v>
       </c>
       <c r="D144" t="n">
-        <v>0.1368219299862782</v>
+        <v>0.0947055375824372</v>
       </c>
       <c r="E144" t="n">
-        <v>4755.522583007812</v>
+        <v>735.9943033854166</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2846,16 +2846,16 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>0.2307881762584051</v>
+        <v>0.2182238151629766</v>
       </c>
       <c r="C145" t="n">
-        <v>4617.21923828125</v>
+        <v>720.4415893554688</v>
       </c>
       <c r="D145" t="n">
-        <v>0.1367438957095146</v>
+        <v>0.1381670963019133</v>
       </c>
       <c r="E145" t="n">
-        <v>4617.125040690104</v>
+        <v>720.3615519205729</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2863,16 +2863,16 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>0.2379081795612971</v>
+        <v>0.2728901604811351</v>
       </c>
       <c r="C146" t="n">
-        <v>4482.389322916667</v>
+        <v>705.1613972981771</v>
       </c>
       <c r="D146" t="n">
-        <v>0.136041476080815</v>
+        <v>0.1594916849086682</v>
       </c>
       <c r="E146" t="n">
-        <v>4482.287434895833</v>
+        <v>705.0479787190756</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2880,16 +2880,16 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>0.2401680499315262</v>
+        <v>0.1064781000216802</v>
       </c>
       <c r="C147" t="n">
-        <v>4351.0341796875</v>
+        <v>689.9932657877604</v>
       </c>
       <c r="D147" t="n">
-        <v>0.1358374021947384</v>
+        <v>0.1156483696152766</v>
       </c>
       <c r="E147" t="n">
-        <v>4350.929809570312</v>
+        <v>690.002431233724</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2897,16 +2897,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>0.2331482321023941</v>
+        <v>0.08110358069340388</v>
       </c>
       <c r="C148" t="n">
-        <v>4223.069173177083</v>
+        <v>675.2928263346354</v>
       </c>
       <c r="D148" t="n">
-        <v>0.1370010618120432</v>
+        <v>0.2147757820785046</v>
       </c>
       <c r="E148" t="n">
-        <v>4222.972941080729</v>
+        <v>675.426503499349</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2914,16 +2914,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>0.2318447629610697</v>
+        <v>0.1488597889741262</v>
       </c>
       <c r="C149" t="n">
-        <v>4098.433919270833</v>
+        <v>661.0104777018229</v>
       </c>
       <c r="D149" t="n">
-        <v>0.1376679819077253</v>
+        <v>0.1133458813031514</v>
       </c>
       <c r="E149" t="n">
-        <v>4098.339884440104</v>
+        <v>660.9749857584635</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2931,16 +2931,16 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>0.230537419517835</v>
+        <v>0.1206651329994202</v>
       </c>
       <c r="C150" t="n">
-        <v>3977.047688802083</v>
+        <v>646.9478759765625</v>
       </c>
       <c r="D150" t="n">
-        <v>0.1382652291407188</v>
+        <v>0.1097476119175553</v>
       </c>
       <c r="E150" t="n">
-        <v>3976.955423990885</v>
+        <v>646.9369608561198</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2948,16 +2948,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>0.2365178912878036</v>
+        <v>0.2523431430260341</v>
       </c>
       <c r="C151" t="n">
-        <v>3858.843912760417</v>
+        <v>633.3502400716146</v>
       </c>
       <c r="D151" t="n">
-        <v>0.1379651017487049</v>
+        <v>0.1341999197999636</v>
       </c>
       <c r="E151" t="n">
-        <v>3858.745381673177</v>
+        <v>633.2320963541666</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2965,16 +2965,16 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>0.2393594284852346</v>
+        <v>0.06712360307574272</v>
       </c>
       <c r="C152" t="n">
-        <v>3743.740152994792</v>
+        <v>619.7368570963541</v>
       </c>
       <c r="D152" t="n">
-        <v>0.1373979604492585</v>
+        <v>0.11605622805655</v>
       </c>
       <c r="E152" t="n">
-        <v>3743.638142903646</v>
+        <v>619.7858022054037</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -2982,16 +2982,16 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>0.2336969872315725</v>
+        <v>0.1302260532975197</v>
       </c>
       <c r="C153" t="n">
-        <v>3631.658447265625</v>
+        <v>606.6691080729166</v>
       </c>
       <c r="D153" t="n">
-        <v>0.1382113384703795</v>
+        <v>0.09645397153993447</v>
       </c>
       <c r="E153" t="n">
-        <v>3631.56298828125</v>
+        <v>606.6353302001953</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -2999,16 +2999,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>0.2382875432570775</v>
+        <v>0.1851309190193812</v>
       </c>
       <c r="C154" t="n">
-        <v>3522.54931640625</v>
+        <v>593.8818562825521</v>
       </c>
       <c r="D154" t="n">
-        <v>0.1383663887778918</v>
+        <v>0.1142466987172763</v>
       </c>
       <c r="E154" t="n">
-        <v>3522.449401855469</v>
+        <v>593.8109588623047</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3016,16 +3016,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>0.2327899237473806</v>
+        <v>0.1026072750488917</v>
       </c>
       <c r="C155" t="n">
-        <v>3416.322835286458</v>
+        <v>581.2398885091146</v>
       </c>
       <c r="D155" t="n">
-        <v>0.1393946552028259</v>
+        <v>0.09091866264740626</v>
       </c>
       <c r="E155" t="n">
-        <v>3416.229512532552</v>
+        <v>581.2281901041666</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3033,16 +3033,16 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>0.2394387423992157</v>
+        <v>0.187805712223053</v>
       </c>
       <c r="C156" t="n">
-        <v>3312.937418619792</v>
+        <v>569.0436401367188</v>
       </c>
       <c r="D156" t="n">
-        <v>0.1389619956413905</v>
+        <v>0.1077004428952932</v>
       </c>
       <c r="E156" t="n">
-        <v>3312.836954752604</v>
+        <v>568.9635365804037</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3050,16 +3050,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>0.2322549919287364</v>
+        <v>0.09876785178979237</v>
       </c>
       <c r="C157" t="n">
-        <v>3212.298421223958</v>
+        <v>556.9469807942709</v>
       </c>
       <c r="D157" t="n">
-        <v>0.1399991152187189</v>
+        <v>0.1239137121786674</v>
       </c>
       <c r="E157" t="n">
-        <v>3212.206136067708</v>
+        <v>556.9721120198568</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3067,16 +3067,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>0.2297832369804382</v>
+        <v>0.2415824284156164</v>
       </c>
       <c r="C158" t="n">
-        <v>3114.361897786458</v>
+        <v>545.3489990234375</v>
       </c>
       <c r="D158" t="n">
-        <v>0.1415729994575183</v>
+        <v>0.1415723512570063</v>
       </c>
       <c r="E158" t="n">
-        <v>3114.273640950521</v>
+        <v>545.2489980061849</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3084,16 +3084,16 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>0.2380053997039795</v>
+        <v>0.1808272351821264</v>
       </c>
       <c r="C159" t="n">
-        <v>3019.071940104167</v>
+        <v>533.8105265299479</v>
       </c>
       <c r="D159" t="n">
-        <v>0.1404932495206594</v>
+        <v>0.1023723265777032</v>
       </c>
       <c r="E159" t="n">
-        <v>3018.974487304688</v>
+        <v>533.7320709228516</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3101,16 +3101,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>0.2331926623980204</v>
+        <v>0.1500050326188405</v>
       </c>
       <c r="C160" t="n">
-        <v>2926.341389973958</v>
+        <v>522.5568033854166</v>
       </c>
       <c r="D160" t="n">
-        <v>0.1410943220059077</v>
+        <v>0.09528052310148875</v>
       </c>
       <c r="E160" t="n">
-        <v>2926.249308268229</v>
+        <v>522.5020802815756</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3118,16 +3118,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="n">
-        <v>0.2249210178852081</v>
+        <v>0.08725658059120178</v>
       </c>
       <c r="C161" t="n">
-        <v>2836.119384765625</v>
+        <v>511.5216776529948</v>
       </c>
       <c r="D161" t="n">
-        <v>0.1435835907856623</v>
+        <v>0.1286098553488652</v>
       </c>
       <c r="E161" t="n">
-        <v>2836.0380859375</v>
+        <v>511.5630264282227</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3135,16 +3135,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>0.2351478139559428</v>
+        <v>0.1229759405056636</v>
       </c>
       <c r="C162" t="n">
-        <v>2748.372151692708</v>
+        <v>500.8309224446614</v>
       </c>
       <c r="D162" t="n">
-        <v>0.1421291728814443</v>
+        <v>0.1082179391135772</v>
       </c>
       <c r="E162" t="n">
-        <v>2748.279113769531</v>
+        <v>500.8161646525065</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3152,16 +3152,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="n">
-        <v>0.2360256860653559</v>
+        <v>0.1556929995616277</v>
       </c>
       <c r="C163" t="n">
-        <v>2663.010009765625</v>
+        <v>490.3791402180989</v>
       </c>
       <c r="D163" t="n">
-        <v>0.1419085282832384</v>
+        <v>0.1103088073432446</v>
       </c>
       <c r="E163" t="n">
-        <v>2662.915832519531</v>
+        <v>490.3337605794271</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3169,16 +3169,16 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>0.2382295231024424</v>
+        <v>0.252272367477417</v>
       </c>
       <c r="C164" t="n">
-        <v>2579.988688151042</v>
+        <v>480.2253519694011</v>
       </c>
       <c r="D164" t="n">
-        <v>0.1417210524280866</v>
+        <v>0.1324863297243913</v>
       </c>
       <c r="E164" t="n">
-        <v>2579.89219156901</v>
+        <v>480.1055704752604</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3186,16 +3186,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>0.2361770967642466</v>
+        <v>0.08978529522816341</v>
       </c>
       <c r="C165" t="n">
-        <v>2499.245930989583</v>
+        <v>470.0437316894531</v>
       </c>
       <c r="D165" t="n">
-        <v>0.1427560392767191</v>
+        <v>0.1275080249955257</v>
       </c>
       <c r="E165" t="n">
-        <v>2499.152526855469</v>
+        <v>470.0814590454102</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3203,16 +3203,16 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>0.235306923588117</v>
+        <v>0.1249570498863856</v>
       </c>
       <c r="C166" t="n">
-        <v>2420.733805338542</v>
+        <v>460.2838236490886</v>
       </c>
       <c r="D166" t="n">
-        <v>0.1432591372479995</v>
+        <v>0.1098131015896797</v>
       </c>
       <c r="E166" t="n">
-        <v>2420.641805013021</v>
+        <v>460.26868947347</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3220,16 +3220,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>0.2349264323711395</v>
+        <v>0.04236918315291405</v>
       </c>
       <c r="C167" t="n">
-        <v>2344.398763020833</v>
+        <v>450.6272888183594</v>
       </c>
       <c r="D167" t="n">
-        <v>0.1429321325073639</v>
+        <v>0.1859595999121666</v>
       </c>
       <c r="E167" t="n">
-        <v>2344.306762695312</v>
+        <v>450.770886739095</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3237,16 +3237,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>0.2377034177382787</v>
+        <v>0.04082452567915121</v>
       </c>
       <c r="C168" t="n">
-        <v>2270.190348307292</v>
+        <v>441.2689819335938</v>
       </c>
       <c r="D168" t="n">
-        <v>0.1435461807996035</v>
+        <v>0.1426444460327426</v>
       </c>
       <c r="E168" t="n">
-        <v>2270.09619140625</v>
+        <v>441.3707936604818</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3254,16 +3254,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="n">
-        <v>0.2479154616594315</v>
+        <v>0.08480847626924515</v>
       </c>
       <c r="C169" t="n">
-        <v>2198.062418619792</v>
+        <v>432.1676127115886</v>
       </c>
       <c r="D169" t="n">
-        <v>0.1417657590160767</v>
+        <v>0.1184721235185862</v>
       </c>
       <c r="E169" t="n">
-        <v>2197.956258138021</v>
+        <v>432.2012685139974</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3271,16 +3271,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="n">
-        <v>0.236133818825086</v>
+        <v>0.1009799142678579</v>
       </c>
       <c r="C170" t="n">
-        <v>2127.932942708333</v>
+        <v>423.2441101074219</v>
       </c>
       <c r="D170" t="n">
-        <v>0.1436546817421913</v>
+        <v>0.102406678100427</v>
       </c>
       <c r="E170" t="n">
-        <v>2127.840474446615</v>
+        <v>423.2455342610677</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3288,16 +3288,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>0.2363454550504684</v>
+        <v>0.1385439808170001</v>
       </c>
       <c r="C171" t="n">
-        <v>2059.788899739583</v>
+        <v>414.5448303222656</v>
       </c>
       <c r="D171" t="n">
-        <v>0.1449352769802014</v>
+        <v>0.1175650643805663</v>
       </c>
       <c r="E171" t="n">
-        <v>2059.697448730469</v>
+        <v>414.5238469441732</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3305,16 +3305,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>0.240300714969635</v>
+        <v>0.150762215256691</v>
       </c>
       <c r="C172" t="n">
-        <v>1993.574910481771</v>
+        <v>406.0193277994792</v>
       </c>
       <c r="D172" t="n">
-        <v>0.1442547415693601</v>
+        <v>0.0930371309320132</v>
       </c>
       <c r="E172" t="n">
-        <v>1993.478851318359</v>
+        <v>405.9615987141927</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3322,16 +3322,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>0.2419570634762446</v>
+        <v>0.2282936871051788</v>
       </c>
       <c r="C173" t="n">
-        <v>1929.236694335938</v>
+        <v>397.7542114257812</v>
       </c>
       <c r="D173" t="n">
-        <v>0.1441874845574299</v>
+        <v>0.1345990194628636</v>
       </c>
       <c r="E173" t="n">
-        <v>1929.138946533203</v>
+        <v>397.66050974528</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3339,16 +3339,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>0.2463210076093674</v>
+        <v>0.09295748670895894</v>
       </c>
       <c r="C174" t="n">
-        <v>1866.73388671875</v>
+        <v>389.465576171875</v>
       </c>
       <c r="D174" t="n">
-        <v>0.1434528809040785</v>
+        <v>0.1099834280709426</v>
       </c>
       <c r="E174" t="n">
-        <v>1866.631001790365</v>
+        <v>389.4825973510742</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3356,16 +3356,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>0.2421840975681941</v>
+        <v>0.1204987491170565</v>
       </c>
       <c r="C175" t="n">
-        <v>1806.008382161458</v>
+        <v>381.5253092447917</v>
       </c>
       <c r="D175" t="n">
-        <v>0.1443699952214956</v>
+        <v>0.09640278900042176</v>
       </c>
       <c r="E175" t="n">
-        <v>1805.91059366862</v>
+        <v>381.501220703125</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3373,16 +3373,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>0.2355762869119644</v>
+        <v>0.04725184105336666</v>
       </c>
       <c r="C176" t="n">
-        <v>1747.022542317708</v>
+        <v>373.6658223470052</v>
       </c>
       <c r="D176" t="n">
-        <v>0.1457288954406977</v>
+        <v>0.1375905517488718</v>
       </c>
       <c r="E176" t="n">
-        <v>1746.932729085286</v>
+        <v>373.7561518351237</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3390,16 +3390,16 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>0.2392090360323588</v>
+        <v>0.1645524154106776</v>
       </c>
       <c r="C177" t="n">
-        <v>1689.748006184896</v>
+        <v>366.1754760742188</v>
       </c>
       <c r="D177" t="n">
-        <v>0.145493034273386</v>
+        <v>0.09921429306268692</v>
       </c>
       <c r="E177" t="n">
-        <v>1689.654276529948</v>
+        <v>366.1101379394531</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3407,16 +3407,16 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>0.2424295494953791</v>
+        <v>0.1192693437139193</v>
       </c>
       <c r="C178" t="n">
-        <v>1634.130208333333</v>
+        <v>358.6962076822917</v>
       </c>
       <c r="D178" t="n">
-        <v>0.145108454550306</v>
+        <v>0.112601421152552</v>
       </c>
       <c r="E178" t="n">
-        <v>1634.032948811849</v>
+        <v>358.6895370483398</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3424,16 +3424,16 @@
         <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>0.2430336078008016</v>
+        <v>0.07587424417336781</v>
       </c>
       <c r="C179" t="n">
-        <v>1580.125081380208</v>
+        <v>351.3893229166667</v>
       </c>
       <c r="D179" t="n">
-        <v>0.1455087630699078</v>
+        <v>0.2329673903683821</v>
       </c>
       <c r="E179" t="n">
-        <v>1580.027587890625</v>
+        <v>351.5464172363281</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3441,16 +3441,16 @@
         <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>0.236188476284345</v>
+        <v>0.2795137166976929</v>
       </c>
       <c r="C180" t="n">
-        <v>1527.687093098958</v>
+        <v>344.4996948242188</v>
       </c>
       <c r="D180" t="n">
-        <v>0.146908113732934</v>
+        <v>0.1761754763623079</v>
       </c>
       <c r="E180" t="n">
-        <v>1527.597839355469</v>
+        <v>344.3963623046875</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3458,16 +3458,16 @@
         <v>180</v>
       </c>
       <c r="B181" t="n">
-        <v>0.2416969339052836</v>
+        <v>0.110785685479641</v>
       </c>
       <c r="C181" t="n">
-        <v>1476.79833984375</v>
+        <v>337.3997192382812</v>
       </c>
       <c r="D181" t="n">
-        <v>0.1469809090097745</v>
+        <v>0.1003115754574537</v>
       </c>
       <c r="E181" t="n">
-        <v>1476.703623453776</v>
+        <v>337.3892517089844</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3475,16 +3475,16 @@
         <v>181</v>
       </c>
       <c r="B182" t="n">
-        <v>0.2395324806372325</v>
+        <v>0.2274377296368281</v>
       </c>
       <c r="C182" t="n">
-        <v>1427.398234049479</v>
+        <v>330.7428181966146</v>
       </c>
       <c r="D182" t="n">
-        <v>0.1473117116838694</v>
+        <v>0.1211924174179633</v>
       </c>
       <c r="E182" t="n">
-        <v>1427.305989583333</v>
+        <v>330.6365737915039</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3492,16 +3492,16 @@
         <v>182</v>
       </c>
       <c r="B183" t="n">
-        <v>0.2435799191395442</v>
+        <v>0.1038381506999334</v>
       </c>
       <c r="C183" t="n">
-        <v>1379.463053385417</v>
+        <v>324.0011393229167</v>
       </c>
       <c r="D183" t="n">
-        <v>0.1476394639660915</v>
+        <v>0.1202086511378487</v>
       </c>
       <c r="E183" t="n">
-        <v>1379.367116292318</v>
+        <v>324.0175170898438</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3509,16 +3509,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>0.2427319486935934</v>
+        <v>0.1810523668924967</v>
       </c>
       <c r="C184" t="n">
-        <v>1332.944742838542</v>
+        <v>317.6139729817708</v>
       </c>
       <c r="D184" t="n">
-        <v>0.1470906535784403</v>
+        <v>0.109574847544233</v>
       </c>
       <c r="E184" t="n">
-        <v>1332.849110921224</v>
+        <v>317.5425008138021</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3526,16 +3526,16 @@
         <v>184</v>
       </c>
       <c r="B185" t="n">
-        <v>0.2439035226901372</v>
+        <v>0.0889890119433403</v>
       </c>
       <c r="C185" t="n">
-        <v>1287.813273111979</v>
+        <v>311.2069396972656</v>
       </c>
       <c r="D185" t="n">
-        <v>0.1480245391527812</v>
+        <v>0.09730055431524913</v>
       </c>
       <c r="E185" t="n">
-        <v>1287.717376708984</v>
+        <v>311.2152481079102</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3543,16 +3543,16 @@
         <v>185</v>
       </c>
       <c r="B186" t="n">
-        <v>0.244911586244901</v>
+        <v>0.2385542243719101</v>
       </c>
       <c r="C186" t="n">
-        <v>1244.031453450521</v>
+        <v>305.1880900065104</v>
       </c>
       <c r="D186" t="n">
-        <v>0.1474735271185637</v>
+        <v>0.1477994521458944</v>
       </c>
       <c r="E186" t="n">
-        <v>1243.933990478516</v>
+        <v>305.0973230997722</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3560,16 +3560,16 @@
         <v>186</v>
       </c>
       <c r="B187" t="n">
-        <v>0.2437995473543803</v>
+        <v>0.04705965891480446</v>
       </c>
       <c r="C187" t="n">
-        <v>1201.561767578125</v>
+        <v>298.9713439941406</v>
       </c>
       <c r="D187" t="n">
-        <v>0.148617551351587</v>
+        <v>0.1603017387290796</v>
       </c>
       <c r="E187" t="n">
-        <v>1201.466613769531</v>
+        <v>299.084582010905</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3577,16 +3577,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>0.2458712011575699</v>
+        <v>0.05941954255104065</v>
       </c>
       <c r="C188" t="n">
-        <v>1160.376627604167</v>
+        <v>293.1000467936198</v>
       </c>
       <c r="D188" t="n">
-        <v>0.1480264893422524</v>
+        <v>0.1968172571311394</v>
       </c>
       <c r="E188" t="n">
-        <v>1160.278737386068</v>
+        <v>293.237434387207</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3594,16 +3594,16 @@
         <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>0.2407336682081223</v>
+        <v>0.2835864027341207</v>
       </c>
       <c r="C189" t="n">
-        <v>1120.430419921875</v>
+        <v>287.5777180989583</v>
       </c>
       <c r="D189" t="n">
-        <v>0.1492997587968906</v>
+        <v>0.1647034585475922</v>
       </c>
       <c r="E189" t="n">
-        <v>1120.338989257812</v>
+        <v>287.4588317871094</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3611,16 +3611,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>0.2465326438347498</v>
+        <v>0.06927876174449921</v>
       </c>
       <c r="C190" t="n">
-        <v>1081.711018880208</v>
+        <v>281.7501322428386</v>
       </c>
       <c r="D190" t="n">
-        <v>0.1490075383335352</v>
+        <v>0.1149806256095568</v>
       </c>
       <c r="E190" t="n">
-        <v>1081.613474527995</v>
+        <v>281.7958323160807</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3628,16 +3628,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="n">
-        <v>0.2379014690717061</v>
+        <v>0.1597474714120229</v>
       </c>
       <c r="C191" t="n">
-        <v>1044.158203125</v>
+        <v>276.3567097981771</v>
       </c>
       <c r="D191" t="n">
-        <v>0.1509352568536997</v>
+        <v>0.09464511399467786</v>
       </c>
       <c r="E191" t="n">
-        <v>1044.071217854818</v>
+        <v>276.2916030883789</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3645,16 +3645,16 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>0.2404201130072276</v>
+        <v>0.1573596050341924</v>
       </c>
       <c r="C192" t="n">
-        <v>1007.769999186198</v>
+        <v>270.9986063639323</v>
       </c>
       <c r="D192" t="n">
-        <v>0.1510429841776689</v>
+        <v>0.1169331601510445</v>
       </c>
       <c r="E192" t="n">
-        <v>1007.680648803711</v>
+        <v>270.9581807454427</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3662,16 +3662,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>0.2454213599363963</v>
+        <v>0.2206405152877172</v>
       </c>
       <c r="C193" t="n">
-        <v>972.5051066080729</v>
+        <v>265.8315938313802</v>
       </c>
       <c r="D193" t="n">
-        <v>0.1504618264734745</v>
+        <v>0.1285332351302107</v>
       </c>
       <c r="E193" t="n">
-        <v>972.410166422526</v>
+        <v>265.7394917805989</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3679,16 +3679,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>0.2444736212491989</v>
+        <v>0.2877807219823201</v>
       </c>
       <c r="C194" t="n">
-        <v>938.3252156575521</v>
+        <v>260.7915954589844</v>
       </c>
       <c r="D194" t="n">
-        <v>0.1509008246163527</v>
+        <v>0.1788649509350459</v>
       </c>
       <c r="E194" t="n">
-        <v>938.2316436767578</v>
+        <v>260.6826807657878</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3696,16 +3696,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>0.2372572024663289</v>
+        <v>0.05890974154074987</v>
       </c>
       <c r="C195" t="n">
-        <v>905.2002156575521</v>
+        <v>255.573486328125</v>
       </c>
       <c r="D195" t="n">
-        <v>0.1528217388937871</v>
+        <v>0.13888803559045</v>
       </c>
       <c r="E195" t="n">
-        <v>905.1157684326172</v>
+        <v>255.6534601847331</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3713,16 +3713,16 @@
         <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>0.24244857331117</v>
+        <v>0.1506290932496389</v>
       </c>
       <c r="C196" t="n">
-        <v>873.1227213541666</v>
+        <v>250.7935434977213</v>
       </c>
       <c r="D196" t="n">
-        <v>0.1525757989535729</v>
+        <v>0.1067718882113695</v>
       </c>
       <c r="E196" t="n">
-        <v>873.0328267415365</v>
+        <v>250.7496859232585</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3730,16 +3730,16 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>0.2503568679094315</v>
+        <v>0.167967086037</v>
       </c>
       <c r="C197" t="n">
-        <v>842.0548706054688</v>
+        <v>246.0523071289062</v>
       </c>
       <c r="D197" t="n">
-        <v>0.1506408142546813</v>
+        <v>0.1103932106246551</v>
       </c>
       <c r="E197" t="n">
-        <v>841.9551493326823</v>
+        <v>245.9947306315104</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3747,16 +3747,16 @@
         <v>197</v>
       </c>
       <c r="B198" t="n">
-        <v>0.2499494800964991</v>
+        <v>0.1407862404982249</v>
       </c>
       <c r="C198" t="n">
-        <v>811.9558308919271</v>
+        <v>241.3761698404948</v>
       </c>
       <c r="D198" t="n">
-        <v>0.1508456859737635</v>
+        <v>0.09907292015850544</v>
       </c>
       <c r="E198" t="n">
-        <v>811.8567097981771</v>
+        <v>241.3344535827637</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3764,16 +3764,16 @@
         <v>198</v>
       </c>
       <c r="B199" t="n">
-        <v>0.2509542008241017</v>
+        <v>0.154087429245313</v>
       </c>
       <c r="C199" t="n">
-        <v>782.8106486002604</v>
+        <v>236.848866780599</v>
       </c>
       <c r="D199" t="n">
-        <v>0.1505128232141336</v>
+        <v>0.09518790493408839</v>
       </c>
       <c r="E199" t="n">
-        <v>782.7102101643881</v>
+        <v>236.789966583252</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3781,16 +3781,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>0.2475764751434326</v>
+        <v>0.1769997874895732</v>
       </c>
       <c r="C200" t="n">
-        <v>754.5865681966146</v>
+        <v>232.4379119873047</v>
       </c>
       <c r="D200" t="n">
-        <v>0.1515312424550454</v>
+        <v>0.1097407694905996</v>
       </c>
       <c r="E200" t="n">
-        <v>754.4905293782552</v>
+        <v>232.3706512451172</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3798,16 +3798,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="n">
-        <v>0.2522841642300288</v>
+        <v>0.242524062593778</v>
       </c>
       <c r="C201" t="n">
-        <v>727.2718709309896</v>
+        <v>228.1736195882162</v>
       </c>
       <c r="D201" t="n">
-        <v>0.1509792047242323</v>
+        <v>0.1423332542181015</v>
       </c>
       <c r="E201" t="n">
-        <v>727.1705729166666</v>
+        <v>228.073424021403</v>
       </c>
     </row>
   </sheetData>
@@ -3842,7 +3842,7 @@
         <v>0.400601724137931</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5969600677490234</v>
+        <v>0.6968107223510742</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3850,7 +3850,7 @@
         <v>0.4023327586206896</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6637517809867859</v>
+        <v>0.6016316413879395</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3858,7 +3858,7 @@
         <v>0.4026821839080459</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6300991177558899</v>
+        <v>0.7866865396499634</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3866,7 +3866,7 @@
         <v>0.4000988505747126</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6573493480682373</v>
+        <v>0.8086147308349609</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3874,7 +3874,7 @@
         <v>0.3962137931034482</v>
       </c>
       <c r="B6" t="n">
-        <v>0.658821702003479</v>
+        <v>0.6166121363639832</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3882,7 +3882,7 @@
         <v>0.392055172413793</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7102715969085693</v>
+        <v>0.6406716108322144</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3890,7 +3890,7 @@
         <v>0.3887643678160919</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5939275026321411</v>
+        <v>0.6615086793899536</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3898,7 +3898,7 @@
         <v>0.3856844827586206</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6520358920097351</v>
+        <v>0.598468542098999</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3906,7 +3906,7 @@
         <v>0.3853890804597701</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6222960948944092</v>
+        <v>0.5658607482910156</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3914,7 +3914,7 @@
         <v>0.3845540229885057</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5165718793869019</v>
+        <v>0.659136176109314</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3922,7 +3922,7 @@
         <v>0.385133908045977</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7036399245262146</v>
+        <v>0.7458145618438721</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3930,7 +3930,7 @@
         <v>0.3863442528735632</v>
       </c>
       <c r="B13" t="n">
-        <v>0.675665020942688</v>
+        <v>0.6354959011077881</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3938,7 +3938,7 @@
         <v>0.3888724137931034</v>
       </c>
       <c r="B14" t="n">
-        <v>0.637550950050354</v>
+        <v>0.7251092195510864</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3946,7 +3946,7 @@
         <v>0.3909229885057471</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6045864820480347</v>
+        <v>0.6134165525436401</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3954,7 +3954,7 @@
         <v>0.3922413793103448</v>
       </c>
       <c r="B16" t="n">
-        <v>0.68649822473526</v>
+        <v>0.5950809121131897</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3962,7 +3962,7 @@
         <v>0.3928637931034483</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6654484868049622</v>
+        <v>0.6755018830299377</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3970,7 +3970,7 @@
         <v>0.3938977011494253</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6311883926391602</v>
+        <v>0.5463643074035645</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3978,7 +3978,7 @@
         <v>0.3975264367816091</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6779878735542297</v>
+        <v>0.7356016039848328</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3986,7 +3986,7 @@
         <v>0.4021775862068964</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7326827645301819</v>
+        <v>0.6487781405448914</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3994,7 +3994,7 @@
         <v>0.4074086206896551</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8226962685585022</v>
+        <v>0.5829207301139832</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4002,7 +4002,7 @@
         <v>0.4132494252873562</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6813005208969116</v>
+        <v>0.7704740166664124</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4010,7 +4010,7 @@
         <v>0.421101724137931</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6812150478363037</v>
+        <v>0.7031999826431274</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4018,7 +4018,7 @@
         <v>0.431155172413793</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7296252250671387</v>
+        <v>0.6921477317810059</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4026,7 +4026,7 @@
         <v>0.4405321839080459</v>
       </c>
       <c r="B25" t="n">
-        <v>0.720315158367157</v>
+        <v>0.7101521492004395</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4034,7 +4034,7 @@
         <v>0.4462522988505747</v>
       </c>
       <c r="B26" t="n">
-        <v>0.7347112894058228</v>
+        <v>0.8119882941246033</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4042,7 +4042,7 @@
         <v>0.4488499999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>0.730316698551178</v>
+        <v>0.7951797246932983</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4050,7 +4050,7 @@
         <v>0.4513022988505747</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7766637206077576</v>
+        <v>0.6312346458435059</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4058,7 +4058,7 @@
         <v>0.4552436781609195</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7869237065315247</v>
+        <v>0.6773067712783813</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4066,7 +4066,7 @@
         <v>0.4601977011494253</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6868723630905151</v>
+        <v>0.6241599321365356</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4074,7 +4074,7 @@
         <v>0.4652063218390805</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7371807098388672</v>
+        <v>0.7360363602638245</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4082,7 +4082,7 @@
         <v>0.4712402298850575</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6385931968688965</v>
+        <v>0.7655391097068787</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4090,7 +4090,7 @@
         <v>0.477216091954023</v>
       </c>
       <c r="B33" t="n">
-        <v>0.7245558500289917</v>
+        <v>0.6778237819671631</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4098,7 +4098,7 @@
         <v>0.4865511494252874</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6302127838134766</v>
+        <v>0.7429028749465942</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4106,7 +4106,7 @@
         <v>0.4972798850574713</v>
       </c>
       <c r="B35" t="n">
-        <v>0.7237480878829956</v>
+        <v>0.5242926478385925</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4114,7 +4114,7 @@
         <v>0.506283908045977</v>
       </c>
       <c r="B36" t="n">
-        <v>0.67125004529953</v>
+        <v>0.7039355039596558</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4122,7 +4122,7 @@
         <v>0.5118350574712643</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6532590985298157</v>
+        <v>0.5800159573554993</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4130,7 +4130,7 @@
         <v>0.5134890804597702</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6724882125854492</v>
+        <v>0.6442629098892212</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4138,7 +4138,7 @@
         <v>0.5095408045977012</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7103309035301208</v>
+        <v>0.8034963607788086</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4146,7 +4146,7 @@
         <v>0.5064522988505746</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6287476420402527</v>
+        <v>0.5934547781944275</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4154,7 +4154,7 @@
         <v>0.502235632183908</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6643053889274597</v>
+        <v>0.643797755241394</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4162,7 +4162,7 @@
         <v>0.4992005747126437</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7365538477897644</v>
+        <v>0.7888354063034058</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4170,7 +4170,7 @@
         <v>0.494882183908046</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7160441279411316</v>
+        <v>0.5052063465118408</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4178,7 +4178,7 @@
         <v>0.4912431034482759</v>
       </c>
       <c r="B44" t="n">
-        <v>0.7701506018638611</v>
+        <v>0.710183322429657</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4186,7 +4186,7 @@
         <v>0.4904281609195403</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5966711640357971</v>
+        <v>0.6408098936080933</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4194,7 +4194,7 @@
         <v>0.4912706896551725</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6685953140258789</v>
+        <v>0.7832072973251343</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -4202,7 +4202,7 @@
         <v>0.4906672413793104</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6722498536109924</v>
+        <v>0.7552847862243652</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -4210,7 +4210,7 @@
         <v>0.4868977011494254</v>
       </c>
       <c r="B48" t="n">
-        <v>0.7300088405609131</v>
+        <v>0.7065380215644836</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -4218,7 +4218,7 @@
         <v>0.4814660919540231</v>
       </c>
       <c r="B49" t="n">
-        <v>0.665861964225769</v>
+        <v>0.7870696187019348</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -4226,7 +4226,7 @@
         <v>0.4756500000000002</v>
       </c>
       <c r="B50" t="n">
-        <v>0.7651640772819519</v>
+        <v>0.6316292881965637</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -4234,7 +4234,7 @@
         <v>0.4699160919540232</v>
       </c>
       <c r="B51" t="n">
-        <v>0.7344734668731689</v>
+        <v>0.8230204582214355</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -4242,7 +4242,7 @@
         <v>0.4642586206896553</v>
       </c>
       <c r="B52" t="n">
-        <v>0.7787122130393982</v>
+        <v>0.69992595911026</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -4250,7 +4250,7 @@
         <v>0.4575275862068967</v>
       </c>
       <c r="B53" t="n">
-        <v>0.6900367736816406</v>
+        <v>0.9168879389762878</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -4258,7 +4258,7 @@
         <v>0.4543488505747127</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8195934891700745</v>
+        <v>0.7525901198387146</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -4266,7 +4266,7 @@
         <v>0.4534798850574713</v>
       </c>
       <c r="B55" t="n">
-        <v>0.7912839651107788</v>
+        <v>0.6967302560806274</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -4274,7 +4274,7 @@
         <v>0.4546459770114943</v>
       </c>
       <c r="B56" t="n">
-        <v>0.7436391711235046</v>
+        <v>0.7996883392333984</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -4282,7 +4282,7 @@
         <v>0.4552494252873564</v>
       </c>
       <c r="B57" t="n">
-        <v>0.6533944606781006</v>
+        <v>0.7365930080413818</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -4290,7 +4290,7 @@
         <v>0.4545977011494254</v>
       </c>
       <c r="B58" t="n">
-        <v>0.746195375919342</v>
+        <v>0.8067272901535034</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -4298,7 +4298,7 @@
         <v>0.4516379310344829</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6532043814659119</v>
+        <v>0.6919346451759338</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -4306,7 +4306,7 @@
         <v>0.4467758620689656</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6403906345367432</v>
+        <v>0.7816877365112305</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -4314,7 +4314,7 @@
         <v>0.4434431034482759</v>
       </c>
       <c r="B61" t="n">
-        <v>0.8248358368873596</v>
+        <v>0.6204007863998413</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -4322,7 +4322,7 @@
         <v>0.4404488505747127</v>
       </c>
       <c r="B62" t="n">
-        <v>0.7148436903953552</v>
+        <v>0.6898552179336548</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -4330,7 +4330,7 @@
         <v>0.4362718390804597</v>
       </c>
       <c r="B63" t="n">
-        <v>0.8062930703163147</v>
+        <v>0.6909785270690918</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -4338,7 +4338,7 @@
         <v>0.4305764367816092</v>
       </c>
       <c r="B64" t="n">
-        <v>0.7687790393829346</v>
+        <v>0.8867867588996887</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -4346,7 +4346,7 @@
         <v>0.4247580459770114</v>
       </c>
       <c r="B65" t="n">
-        <v>0.7067960500717163</v>
+        <v>0.7400791049003601</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -4354,7 +4354,7 @@
         <v>0.4195925287356321</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6740398406982422</v>
+        <v>0.753553569316864</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -4362,7 +4362,7 @@
         <v>0.4145034482758621</v>
       </c>
       <c r="B67" t="n">
-        <v>0.7017512917518616</v>
+        <v>0.7487338781356812</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -4370,7 +4370,7 @@
         <v>0.4108793103448276</v>
       </c>
       <c r="B68" t="n">
-        <v>0.7232621312141418</v>
+        <v>0.6259782314300537</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -4378,7 +4378,7 @@
         <v>0.4045747126436782</v>
       </c>
       <c r="B69" t="n">
-        <v>0.7049283981323242</v>
+        <v>0.6607904434204102</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -4386,7 +4386,7 @@
         <v>0.3973902298850574</v>
       </c>
       <c r="B70" t="n">
-        <v>0.7187430262565613</v>
+        <v>0.7604031562805176</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -4394,7 +4394,7 @@
         <v>0.3926632183908045</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7378063201904297</v>
+        <v>0.7387953400611877</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -4402,7 +4402,7 @@
         <v>0.3895172413793103</v>
       </c>
       <c r="B72" t="n">
-        <v>0.7625939249992371</v>
+        <v>0.7189538478851318</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -4410,7 +4410,7 @@
         <v>0.3866155172413792</v>
       </c>
       <c r="B73" t="n">
-        <v>0.6264232993125916</v>
+        <v>0.6361978650093079</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -4418,7 +4418,7 @@
         <v>0.3848586206896551</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5885972380638123</v>
+        <v>0.6152864098548889</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -4426,7 +4426,7 @@
         <v>0.3832408045977011</v>
       </c>
       <c r="B75" t="n">
-        <v>0.6902634501457214</v>
+        <v>0.6079728603363037</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -4434,7 +4434,7 @@
         <v>0.3824913793103448</v>
       </c>
       <c r="B76" t="n">
-        <v>0.6523576378822327</v>
+        <v>0.5686384439468384</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -4442,7 +4442,7 @@
         <v>0.3820988505747126</v>
       </c>
       <c r="B77" t="n">
-        <v>0.7222800254821777</v>
+        <v>0.6330748796463013</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -4450,7 +4450,7 @@
         <v>0.3834649425287356</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6669221520423889</v>
+        <v>0.7511038780212402</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -4458,7 +4458,7 @@
         <v>0.3866304597701149</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6393296718597412</v>
+        <v>0.6294744610786438</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -4466,7 +4466,7 @@
         <v>0.3913477011494253</v>
       </c>
       <c r="B80" t="n">
-        <v>0.62690669298172</v>
+        <v>0.6995980143547058</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -4474,7 +4474,7 @@
         <v>0.3952597701149425</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5638154745101929</v>
+        <v>0.6638795733451843</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -4482,7 +4482,7 @@
         <v>0.4011454022988505</v>
       </c>
       <c r="B82" t="n">
-        <v>0.6216483116149902</v>
+        <v>0.4561668634414673</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -4490,7 +4490,7 @@
         <v>0.4051741379310345</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5704144239425659</v>
+        <v>0.6955633163452148</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -4498,7 +4498,7 @@
         <v>0.4075517241379311</v>
       </c>
       <c r="B84" t="n">
-        <v>0.6545172333717346</v>
+        <v>0.5799923539161682</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -4506,7 +4506,7 @@
         <v>0.4092189655172414</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5562301278114319</v>
+        <v>0.5970456004142761</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -4514,7 +4514,7 @@
         <v>0.4084528735632184</v>
       </c>
       <c r="B86" t="n">
-        <v>0.4466839730739594</v>
+        <v>0.4919058680534363</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -4522,7 +4522,7 @@
         <v>0.4043155172413794</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5127373337745667</v>
+        <v>0.5185628533363342</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -4530,7 +4530,7 @@
         <v>0.4010327586206897</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5880174040794373</v>
+        <v>0.6235601902008057</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -4538,7 +4538,7 @@
         <v>0.3977287356321839</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5754184126853943</v>
+        <v>0.4785284399986267</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -4546,7 +4546,7 @@
         <v>0.390651724137931</v>
       </c>
       <c r="B90" t="n">
-        <v>0.574232280254364</v>
+        <v>0.5805791020393372</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -4554,7 +4554,7 @@
         <v>0.3849666666666666</v>
       </c>
       <c r="B91" t="n">
-        <v>0.5891100764274597</v>
+        <v>0.7816304564476013</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -4562,7 +4562,7 @@
         <v>0.3791787356321838</v>
       </c>
       <c r="B92" t="n">
-        <v>0.6671755313873291</v>
+        <v>0.5721133947372437</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -4570,7 +4570,7 @@
         <v>0.3742977011494252</v>
       </c>
       <c r="B93" t="n">
-        <v>0.7210519313812256</v>
+        <v>0.6438529491424561</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -4578,7 +4578,7 @@
         <v>0.3714758620689655</v>
       </c>
       <c r="B94" t="n">
-        <v>0.6790822744369507</v>
+        <v>0.7203389406204224</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -4586,7 +4586,7 @@
         <v>0.3700752873563218</v>
       </c>
       <c r="B95" t="n">
-        <v>0.7067058682441711</v>
+        <v>0.688905656337738</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -4594,7 +4594,7 @@
         <v>0.3716655172413793</v>
       </c>
       <c r="B96" t="n">
-        <v>0.731285572052002</v>
+        <v>0.5379837155342102</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -4602,7 +4602,7 @@
         <v>0.3755844827586207</v>
       </c>
       <c r="B97" t="n">
-        <v>0.6645647287368774</v>
+        <v>0.7209799289703369</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -4610,7 +4610,7 @@
         <v>0.3807385057471265</v>
       </c>
       <c r="B98" t="n">
-        <v>0.6359102725982666</v>
+        <v>0.6555836200714111</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -4618,7 +4618,7 @@
         <v>0.3865310344827587</v>
       </c>
       <c r="B99" t="n">
-        <v>0.7316977381706238</v>
+        <v>0.6125397086143494</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -4626,7 +4626,7 @@
         <v>0.390583908045977</v>
       </c>
       <c r="B100" t="n">
-        <v>0.6364537477493286</v>
+        <v>0.7844018936157227</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -4634,7 +4634,7 @@
         <v>0.3938137931034483</v>
       </c>
       <c r="B101" t="n">
-        <v>0.6302695274353027</v>
+        <v>0.6228451132774353</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -4642,7 +4642,7 @@
         <v>0.3964298850574713</v>
       </c>
       <c r="B102" t="n">
-        <v>0.6297292113304138</v>
+        <v>0.8029173612594604</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -4650,7 +4650,7 @@
         <v>0.3976816091954023</v>
       </c>
       <c r="B103" t="n">
-        <v>0.6513653993606567</v>
+        <v>0.7587774395942688</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -4658,7 +4658,7 @@
         <v>0.3994833333333333</v>
       </c>
       <c r="B104" t="n">
-        <v>0.7354975342750549</v>
+        <v>0.6791098117828369</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -4666,7 +4666,7 @@
         <v>0.4002471264367816</v>
       </c>
       <c r="B105" t="n">
-        <v>0.6900243759155273</v>
+        <v>0.6521913409233093</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -4674,7 +4674,7 @@
         <v>0.4009488505747126</v>
       </c>
       <c r="B106" t="n">
-        <v>0.7253286838531494</v>
+        <v>0.7012710571289062</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -4682,7 +4682,7 @@
         <v>0.4015183908045977</v>
       </c>
       <c r="B107" t="n">
-        <v>0.7002232074737549</v>
+        <v>0.6407951712608337</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -4690,7 +4690,7 @@
         <v>0.3991333333333333</v>
       </c>
       <c r="B108" t="n">
-        <v>0.6962562203407288</v>
+        <v>0.6261546015739441</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -4698,7 +4698,7 @@
         <v>0.3935718390804597</v>
       </c>
       <c r="B109" t="n">
-        <v>0.7747064232826233</v>
+        <v>0.8029937148094177</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -4706,7 +4706,7 @@
         <v>0.38703908045977</v>
       </c>
       <c r="B110" t="n">
-        <v>0.6264240741729736</v>
+        <v>0.6052868962287903</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -4714,7 +4714,7 @@
         <v>0.3780534482758619</v>
       </c>
       <c r="B111" t="n">
-        <v>0.7019527554512024</v>
+        <v>0.7114989161491394</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -4722,7 +4722,7 @@
         <v>0.367106896551724</v>
       </c>
       <c r="B112" t="n">
-        <v>0.7013739347457886</v>
+        <v>0.7769247889518738</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -4730,7 +4730,7 @@
         <v>0.3586735632183908</v>
       </c>
       <c r="B113" t="n">
-        <v>0.6356145739555359</v>
+        <v>0.6507659554481506</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -4738,7 +4738,7 @@
         <v>0.3503574712643678</v>
       </c>
       <c r="B114" t="n">
-        <v>0.6497820019721985</v>
+        <v>0.482380211353302</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -4746,7 +4746,7 @@
         <v>0.3439879310344827</v>
       </c>
       <c r="B115" t="n">
-        <v>0.7009596228599548</v>
+        <v>0.5925456881523132</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -4754,7 +4754,7 @@
         <v>0.3405741379310344</v>
       </c>
       <c r="B116" t="n">
-        <v>0.6536519527435303</v>
+        <v>0.5570008158683777</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -4762,7 +4762,7 @@
         <v>0.3386775862068965</v>
       </c>
       <c r="B117" t="n">
-        <v>0.5963154435157776</v>
+        <v>0.5675041675567627</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -4770,7 +4770,7 @@
         <v>0.3378747126436782</v>
       </c>
       <c r="B118" t="n">
-        <v>0.5994162559509277</v>
+        <v>0.6356354355812073</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -4778,7 +4778,7 @@
         <v>0.3400034482758622</v>
       </c>
       <c r="B119" t="n">
-        <v>0.5966688394546509</v>
+        <v>0.5360332727432251</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -4786,7 +4786,7 @@
         <v>0.3406500000000001</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5110110640525818</v>
+        <v>0.4974778890609741</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -4794,7 +4794,7 @@
         <v>0.3420431034482759</v>
       </c>
       <c r="B121" t="n">
-        <v>0.554636538028717</v>
+        <v>0.5583276748657227</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -4802,7 +4802,7 @@
         <v>0.3449183908045977</v>
       </c>
       <c r="B122" t="n">
-        <v>0.5760373473167419</v>
+        <v>0.5836390852928162</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -4810,7 +4810,7 @@
         <v>0.3475902298850576</v>
       </c>
       <c r="B123" t="n">
-        <v>0.5787367224693298</v>
+        <v>0.6196396946907043</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -4818,7 +4818,7 @@
         <v>0.3526522988505747</v>
       </c>
       <c r="B124" t="n">
-        <v>0.5781099796295166</v>
+        <v>0.5758418440818787</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -4826,7 +4826,7 @@
         <v>0.3584224137931035</v>
       </c>
       <c r="B125" t="n">
-        <v>0.7442811727523804</v>
+        <v>0.5732724070549011</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -4834,7 +4834,7 @@
         <v>0.3654143678160919</v>
       </c>
       <c r="B126" t="n">
-        <v>0.5550763607025146</v>
+        <v>0.7003132700920105</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -4842,7 +4842,7 @@
         <v>0.3733620689655173</v>
       </c>
       <c r="B127" t="n">
-        <v>0.6376989483833313</v>
+        <v>0.5251871347427368</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -4850,7 +4850,7 @@
         <v>0.3803362068965518</v>
       </c>
       <c r="B128" t="n">
-        <v>0.6247513294219971</v>
+        <v>0.5614248514175415</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -4858,7 +4858,7 @@
         <v>0.38376091954023</v>
       </c>
       <c r="B129" t="n">
-        <v>0.6244840025901794</v>
+        <v>0.6047661900520325</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -4866,7 +4866,7 @@
         <v>0.3861655172413793</v>
       </c>
       <c r="B130" t="n">
-        <v>0.5986669063568115</v>
+        <v>0.6312849521636963</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -4874,7 +4874,7 @@
         <v>0.388217816091954</v>
       </c>
       <c r="B131" t="n">
-        <v>0.6672817468643188</v>
+        <v>0.4599498808383942</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -4882,7 +4882,7 @@
         <v>0.3885701149425288</v>
       </c>
       <c r="B132" t="n">
-        <v>0.5834688544273376</v>
+        <v>0.6247356534004211</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -4890,7 +4890,7 @@
         <v>0.3851212643678162</v>
       </c>
       <c r="B133" t="n">
-        <v>0.6534506678581238</v>
+        <v>0.8218685984611511</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -4898,7 +4898,7 @@
         <v>0.3813459770114943</v>
       </c>
       <c r="B134" t="n">
-        <v>0.5448789596557617</v>
+        <v>0.5462644100189209</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -4906,7 +4906,7 @@
         <v>0.3782798850574712</v>
       </c>
       <c r="B135" t="n">
-        <v>0.5678350925445557</v>
+        <v>0.6336071491241455</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -4914,7 +4914,7 @@
         <v>0.3747505747126437</v>
       </c>
       <c r="B136" t="n">
-        <v>0.5354105830192566</v>
+        <v>0.5491629242897034</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -4922,7 +4922,7 @@
         <v>0.3735402298850575</v>
       </c>
       <c r="B137" t="n">
-        <v>0.5518192648887634</v>
+        <v>0.6520017385482788</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -4930,7 +4930,7 @@
         <v>0.3741120689655173</v>
       </c>
       <c r="B138" t="n">
-        <v>0.6011634469032288</v>
+        <v>0.5621162056922913</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -4938,7 +4938,7 @@
         <v>0.3755057471264368</v>
       </c>
       <c r="B139" t="n">
-        <v>0.6410890817642212</v>
+        <v>0.5369048714637756</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -4946,7 +4946,7 @@
         <v>0.3793971264367816</v>
       </c>
       <c r="B140" t="n">
-        <v>0.5488688349723816</v>
+        <v>0.6141427159309387</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -4954,7 +4954,7 @@
         <v>0.3852344827586207</v>
       </c>
       <c r="B141" t="n">
-        <v>0.6106196641921997</v>
+        <v>0.6181837916374207</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -4962,7 +4962,7 @@
         <v>0.3905402298850575</v>
       </c>
       <c r="B142" t="n">
-        <v>0.5809873342514038</v>
+        <v>0.5498548746109009</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -4970,7 +4970,7 @@
         <v>0.3967166666666667</v>
       </c>
       <c r="B143" t="n">
-        <v>0.543493926525116</v>
+        <v>0.7077585458755493</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -4978,7 +4978,7 @@
         <v>0.4038040229885058</v>
       </c>
       <c r="B144" t="n">
-        <v>0.5992792844772339</v>
+        <v>0.5126887559890747</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -4986,7 +4986,7 @@
         <v>0.4103862068965518</v>
       </c>
       <c r="B145" t="n">
-        <v>0.5473456382751465</v>
+        <v>0.5953739285469055</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -4994,7 +4994,7 @@
         <v>0.416064367816092</v>
       </c>
       <c r="B146" t="n">
-        <v>0.590322732925415</v>
+        <v>0.53233402967453</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -5002,7 +5002,7 @@
         <v>0.4213764367816092</v>
       </c>
       <c r="B147" t="n">
-        <v>0.6733052134513855</v>
+        <v>0.6199396252632141</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -5010,7 +5010,7 @@
         <v>0.4244856321839081</v>
       </c>
       <c r="B148" t="n">
-        <v>0.6930439472198486</v>
+        <v>0.6290200352668762</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -5018,7 +5018,7 @@
         <v>0.4276005747126437</v>
       </c>
       <c r="B149" t="n">
-        <v>0.5966873168945312</v>
+        <v>0.6801521182060242</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -5026,7 +5026,7 @@
         <v>0.4332287356321839</v>
       </c>
       <c r="B150" t="n">
-        <v>0.5992648601531982</v>
+        <v>0.5832433700561523</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -5034,7 +5034,7 @@
         <v>0.4401545977011494</v>
       </c>
       <c r="B151" t="n">
-        <v>0.6463659405708313</v>
+        <v>0.8000169396400452</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -5042,7 +5042,7 @@
         <v>0.4467827586206897</v>
       </c>
       <c r="B152" t="n">
-        <v>0.6635668277740479</v>
+        <v>0.7456324696540833</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -5050,7 +5050,7 @@
         <v>0.4501793103448276</v>
       </c>
       <c r="B153" t="n">
-        <v>0.5368857383728027</v>
+        <v>0.7401517629623413</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -5058,7 +5058,7 @@
         <v>0.4509362068965517</v>
       </c>
       <c r="B154" t="n">
-        <v>0.6880268454551697</v>
+        <v>0.7195605039596558</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -5066,7 +5066,7 @@
         <v>0.4494494252873563</v>
       </c>
       <c r="B155" t="n">
-        <v>0.6811023354530334</v>
+        <v>0.7750133872032166</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -5074,7 +5074,7 @@
         <v>0.4465385057471264</v>
       </c>
       <c r="B156" t="n">
-        <v>0.6364704370498657</v>
+        <v>0.800254762172699</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -5082,7 +5082,7 @@
         <v>0.4425091954022989</v>
       </c>
       <c r="B157" t="n">
-        <v>0.6695220470428467</v>
+        <v>0.5258083939552307</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -5090,7 +5090,7 @@
         <v>0.4370477011494253</v>
       </c>
       <c r="B158" t="n">
-        <v>0.6934649348258972</v>
+        <v>0.5645202398300171</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -5098,7 +5098,7 @@
         <v>0.4318856321839081</v>
       </c>
       <c r="B159" t="n">
-        <v>0.6851499080657959</v>
+        <v>0.6167375445365906</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -5106,7 +5106,7 @@
         <v>0.4272442528735632</v>
       </c>
       <c r="B160" t="n">
-        <v>0.5382368564605713</v>
+        <v>0.6794707775115967</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -5114,7 +5114,7 @@
         <v>0.4264655172413793</v>
       </c>
       <c r="B161" t="n">
-        <v>0.6642391085624695</v>
+        <v>0.6405320763587952</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -5122,7 +5122,7 @@
         <v>0.4298885057471264</v>
       </c>
       <c r="B162" t="n">
-        <v>0.7882910370826721</v>
+        <v>0.7047761678695679</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -5130,7 +5130,7 @@
         <v>0.434367816091954</v>
       </c>
       <c r="B163" t="n">
-        <v>0.6968942284584045</v>
+        <v>0.6036816239356995</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -5138,7 +5138,7 @@
         <v>0.4398477011494253</v>
       </c>
       <c r="B164" t="n">
-        <v>0.7415422797203064</v>
+        <v>0.6906650066375732</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -5146,7 +5146,7 @@
         <v>0.4461287356321839</v>
       </c>
       <c r="B165" t="n">
-        <v>0.7560644149780273</v>
+        <v>0.6510371565818787</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -5154,7 +5154,7 @@
         <v>0.4523005747126436</v>
       </c>
       <c r="B166" t="n">
-        <v>0.6615986227989197</v>
+        <v>0.6816274523735046</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -5162,7 +5162,7 @@
         <v>0.458251724137931</v>
       </c>
       <c r="B167" t="n">
-        <v>0.6748263239860535</v>
+        <v>0.7120252251625061</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -5170,7 +5170,7 @@
         <v>0.46333908045977</v>
       </c>
       <c r="B168" t="n">
-        <v>0.73432856798172</v>
+        <v>0.7368277907371521</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -5178,7 +5178,7 @@
         <v>0.4649137931034483</v>
       </c>
       <c r="B169" t="n">
-        <v>0.7791853547096252</v>
+        <v>0.6005305647850037</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -5186,7 +5186,7 @@
         <v>0.4650649425287356</v>
       </c>
       <c r="B170" t="n">
-        <v>0.7333562970161438</v>
+        <v>0.7486549019813538</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -5194,7 +5194,7 @@
         <v>0.465058620689655</v>
       </c>
       <c r="B171" t="n">
-        <v>0.6658074259757996</v>
+        <v>0.587222158908844</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -5202,7 +5202,7 @@
         <v>0.4634948275862069</v>
       </c>
       <c r="B172" t="n">
-        <v>0.643954336643219</v>
+        <v>0.6600745320320129</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -5210,7 +5210,7 @@
         <v>0.4615408045977011</v>
       </c>
       <c r="B173" t="n">
-        <v>0.7291849255561829</v>
+        <v>0.7389051914215088</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -5218,7 +5218,7 @@
         <v>0.4606942528735632</v>
       </c>
       <c r="B174" t="n">
-        <v>0.6748318076133728</v>
+        <v>0.6507449150085449</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -5226,7 +5226,7 @@
         <v>0.4598908045977011</v>
       </c>
       <c r="B175" t="n">
-        <v>0.6539574861526489</v>
+        <v>0.6234337687492371</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -5234,7 +5234,7 @@
         <v>0.4611574712643677</v>
       </c>
       <c r="B176" t="n">
-        <v>0.7061032056808472</v>
+        <v>0.7626472115516663</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -5242,7 +5242,7 @@
         <v>0.4654781609195401</v>
       </c>
       <c r="B177" t="n">
-        <v>0.6338231563568115</v>
+        <v>0.6951985955238342</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -5250,7 +5250,7 @@
         <v>0.471866091954023</v>
       </c>
       <c r="B178" t="n">
-        <v>0.6976194977760315</v>
+        <v>0.534259021282196</v>
       </c>
     </row>
   </sheetData>

--- a/result/chenting_20151124_noon_2.mat2.xlsx
+++ b/result/chenting_20151124_noon_2.mat2.xlsx
@@ -415,16 +415,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12.25312455495199</v>
+        <v>10.23366451263428</v>
       </c>
       <c r="C2" t="n">
-        <v>13675.3515625</v>
+        <v>3237.079345703125</v>
       </c>
       <c r="D2" t="n">
-        <v>16.24575837453206</v>
+        <v>11.17711146672567</v>
       </c>
       <c r="E2" t="n">
-        <v>13679.34423828125</v>
+        <v>3238.022806803385</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -432,16 +432,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.82305399576823</v>
+        <v>10.44988918304443</v>
       </c>
       <c r="C3" t="n">
-        <v>13408.3798828125</v>
+        <v>3179.0498046875</v>
       </c>
       <c r="D3" t="n">
-        <v>12.94764137268066</v>
+        <v>10.29191811879476</v>
       </c>
       <c r="E3" t="n">
-        <v>13410.50406901042</v>
+        <v>3178.891743977865</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -449,16 +449,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>18.98203086853027</v>
+        <v>4.270085016886394</v>
       </c>
       <c r="C4" t="n">
-        <v>13157.21647135417</v>
+        <v>3115.154866536458</v>
       </c>
       <c r="D4" t="n">
-        <v>18.63338931401571</v>
+        <v>5.307117859522502</v>
       </c>
       <c r="E4" t="n">
-        <v>13156.86783854167</v>
+        <v>3116.19189453125</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -466,16 +466,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1.536863287289937</v>
+        <v>5.170843760172526</v>
       </c>
       <c r="C5" t="n">
-        <v>12886.31966145833</v>
+        <v>3059.167154947917</v>
       </c>
       <c r="D5" t="n">
-        <v>2.110089729229609</v>
+        <v>4.605805675188701</v>
       </c>
       <c r="E5" t="n">
-        <v>12886.89347330729</v>
+        <v>3058.602132161458</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -483,16 +483,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.19680658976237</v>
+        <v>0.9249725341796875</v>
       </c>
       <c r="C6" t="n">
-        <v>12650.82389322917</v>
+        <v>2999.090738932292</v>
       </c>
       <c r="D6" t="n">
-        <v>13.71264751752218</v>
+        <v>0.798337459564209</v>
       </c>
       <c r="E6" t="n">
-        <v>12650.33959960938</v>
+        <v>2998.964111328125</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -500,16 +500,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>2.802525520324707</v>
+        <v>4.261250654856364</v>
       </c>
       <c r="C7" t="n">
-        <v>12396.48600260417</v>
+        <v>2947.725830078125</v>
       </c>
       <c r="D7" t="n">
-        <v>2.701053222020467</v>
+        <v>4.101158837477366</v>
       </c>
       <c r="E7" t="n">
-        <v>12396.38468424479</v>
+        <v>2947.565714518229</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -517,16 +517,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>5.213522752126058</v>
+        <v>0.9500779112180074</v>
       </c>
       <c r="C8" t="n">
-        <v>12160.71647135417</v>
+        <v>2890.862467447917</v>
       </c>
       <c r="D8" t="n">
-        <v>5.24136730035146</v>
+        <v>0.9180078605810801</v>
       </c>
       <c r="E8" t="n">
-        <v>12160.74422200521</v>
+        <v>2890.830383300781</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -534,16 +534,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>1.06306787331899</v>
+        <v>1.712196270624797</v>
       </c>
       <c r="C9" t="n">
-        <v>11923.15592447917</v>
+        <v>2839.06201171875</v>
       </c>
       <c r="D9" t="n">
-        <v>1.3791756828626</v>
+        <v>1.724923978249232</v>
       </c>
       <c r="E9" t="n">
-        <v>11923.47192382812</v>
+        <v>2839.074768066406</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -551,16 +551,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8720310727755228</v>
+        <v>2.717746814092</v>
       </c>
       <c r="C10" t="n">
-        <v>11693.86328125</v>
+        <v>2788.577880859375</v>
       </c>
       <c r="D10" t="n">
-        <v>1.694904799262683</v>
+        <v>2.63448570171992</v>
       </c>
       <c r="E10" t="n">
-        <v>11694.68611653646</v>
+        <v>2788.494608561198</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -568,16 +568,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>3.310946067174276</v>
+        <v>1.747091372807821</v>
       </c>
       <c r="C11" t="n">
-        <v>11471.43196614583</v>
+        <v>2737.122314453125</v>
       </c>
       <c r="D11" t="n">
-        <v>3.124012311299642</v>
+        <v>2.115255465110143</v>
       </c>
       <c r="E11" t="n">
-        <v>11471.2451171875</v>
+        <v>2737.490519205729</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -585,16 +585,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>1.315945744514465</v>
+        <v>1.457224210103353</v>
       </c>
       <c r="C12" t="n">
-        <v>11248.92643229167</v>
+        <v>2687.356608072917</v>
       </c>
       <c r="D12" t="n">
-        <v>1.812047888835271</v>
+        <v>2.023769617080688</v>
       </c>
       <c r="E12" t="n">
-        <v>11249.42236328125</v>
+        <v>2687.923156738281</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -602,16 +602,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>2.379560708999634</v>
+        <v>2.474942525227865</v>
       </c>
       <c r="C13" t="n">
-        <v>11033.689453125</v>
+        <v>2639.825276692708</v>
       </c>
       <c r="D13" t="n">
-        <v>1.821738421916962</v>
+        <v>2.303327639897665</v>
       </c>
       <c r="E13" t="n">
-        <v>11033.13118489583</v>
+        <v>2639.653625488281</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -619,16 +619,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.3245679140090942</v>
+        <v>0.6947370171546936</v>
       </c>
       <c r="C14" t="n">
-        <v>10819.38834635417</v>
+        <v>2590.445719401042</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3936043481032054</v>
+        <v>0.4713048984607061</v>
       </c>
       <c r="E14" t="n">
-        <v>10819.45711263021</v>
+        <v>2590.222290039062</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -636,16 +636,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9243715405464172</v>
+        <v>0.6768740018208822</v>
       </c>
       <c r="C15" t="n">
-        <v>10611.67838541667</v>
+        <v>2543.745279947917</v>
       </c>
       <c r="D15" t="n">
-        <v>1.088376671075821</v>
+        <v>0.4664032856623332</v>
       </c>
       <c r="E15" t="n">
-        <v>10611.84244791667</v>
+        <v>2543.53476969401</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -653,16 +653,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>1.915751775105794</v>
+        <v>0.8883543610572815</v>
       </c>
       <c r="C16" t="n">
-        <v>10408.22721354167</v>
+        <v>2498.132975260417</v>
       </c>
       <c r="D16" t="n">
-        <v>1.545941362778346</v>
+        <v>0.7084560940663019</v>
       </c>
       <c r="E16" t="n">
-        <v>10407.85750325521</v>
+        <v>2497.953063964844</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -670,16 +670,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>1.179979761441549</v>
+        <v>2.002556403477987</v>
       </c>
       <c r="C17" t="n">
-        <v>10206.84114583333</v>
+        <v>2454.277994791667</v>
       </c>
       <c r="D17" t="n">
-        <v>1.881579011678696</v>
+        <v>2.568557778994242</v>
       </c>
       <c r="E17" t="n">
-        <v>10207.54272460938</v>
+        <v>2454.843953450521</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -687,16 +687,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7602835098902384</v>
+        <v>1.902742862701416</v>
       </c>
       <c r="C18" t="n">
-        <v>10009.59830729167</v>
+        <v>2410.094889322917</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7223365604877472</v>
+        <v>1.903276880582174</v>
       </c>
       <c r="E18" t="n">
-        <v>10009.56022135417</v>
+        <v>2410.095418294271</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -704,16 +704,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5311150153477987</v>
+        <v>0.4241352279980977</v>
       </c>
       <c r="C19" t="n">
-        <v>9816.208984375</v>
+        <v>2365.369140625</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8464214851458868</v>
+        <v>0.7064185043176016</v>
       </c>
       <c r="E19" t="n">
-        <v>9816.524169921875</v>
+        <v>2365.651489257812</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -721,16 +721,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9341287215550741</v>
+        <v>0.3556025524934133</v>
       </c>
       <c r="C20" t="n">
-        <v>9627.010416666666</v>
+        <v>2322.848958333333</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8541325877110163</v>
+        <v>0.3205993461112182</v>
       </c>
       <c r="E20" t="n">
-        <v>9626.930419921875</v>
+        <v>2322.814025878906</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -738,16 +738,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.2189001937707265</v>
+        <v>0.8204595843950907</v>
       </c>
       <c r="C21" t="n">
-        <v>9440.216145833334</v>
+        <v>2281.639567057292</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5870672812064489</v>
+        <v>0.546047235528628</v>
       </c>
       <c r="E21" t="n">
-        <v>9440.584147135416</v>
+        <v>2281.365091959635</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -755,16 +755,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3229559659957886</v>
+        <v>1.10359533627828</v>
       </c>
       <c r="C22" t="n">
-        <v>9257.719401041666</v>
+        <v>2241.014241536458</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2249895619849364</v>
+        <v>1.507042576869329</v>
       </c>
       <c r="E22" t="n">
-        <v>9257.62158203125</v>
+        <v>2241.417683919271</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -772,16 +772,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.256812979777654</v>
+        <v>0.8603628476460775</v>
       </c>
       <c r="C23" t="n">
-        <v>9078.427734375</v>
+        <v>2200.623046875</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1561433871587118</v>
+        <v>1.31204742193222</v>
       </c>
       <c r="E23" t="n">
-        <v>9078.326985677084</v>
+        <v>2201.07470703125</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -789,16 +789,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.09751818577448527</v>
+        <v>0.4539749920368195</v>
       </c>
       <c r="C24" t="n">
-        <v>8902.342447916666</v>
+        <v>2160.810709635417</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2811461389064789</v>
+        <v>0.2909822637836139</v>
       </c>
       <c r="E24" t="n">
-        <v>8902.526204427084</v>
+        <v>2160.647664388021</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -806,16 +806,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1140042245388031</v>
+        <v>0.2272571126619975</v>
       </c>
       <c r="C25" t="n">
-        <v>8729.692057291666</v>
+        <v>2121.891764322917</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1585952801009019</v>
+        <v>0.261733453720808</v>
       </c>
       <c r="E25" t="n">
-        <v>8729.73681640625</v>
+        <v>2121.926249186198</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -823,16 +823,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.07387798527876537</v>
+        <v>0.328473558028539</v>
       </c>
       <c r="C26" t="n">
-        <v>8560.173502604166</v>
+        <v>2083.998616536458</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1148075430343549</v>
+        <v>0.2382581879695257</v>
       </c>
       <c r="E26" t="n">
-        <v>8560.214436848959</v>
+        <v>2083.908406575521</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -840,16 +840,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1045622676610947</v>
+        <v>0.2577808698018392</v>
       </c>
       <c r="C27" t="n">
-        <v>8393.8466796875</v>
+        <v>2046.617716471354</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1258986635754506</v>
+        <v>0.1978884401420752</v>
       </c>
       <c r="E27" t="n">
-        <v>8393.868001302084</v>
+        <v>2046.557871500651</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -857,16 +857,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.2128517826398214</v>
+        <v>0.3070734937985738</v>
       </c>
       <c r="C28" t="n">
-        <v>8230.658203125</v>
+        <v>2010.027750651042</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1620955777664979</v>
+        <v>0.2798762346307437</v>
       </c>
       <c r="E28" t="n">
-        <v>8230.607503255209</v>
+        <v>2010.000579833984</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -874,16 +874,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.2481226821740468</v>
+        <v>0.1908313482999802</v>
       </c>
       <c r="C29" t="n">
-        <v>8070.421875</v>
+        <v>1973.928629557292</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1532604619860649</v>
+        <v>0.2255955288807551</v>
       </c>
       <c r="E29" t="n">
-        <v>8070.327067057292</v>
+        <v>1973.963389078776</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -891,16 +891,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1510690848032633</v>
+        <v>0.1218051115671794</v>
       </c>
       <c r="C30" t="n">
-        <v>7913.030924479167</v>
+        <v>1938.518025716146</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1598251201212406</v>
+        <v>0.1988991908729076</v>
       </c>
       <c r="E30" t="n">
-        <v>7913.039672851562</v>
+        <v>1938.595133463542</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -908,16 +908,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.171862984697024</v>
+        <v>0.4583790898323059</v>
       </c>
       <c r="C31" t="n">
-        <v>7758.682942708333</v>
+        <v>1904.153564453125</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1046062260866165</v>
+        <v>0.4292526493469874</v>
       </c>
       <c r="E31" t="n">
-        <v>7758.615804036458</v>
+        <v>1904.124450683594</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -925,16 +925,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.1689109951257706</v>
+        <v>0.2973332504431407</v>
       </c>
       <c r="C32" t="n">
-        <v>7607.1708984375</v>
+        <v>1869.915364583333</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1250617944945892</v>
+        <v>0.3450201551119487</v>
       </c>
       <c r="E32" t="n">
-        <v>7607.127034505208</v>
+        <v>1869.963073730469</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -942,16 +942,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.07619993885358174</v>
+        <v>0.332821786403656</v>
       </c>
       <c r="C33" t="n">
-        <v>7458.396484375</v>
+        <v>1836.487996419271</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1437259720017513</v>
+        <v>0.3031690940260887</v>
       </c>
       <c r="E33" t="n">
-        <v>7458.464070638021</v>
+        <v>1836.458312988281</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -959,16 +959,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1581908464431763</v>
+        <v>0.3040373524030049</v>
       </c>
       <c r="C34" t="n">
-        <v>7312.560221354167</v>
+        <v>1803.594685872396</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1004998876402775</v>
+        <v>0.182875661800305</v>
       </c>
       <c r="E34" t="n">
-        <v>7312.502400716146</v>
+        <v>1803.47353108724</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -976,16 +976,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1069576740264893</v>
+        <v>0.2359989235798518</v>
       </c>
       <c r="C35" t="n">
-        <v>7169.300130208333</v>
+        <v>1771.253580729167</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1154708762963613</v>
+        <v>0.1579292664925257</v>
       </c>
       <c r="E35" t="n">
-        <v>7169.308797200521</v>
+        <v>1771.175516764323</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -993,16 +993,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1374803334474564</v>
+        <v>0.1087606524427732</v>
       </c>
       <c r="C36" t="n">
-        <v>7028.787272135417</v>
+        <v>1739.427368164062</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1136214590320985</v>
+        <v>0.1108441520482302</v>
       </c>
       <c r="E36" t="n">
-        <v>7028.763509114583</v>
+        <v>1739.429453531901</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1010,16 +1010,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.07132172460357349</v>
+        <v>0.3729942639668782</v>
       </c>
       <c r="C37" t="n">
-        <v>6890.78955078125</v>
+        <v>1708.557332356771</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1250888556241989</v>
+        <v>0.234611580769221</v>
       </c>
       <c r="E37" t="n">
-        <v>6890.843383789062</v>
+        <v>1708.418935139974</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1027,16 +1027,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.1445066084464391</v>
+        <v>0.1281749606132507</v>
       </c>
       <c r="C38" t="n">
-        <v>6755.502766927083</v>
+        <v>1677.7333984375</v>
       </c>
       <c r="D38" t="n">
-        <v>0.09565161106487115</v>
+        <v>0.1011091154068708</v>
       </c>
       <c r="E38" t="n">
-        <v>6755.454020182292</v>
+        <v>1677.706319173177</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1044,16 +1044,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1134018773833911</v>
+        <v>0.09419592718283336</v>
       </c>
       <c r="C39" t="n">
-        <v>6622.634928385417</v>
+        <v>1647.663777669271</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1065636314451694</v>
+        <v>0.1234934441745281</v>
       </c>
       <c r="E39" t="n">
-        <v>6622.628011067708</v>
+        <v>1647.693074544271</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1061,16 +1061,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1619671285152435</v>
+        <v>0.07865070303281148</v>
       </c>
       <c r="C40" t="n">
-        <v>6492.326497395833</v>
+        <v>1618.144816080729</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1302149246136347</v>
+        <v>0.1102560125291348</v>
       </c>
       <c r="E40" t="n">
-        <v>6492.294799804688</v>
+        <v>1618.176432291667</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1078,16 +1078,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.06636530968050162</v>
+        <v>0.08366365234057109</v>
       </c>
       <c r="C41" t="n">
-        <v>6364.3154296875</v>
+        <v>1589.174397786458</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1135079277058442</v>
+        <v>0.1096120811998844</v>
       </c>
       <c r="E41" t="n">
-        <v>6364.362548828125</v>
+        <v>1589.200317382812</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1095,16 +1095,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0807766318321228</v>
+        <v>0.07126682003339131</v>
       </c>
       <c r="C42" t="n">
-        <v>6238.805338541667</v>
+        <v>1560.702758789062</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1230977717787027</v>
+        <v>0.09971342608332634</v>
       </c>
       <c r="E42" t="n">
-        <v>6238.84765625</v>
+        <v>1560.731180826823</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1112,16 +1112,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1474983294804891</v>
+        <v>0.1232936133941015</v>
       </c>
       <c r="C43" t="n">
-        <v>6115.7001953125</v>
+        <v>1532.802978515625</v>
       </c>
       <c r="D43" t="n">
-        <v>0.08538918973257144</v>
+        <v>0.1006344159444173</v>
       </c>
       <c r="E43" t="n">
-        <v>6115.638142903646</v>
+        <v>1532.780334472656</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1129,16 +1129,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1193837995330493</v>
+        <v>0.09165029972791672</v>
       </c>
       <c r="C44" t="n">
-        <v>5994.801432291667</v>
+        <v>1505.3154296875</v>
       </c>
       <c r="D44" t="n">
-        <v>0.07527680446704228</v>
+        <v>0.1065648384392262</v>
       </c>
       <c r="E44" t="n">
-        <v>5994.757405598958</v>
+        <v>1505.330312093099</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1146,16 +1146,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1706040799617767</v>
+        <v>0.1270146369934082</v>
       </c>
       <c r="C45" t="n">
-        <v>5876.245768229167</v>
+        <v>1478.385294596354</v>
       </c>
       <c r="D45" t="n">
-        <v>0.09225534709791343</v>
+        <v>0.1055242816607157</v>
       </c>
       <c r="E45" t="n">
-        <v>5876.167439778646</v>
+        <v>1478.36382039388</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1163,16 +1163,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.08304669211308162</v>
+        <v>0.177501325805982</v>
       </c>
       <c r="C46" t="n">
-        <v>5759.77978515625</v>
+        <v>1451.952392578125</v>
       </c>
       <c r="D46" t="n">
-        <v>0.08700473171969254</v>
+        <v>0.1175734214484692</v>
       </c>
       <c r="E46" t="n">
-        <v>5759.783772786458</v>
+        <v>1451.89247639974</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1180,16 +1180,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1090818643569946</v>
+        <v>0.1714275230964025</v>
       </c>
       <c r="C47" t="n">
-        <v>5645.611979166667</v>
+        <v>1425.935099283854</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1146109650532405</v>
+        <v>0.101784319927295</v>
       </c>
       <c r="E47" t="n">
-        <v>5645.617553710938</v>
+        <v>1425.865468343099</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1197,16 +1197,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1928912550210953</v>
+        <v>0.06131256992618243</v>
       </c>
       <c r="C48" t="n">
-        <v>5533.65771484375</v>
+        <v>1400.27685546875</v>
       </c>
       <c r="D48" t="n">
-        <v>0.09351646900177002</v>
+        <v>0.09829715204735597</v>
       </c>
       <c r="E48" t="n">
-        <v>5533.558308919271</v>
+        <v>1400.313873291016</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1214,16 +1214,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1108517025907834</v>
+        <v>0.06316091244419415</v>
       </c>
       <c r="C49" t="n">
-        <v>5423.64404296875</v>
+        <v>1375.185994466146</v>
       </c>
       <c r="D49" t="n">
-        <v>0.2346540912985802</v>
+        <v>0.09979326029618581</v>
       </c>
       <c r="E49" t="n">
-        <v>5423.767862955729</v>
+        <v>1375.222585042318</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1231,16 +1231,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09056708340843518</v>
+        <v>0.1119078571597735</v>
       </c>
       <c r="C50" t="n">
-        <v>5315.763834635417</v>
+        <v>1350.591512044271</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1091670642296473</v>
+        <v>0.097683555757006</v>
       </c>
       <c r="E50" t="n">
-        <v>5315.782511393229</v>
+        <v>1350.577301025391</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1248,16 +1248,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.191046009461085</v>
+        <v>0.1421325107415517</v>
       </c>
       <c r="C51" t="n">
-        <v>5210.039713541667</v>
+        <v>1326.417643229167</v>
       </c>
       <c r="D51" t="n">
-        <v>0.09120779670774937</v>
+        <v>0.08035619743168354</v>
       </c>
       <c r="E51" t="n">
-        <v>5209.939778645833</v>
+        <v>1326.355865478516</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1265,16 +1265,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0.1102792421976725</v>
+        <v>0.1193287496765455</v>
       </c>
       <c r="C52" t="n">
-        <v>5106.129231770833</v>
+        <v>1302.622965494792</v>
       </c>
       <c r="D52" t="n">
-        <v>0.08999543419728677</v>
+        <v>0.07926059824724992</v>
       </c>
       <c r="E52" t="n">
-        <v>5106.109008789062</v>
+        <v>1302.582926432292</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1282,16 +1282,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0.08997146040201187</v>
+        <v>0.08251859744389851</v>
       </c>
       <c r="C53" t="n">
-        <v>5004.240234375</v>
+        <v>1279.240966796875</v>
       </c>
       <c r="D53" t="n">
-        <v>0.1255745328962803</v>
+        <v>0.1141657090435425</v>
       </c>
       <c r="E53" t="n">
-        <v>5004.275919596354</v>
+        <v>1279.272623697917</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1299,16 +1299,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0.1482032264272372</v>
+        <v>0.0865312193830808</v>
       </c>
       <c r="C54" t="n">
-        <v>4904.354817708333</v>
+        <v>1256.315755208333</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1104291727145513</v>
+        <v>0.09738515503704548</v>
       </c>
       <c r="E54" t="n">
-        <v>4904.316975911458</v>
+        <v>1256.326649983724</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1316,16 +1316,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1043688158194224</v>
+        <v>0.1626685261726379</v>
       </c>
       <c r="C55" t="n">
-        <v>4806.263509114583</v>
+        <v>1233.872639973958</v>
       </c>
       <c r="D55" t="n">
-        <v>0.08919422701001167</v>
+        <v>0.07946321523437898</v>
       </c>
       <c r="E55" t="n">
-        <v>4806.248413085938</v>
+        <v>1233.789418538411</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1333,16 +1333,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1050856063763301</v>
+        <v>0.1372677832841873</v>
       </c>
       <c r="C56" t="n">
-        <v>4710.067057291667</v>
+        <v>1211.731241861979</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1285214852541685</v>
+        <v>0.08457794164617856</v>
       </c>
       <c r="E56" t="n">
-        <v>4710.090454101562</v>
+        <v>1211.678548177083</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1350,16 +1350,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1884790410598119</v>
+        <v>0.1425943771998087</v>
       </c>
       <c r="C57" t="n">
-        <v>4615.77392578125</v>
+        <v>1190.016886393229</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1034974601740638</v>
+        <v>0.07186570794632037</v>
       </c>
       <c r="E57" t="n">
-        <v>4615.68896484375</v>
+        <v>1189.946126302083</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1367,16 +1367,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1534447173277537</v>
+        <v>0.1095390568176905</v>
       </c>
       <c r="C58" t="n">
-        <v>4523.157389322917</v>
+        <v>1168.653238932292</v>
       </c>
       <c r="D58" t="n">
-        <v>0.09082868850479524</v>
+        <v>0.07700355413059394</v>
       </c>
       <c r="E58" t="n">
-        <v>4523.094767252604</v>
+        <v>1168.620697021484</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1384,16 +1384,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.09215841442346573</v>
+        <v>0.06320354839166005</v>
       </c>
       <c r="C59" t="n">
-        <v>4432.275227864583</v>
+        <v>1147.6611328125</v>
       </c>
       <c r="D59" t="n">
-        <v>0.09922797915836175</v>
+        <v>0.1321872652818759</v>
       </c>
       <c r="E59" t="n">
-        <v>4432.282348632812</v>
+        <v>1147.730102539062</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1401,16 +1401,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1777139604091644</v>
+        <v>0.09916957467794418</v>
       </c>
       <c r="C60" t="n">
-        <v>4343.26220703125</v>
+        <v>1127.127604166667</v>
       </c>
       <c r="D60" t="n">
-        <v>0.08948313755293687</v>
+        <v>0.0844047802189986</v>
       </c>
       <c r="E60" t="n">
-        <v>4343.173909505208</v>
+        <v>1127.112833658854</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1418,16 +1418,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0.05673919369777044</v>
+        <v>0.1317912166317304</v>
       </c>
       <c r="C61" t="n">
-        <v>4255.73486328125</v>
+        <v>1106.962483723958</v>
       </c>
       <c r="D61" t="n">
-        <v>0.1897184277574221</v>
+        <v>0.07850859935084979</v>
       </c>
       <c r="E61" t="n">
-        <v>4255.868041992188</v>
+        <v>1106.909210205078</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1435,16 +1435,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1334645772973696</v>
+        <v>0.1310248151421547</v>
       </c>
       <c r="C62" t="n">
-        <v>4170.068684895833</v>
+        <v>1087.127115885417</v>
       </c>
       <c r="D62" t="n">
-        <v>0.1360762597372135</v>
+        <v>0.07819754506150882</v>
       </c>
       <c r="E62" t="n">
-        <v>4170.071166992188</v>
+        <v>1087.074289957682</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1452,16 +1452,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1548056254784266</v>
+        <v>0.1882000615199407</v>
       </c>
       <c r="C63" t="n">
-        <v>4085.986409505208</v>
+        <v>1067.705403645833</v>
       </c>
       <c r="D63" t="n">
-        <v>0.07939797826111317</v>
+        <v>0.09429377752045791</v>
       </c>
       <c r="E63" t="n">
-        <v>4085.910929361979</v>
+        <v>1067.611521402995</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1469,16 +1469,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>0.08602176606655121</v>
+        <v>0.1786649078130722</v>
       </c>
       <c r="C64" t="n">
-        <v>4003.424886067708</v>
+        <v>1048.569051106771</v>
       </c>
       <c r="D64" t="n">
-        <v>0.09507929719984531</v>
+        <v>0.09938800272842248</v>
       </c>
       <c r="E64" t="n">
-        <v>4003.433919270833</v>
+        <v>1048.489756266276</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1486,16 +1486,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0.2751727451880773</v>
+        <v>0.07277827461560567</v>
       </c>
       <c r="C65" t="n">
-        <v>3922.693603515625</v>
+        <v>1029.679484049479</v>
       </c>
       <c r="D65" t="n">
-        <v>0.2172379580636819</v>
+        <v>0.106248521246016</v>
       </c>
       <c r="E65" t="n">
-        <v>3922.635701497396</v>
+        <v>1029.71294148763</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1503,16 +1503,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1225283195575078</v>
+        <v>0.1361335317293803</v>
       </c>
       <c r="C66" t="n">
-        <v>3843.177897135417</v>
+        <v>1011.297444661458</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1186860762536526</v>
+        <v>0.07014990442742904</v>
       </c>
       <c r="E66" t="n">
-        <v>3843.174072265625</v>
+        <v>1011.231465657552</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1520,16 +1520,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0.05710257713993391</v>
+        <v>0.0952996884783109</v>
       </c>
       <c r="C67" t="n">
-        <v>3765.274088541667</v>
+        <v>993.144287109375</v>
       </c>
       <c r="D67" t="n">
-        <v>0.2507053626080354</v>
+        <v>0.0761488036562999</v>
       </c>
       <c r="E67" t="n">
-        <v>3765.4677734375</v>
+        <v>993.1251576741537</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1537,16 +1537,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1212747866908709</v>
+        <v>0.1773719638586044</v>
       </c>
       <c r="C68" t="n">
-        <v>3688.999755859375</v>
+        <v>975.4410603841146</v>
       </c>
       <c r="D68" t="n">
-        <v>0.1152907032519579</v>
+        <v>0.09544544418652852</v>
       </c>
       <c r="E68" t="n">
-        <v>3688.993713378906</v>
+        <v>975.3591105143229</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1554,16 +1554,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0.06768800814946492</v>
+        <v>0.0805951605240504</v>
       </c>
       <c r="C69" t="n">
-        <v>3614.072102864583</v>
+        <v>957.8795979817709</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1933550635973612</v>
+        <v>0.1228446116050084</v>
       </c>
       <c r="E69" t="n">
-        <v>3614.19775390625</v>
+        <v>957.9218597412109</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1571,16 +1571,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>0.139408603310585</v>
+        <v>0.1065902834137281</v>
       </c>
       <c r="C70" t="n">
-        <v>3540.71337890625</v>
+        <v>940.7595621744791</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0895975021024545</v>
+        <v>0.1105739871660868</v>
       </c>
       <c r="E70" t="n">
-        <v>3540.663594563802</v>
+        <v>940.7635345458984</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1588,16 +1588,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0.2342103372017542</v>
+        <v>0.1011553804079692</v>
       </c>
       <c r="C71" t="n">
-        <v>3468.788899739583</v>
+        <v>923.91845703125</v>
       </c>
       <c r="D71" t="n">
-        <v>0.1689878726998965</v>
+        <v>0.1018785381068786</v>
       </c>
       <c r="E71" t="n">
-        <v>3468.723673502604</v>
+        <v>923.919199625651</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1605,16 +1605,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>0.1069962059458097</v>
+        <v>0.09475624064604442</v>
       </c>
       <c r="C72" t="n">
-        <v>3398.027180989583</v>
+        <v>907.3805745442709</v>
       </c>
       <c r="D72" t="n">
-        <v>0.1086754699548085</v>
+        <v>0.1012144386768341</v>
       </c>
       <c r="E72" t="n">
-        <v>3398.028828938802</v>
+        <v>907.3870493570963</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1622,16 +1622,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>0.06635419776042302</v>
+        <v>0.1323042437434196</v>
       </c>
       <c r="C73" t="n">
-        <v>3328.71337890625</v>
+        <v>891.1844278971354</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1086509376764297</v>
+        <v>0.08028630415598552</v>
       </c>
       <c r="E73" t="n">
-        <v>3328.755615234375</v>
+        <v>891.1324106852213</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1639,16 +1639,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>0.08506014322241147</v>
+        <v>0.09290976077318192</v>
       </c>
       <c r="C74" t="n">
-        <v>3260.792561848958</v>
+        <v>875.2049763997396</v>
       </c>
       <c r="D74" t="n">
-        <v>0.09073865662018459</v>
+        <v>0.1112274434417486</v>
       </c>
       <c r="E74" t="n">
-        <v>3260.798258463542</v>
+        <v>875.2232920328776</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1656,16 +1656,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>0.07265649860103925</v>
+        <v>0.1682213048140208</v>
       </c>
       <c r="C75" t="n">
-        <v>3194.154866536458</v>
+        <v>859.6287841796875</v>
       </c>
       <c r="D75" t="n">
-        <v>0.1797415452698866</v>
+        <v>0.08980876704057057</v>
       </c>
       <c r="E75" t="n">
-        <v>3194.262003580729</v>
+        <v>859.5503794352213</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1673,16 +1673,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>0.08875475948055585</v>
+        <v>0.1445822318394979</v>
       </c>
       <c r="C76" t="n">
-        <v>3128.840983072917</v>
+        <v>844.2394816080729</v>
       </c>
       <c r="D76" t="n">
-        <v>0.1061739418655634</v>
+        <v>0.07952810854961474</v>
       </c>
       <c r="E76" t="n">
-        <v>3128.858337402344</v>
+        <v>844.1744333902994</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1690,16 +1690,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>0.07057176282008489</v>
+        <v>0.1040928512811661</v>
       </c>
       <c r="C77" t="n">
-        <v>3064.757649739583</v>
+        <v>829.1124064127604</v>
       </c>
       <c r="D77" t="n">
-        <v>0.1035589228073756</v>
+        <v>0.0851215235888958</v>
       </c>
       <c r="E77" t="n">
-        <v>3064.790568033854</v>
+        <v>829.0934244791666</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1707,16 +1707,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>0.2082977791627248</v>
+        <v>0.1676674385865529</v>
       </c>
       <c r="C78" t="n">
-        <v>3002.072265625</v>
+        <v>814.3641357421875</v>
       </c>
       <c r="D78" t="n">
-        <v>0.1526784201463064</v>
+        <v>0.08485074651738007</v>
       </c>
       <c r="E78" t="n">
-        <v>3002.01670328776</v>
+        <v>814.2813262939453</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1724,16 +1724,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>0.14668225000302</v>
+        <v>0.168318380912145</v>
       </c>
       <c r="C79" t="n">
-        <v>2940.411539713542</v>
+        <v>799.8224283854166</v>
       </c>
       <c r="D79" t="n">
-        <v>0.08480081117401521</v>
+        <v>0.0829290362695853</v>
       </c>
       <c r="E79" t="n">
-        <v>2940.349690755208</v>
+        <v>799.7370452880859</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1741,16 +1741,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>0.09541083127260208</v>
+        <v>0.1711424638827642</v>
       </c>
       <c r="C80" t="n">
-        <v>2879.956217447917</v>
+        <v>785.5487670898438</v>
       </c>
       <c r="D80" t="n">
-        <v>0.09023837062219779</v>
+        <v>0.08330696014066537</v>
       </c>
       <c r="E80" t="n">
-        <v>2879.95107014974</v>
+        <v>785.4609324137369</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1758,16 +1758,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>0.1694893836975098</v>
+        <v>0.09351340432961781</v>
       </c>
       <c r="C81" t="n">
-        <v>2820.803466796875</v>
+        <v>771.4546101888021</v>
       </c>
       <c r="D81" t="n">
-        <v>0.1104538682848215</v>
+        <v>0.08494487963616848</v>
       </c>
       <c r="E81" t="n">
-        <v>2820.74452718099</v>
+        <v>771.4460194905599</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1775,16 +1775,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>0.09520599866906802</v>
+        <v>0.1413404295841853</v>
       </c>
       <c r="C82" t="n">
-        <v>2762.65673828125</v>
+        <v>757.7407633463541</v>
       </c>
       <c r="D82" t="n">
-        <v>0.09975213867922623</v>
+        <v>0.07603694560627143</v>
       </c>
       <c r="E82" t="n">
-        <v>2762.661275227865</v>
+        <v>757.6754659016927</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1792,16 +1792,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>0.1588597844044367</v>
+        <v>0.05845284710327784</v>
       </c>
       <c r="C83" t="n">
-        <v>2705.78271484375</v>
+        <v>744.1476236979166</v>
       </c>
       <c r="D83" t="n">
-        <v>0.107179722438256</v>
+        <v>0.1433887345095476</v>
       </c>
       <c r="E83" t="n">
-        <v>2705.73095703125</v>
+        <v>744.2325693766276</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1809,16 +1809,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>0.07147695496678352</v>
+        <v>0.1326557522018751</v>
       </c>
       <c r="C84" t="n">
-        <v>2649.875162760417</v>
+        <v>730.9577433268229</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1183224649478992</v>
+        <v>0.07331375032663345</v>
       </c>
       <c r="E84" t="n">
-        <v>2649.922017415365</v>
+        <v>730.8983815511068</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1826,16 +1826,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>0.111659641067187</v>
+        <v>0.1773647020260493</v>
       </c>
       <c r="C85" t="n">
-        <v>2595.187581380208</v>
+        <v>717.98046875</v>
       </c>
       <c r="D85" t="n">
-        <v>0.07954176298032205</v>
+        <v>0.08720416451493899</v>
       </c>
       <c r="E85" t="n">
-        <v>2595.155456542969</v>
+        <v>717.8903045654297</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1843,16 +1843,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>0.1030869682629903</v>
+        <v>0.08320857087771098</v>
       </c>
       <c r="C86" t="n">
-        <v>2541.524495442708</v>
+        <v>705.1030883789062</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1117051442464193</v>
+        <v>0.09500336740165949</v>
       </c>
       <c r="E86" t="n">
-        <v>2541.533060709635</v>
+        <v>705.1148986816406</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1860,16 +1860,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>0.05501390372713407</v>
+        <v>0.1455430289109548</v>
       </c>
       <c r="C87" t="n">
-        <v>2488.876302083333</v>
+        <v>692.6163940429688</v>
       </c>
       <c r="D87" t="n">
-        <v>0.1461092624813318</v>
+        <v>0.07878132288654645</v>
       </c>
       <c r="E87" t="n">
-        <v>2488.967366536458</v>
+        <v>692.5496063232422</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1877,16 +1877,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>0.2408909449974696</v>
+        <v>0.1879795491695404</v>
       </c>
       <c r="C88" t="n">
-        <v>2437.494547526042</v>
+        <v>680.3386027018229</v>
       </c>
       <c r="D88" t="n">
-        <v>0.125642537449797</v>
+        <v>0.09425012581050396</v>
       </c>
       <c r="E88" t="n">
-        <v>2437.379333496094</v>
+        <v>680.2448781331381</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1894,16 +1894,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>0.173164039850235</v>
+        <v>0.1398558889826139</v>
       </c>
       <c r="C89" t="n">
-        <v>2386.879720052083</v>
+        <v>668.1970621744791</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1164242594192425</v>
+        <v>0.07089706820746262</v>
       </c>
       <c r="E89" t="n">
-        <v>2386.822977701823</v>
+        <v>668.1280873616537</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1911,16 +1911,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1068590059876442</v>
+        <v>0.1163367653886477</v>
       </c>
       <c r="C90" t="n">
-        <v>2337.262451171875</v>
+        <v>656.3018188476562</v>
       </c>
       <c r="D90" t="n">
-        <v>0.09316316060721874</v>
+        <v>0.08263782101372878</v>
       </c>
       <c r="E90" t="n">
-        <v>2337.248677571615</v>
+        <v>656.2681274414062</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1928,16 +1928,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>0.060147142658631</v>
+        <v>0.1187887713313103</v>
       </c>
       <c r="C91" t="n">
-        <v>2288.648681640625</v>
+        <v>644.6500447591146</v>
       </c>
       <c r="D91" t="n">
-        <v>0.1566169535120328</v>
+        <v>0.07276426969716947</v>
       </c>
       <c r="E91" t="n">
-        <v>2288.745239257812</v>
+        <v>644.604014078776</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1945,16 +1945,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>0.06590239082773526</v>
+        <v>0.1460387508074442</v>
       </c>
       <c r="C92" t="n">
-        <v>2241.051839192708</v>
+        <v>633.2362060546875</v>
       </c>
       <c r="D92" t="n">
-        <v>0.1070493205140034</v>
+        <v>0.07588350493460894</v>
       </c>
       <c r="E92" t="n">
-        <v>2241.092895507812</v>
+        <v>633.1660308837891</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1962,16 +1962,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>0.06949015334248543</v>
+        <v>0.123946284254392</v>
       </c>
       <c r="C93" t="n">
-        <v>2194.396891276042</v>
+        <v>621.9846598307291</v>
       </c>
       <c r="D93" t="n">
-        <v>0.1672275351981322</v>
+        <v>0.07539102155715227</v>
       </c>
       <c r="E93" t="n">
-        <v>2194.494649251302</v>
+        <v>621.9361165364584</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1979,16 +1979,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>0.1104334518313408</v>
+        <v>0.1861385703086853</v>
       </c>
       <c r="C94" t="n">
-        <v>2148.704182942708</v>
+        <v>611.0228068033854</v>
       </c>
       <c r="D94" t="n">
-        <v>0.1104403274754683</v>
+        <v>0.1005613350619872</v>
       </c>
       <c r="E94" t="n">
-        <v>2148.70420328776</v>
+        <v>610.9372355143229</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1996,16 +1996,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>0.08890542512138684</v>
+        <v>0.08960078159968059</v>
       </c>
       <c r="C95" t="n">
-        <v>2103.855794270833</v>
+        <v>600.1049194335938</v>
       </c>
       <c r="D95" t="n">
-        <v>0.1115643916030725</v>
+        <v>0.09964058982829253</v>
       </c>
       <c r="E95" t="n">
-        <v>2103.878377278646</v>
+        <v>600.1149648030599</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2013,16 +2013,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>0.1519461075464884</v>
+        <v>0.1927269796530406</v>
       </c>
       <c r="C96" t="n">
-        <v>2059.982259114583</v>
+        <v>589.5861002604166</v>
       </c>
       <c r="D96" t="n">
-        <v>0.09194665402173996</v>
+        <v>0.1087692727645238</v>
       </c>
       <c r="E96" t="n">
-        <v>2059.92226155599</v>
+        <v>589.5021413167318</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2030,16 +2030,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>0.18855220079422</v>
+        <v>0.1392972419659297</v>
       </c>
       <c r="C97" t="n">
-        <v>2016.959920247396</v>
+        <v>579.108642578125</v>
       </c>
       <c r="D97" t="n">
-        <v>0.1056517977267504</v>
+        <v>0.08704378517965476</v>
       </c>
       <c r="E97" t="n">
-        <v>2016.877024332682</v>
+        <v>579.0563913981119</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2047,16 +2047,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>0.1840608268976212</v>
+        <v>0.1112286224961281</v>
       </c>
       <c r="C98" t="n">
-        <v>1974.758911132812</v>
+        <v>568.8485310872396</v>
       </c>
       <c r="D98" t="n">
-        <v>0.1050330543269714</v>
+        <v>0.07332379184663296</v>
       </c>
       <c r="E98" t="n">
-        <v>1974.679860432943</v>
+        <v>568.8106231689453</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2064,16 +2064,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>0.07302237302064896</v>
+        <v>0.1918129126230876</v>
       </c>
       <c r="C99" t="n">
-        <v>1933.296549479167</v>
+        <v>558.8860880533854</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1030865817641218</v>
+        <v>0.08792587121327718</v>
       </c>
       <c r="E99" t="n">
-        <v>1933.326588948568</v>
+        <v>558.7822011311849</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2081,16 +2081,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>0.08739597350358963</v>
+        <v>0.122301143904527</v>
       </c>
       <c r="C100" t="n">
-        <v>1892.790161132812</v>
+        <v>548.9586181640625</v>
       </c>
       <c r="D100" t="n">
-        <v>0.08848323300480843</v>
+        <v>0.07895049328605334</v>
       </c>
       <c r="E100" t="n">
-        <v>1892.791239420573</v>
+        <v>548.9152526855469</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2098,16 +2098,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>0.1169635901848475</v>
+        <v>0.06997254739205043</v>
       </c>
       <c r="C101" t="n">
-        <v>1853.109985351562</v>
+        <v>539.2312825520834</v>
       </c>
       <c r="D101" t="n">
-        <v>0.1017208192497492</v>
+        <v>0.1022224240005016</v>
       </c>
       <c r="E101" t="n">
-        <v>1853.094767252604</v>
+        <v>539.2635345458984</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2115,16 +2115,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0709989642103513</v>
+        <v>0.1779120216766993</v>
       </c>
       <c r="C102" t="n">
-        <v>1814.152058919271</v>
+        <v>529.8442993164062</v>
       </c>
       <c r="D102" t="n">
-        <v>0.1104921934505304</v>
+        <v>0.0808821888640523</v>
       </c>
       <c r="E102" t="n">
-        <v>1814.191538492839</v>
+        <v>529.7472686767578</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2132,16 +2132,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>0.2028791606426239</v>
+        <v>0.08358439058065414</v>
       </c>
       <c r="C103" t="n">
-        <v>1776.153523763021</v>
+        <v>520.4290974934896</v>
       </c>
       <c r="D103" t="n">
-        <v>0.1295828794439634</v>
+        <v>0.1009979546070099</v>
       </c>
       <c r="E103" t="n">
-        <v>1776.080261230469</v>
+        <v>520.4465179443359</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2149,16 +2149,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>0.04783150491615137</v>
+        <v>0.1331882576147715</v>
       </c>
       <c r="C104" t="n">
-        <v>1738.637776692708</v>
+        <v>511.3313395182292</v>
       </c>
       <c r="D104" t="n">
-        <v>0.1586253506441911</v>
+        <v>0.07797249282399814</v>
       </c>
       <c r="E104" t="n">
-        <v>1738.748596191406</v>
+        <v>511.2761205037435</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2166,16 +2166,16 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1857475439707438</v>
+        <v>0.1498166670401891</v>
       </c>
       <c r="C105" t="n">
-        <v>1702.177937825521</v>
+        <v>502.3699747721354</v>
       </c>
       <c r="D105" t="n">
-        <v>0.1141557432711124</v>
+        <v>0.07666125458975633</v>
       </c>
       <c r="E105" t="n">
-        <v>1702.106353759766</v>
+        <v>502.2968139648438</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2183,16 +2183,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>0.07312681029240291</v>
+        <v>0.1457585096359253</v>
       </c>
       <c r="C106" t="n">
-        <v>1666.209391276042</v>
+        <v>493.5561319986979</v>
       </c>
       <c r="D106" t="n">
-        <v>0.120384156703949</v>
+        <v>0.07543556857854128</v>
       </c>
       <c r="E106" t="n">
-        <v>1666.256622314453</v>
+        <v>493.4858093261719</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2200,16 +2200,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>0.1390732079744339</v>
+        <v>0.11618522554636</v>
       </c>
       <c r="C107" t="n">
-        <v>1631.143473307292</v>
+        <v>484.8805338541667</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0923709546526273</v>
+        <v>0.08222439512610435</v>
       </c>
       <c r="E107" t="n">
-        <v>1631.096771240234</v>
+        <v>484.846565246582</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2217,16 +2217,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>0.155641183257103</v>
+        <v>0.1714323659737905</v>
       </c>
       <c r="C108" t="n">
-        <v>1596.74169921875</v>
+        <v>476.4506123860677</v>
       </c>
       <c r="D108" t="n">
-        <v>0.09890699138243993</v>
+        <v>0.08419603481888771</v>
       </c>
       <c r="E108" t="n">
-        <v>1596.684946695964</v>
+        <v>476.3633702596028</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2234,16 +2234,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>0.1206001366178195</v>
+        <v>0.1504571139812469</v>
       </c>
       <c r="C109" t="n">
-        <v>1562.990600585938</v>
+        <v>468.1024780273438</v>
       </c>
       <c r="D109" t="n">
-        <v>0.1005194932222366</v>
+        <v>0.08316103431085746</v>
       </c>
       <c r="E109" t="n">
-        <v>1562.970489501953</v>
+        <v>468.0351893107097</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2251,16 +2251,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>0.1818722486495972</v>
+        <v>0.1112046763300896</v>
       </c>
       <c r="C110" t="n">
-        <v>1530.020345052083</v>
+        <v>459.891357421875</v>
       </c>
       <c r="D110" t="n">
-        <v>0.1157684090236823</v>
+        <v>0.08143524018426736</v>
       </c>
       <c r="E110" t="n">
-        <v>1529.954274495443</v>
+        <v>459.8615875244141</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2268,16 +2268,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1834902067979177</v>
+        <v>0.1652148465315501</v>
       </c>
       <c r="C111" t="n">
-        <v>1497.663208007812</v>
+        <v>451.9258015950521</v>
       </c>
       <c r="D111" t="n">
-        <v>0.118924044072628</v>
+        <v>0.08041600200037162</v>
       </c>
       <c r="E111" t="n">
-        <v>1497.598653157552</v>
+        <v>451.8410059611003</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2285,16 +2285,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>0.1933169613281886</v>
+        <v>0.09989808996518452</v>
       </c>
       <c r="C112" t="n">
-        <v>1465.979410807292</v>
+        <v>443.9908243815104</v>
       </c>
       <c r="D112" t="n">
-        <v>0.1104006407161554</v>
+        <v>0.07756664417684078</v>
       </c>
       <c r="E112" t="n">
-        <v>1465.896545410156</v>
+        <v>443.9684982299805</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2302,16 +2302,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>0.07433326790730159</v>
+        <v>0.1832445015509923</v>
       </c>
       <c r="C113" t="n">
-        <v>1434.81494140625</v>
+        <v>436.3513793945312</v>
       </c>
       <c r="D113" t="n">
-        <v>0.1116331915060679</v>
+        <v>0.09121851747234662</v>
       </c>
       <c r="E113" t="n">
-        <v>1434.852233886719</v>
+        <v>436.2593383789062</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2319,16 +2319,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>0.05441874576111635</v>
+        <v>0.206728125611941</v>
       </c>
       <c r="C114" t="n">
-        <v>1404.386189778646</v>
+        <v>428.7967936197917</v>
       </c>
       <c r="D114" t="n">
-        <v>0.1906769474347433</v>
+        <v>0.09105154871940613</v>
       </c>
       <c r="E114" t="n">
-        <v>1404.522471110026</v>
+        <v>428.6811065673828</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2336,16 +2336,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>0.07644832630952199</v>
+        <v>0.08787564188241959</v>
       </c>
       <c r="C115" t="n">
-        <v>1374.626993815104</v>
+        <v>421.2423604329427</v>
       </c>
       <c r="D115" t="n">
-        <v>0.1077465610578656</v>
+        <v>0.1053696026404699</v>
       </c>
       <c r="E115" t="n">
-        <v>1374.658284505208</v>
+        <v>421.2598520914714</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2353,16 +2353,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>0.1667788873116175</v>
+        <v>0.1768207252025604</v>
       </c>
       <c r="C116" t="n">
-        <v>1345.551310221354</v>
+        <v>414.0339660644531</v>
       </c>
       <c r="D116" t="n">
-        <v>0.1088194816062848</v>
+        <v>0.09123964918156464</v>
       </c>
       <c r="E116" t="n">
-        <v>1345.493336995443</v>
+        <v>413.9483871459961</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2370,16 +2370,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>0.115877091884613</v>
+        <v>0.1373692750930786</v>
       </c>
       <c r="C117" t="n">
-        <v>1316.935587565104</v>
+        <v>406.8352457682292</v>
       </c>
       <c r="D117" t="n">
-        <v>0.1211759597063065</v>
+        <v>0.07523831818252802</v>
       </c>
       <c r="E117" t="n">
-        <v>1316.940877278646</v>
+        <v>406.7731145222982</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2387,16 +2387,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>0.05477235093712807</v>
+        <v>0.1665809154510498</v>
       </c>
       <c r="C118" t="n">
-        <v>1288.900594075521</v>
+        <v>399.8406575520833</v>
       </c>
       <c r="D118" t="n">
-        <v>0.1857693480948607</v>
+        <v>0.09412580480178197</v>
       </c>
       <c r="E118" t="n">
-        <v>1289.031585693359</v>
+        <v>399.7681986490886</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2404,16 +2404,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>0.1232791269818942</v>
+        <v>0.1703725854555766</v>
       </c>
       <c r="C119" t="n">
-        <v>1261.576293945312</v>
+        <v>392.9529317220052</v>
       </c>
       <c r="D119" t="n">
-        <v>0.1120028228809436</v>
+        <v>0.08690818989028533</v>
       </c>
       <c r="E119" t="n">
-        <v>1261.565012613932</v>
+        <v>392.8694712320964</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2421,16 +2421,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>0.2558298657337825</v>
+        <v>0.1356522291898727</v>
       </c>
       <c r="C120" t="n">
-        <v>1234.8828125</v>
+        <v>386.1564636230469</v>
       </c>
       <c r="D120" t="n">
-        <v>0.1542742407570283</v>
+        <v>0.07414938199023406</v>
       </c>
       <c r="E120" t="n">
-        <v>1234.781229654948</v>
+        <v>386.094965616862</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2438,16 +2438,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>0.1489656170209249</v>
+        <v>0.2016034821669261</v>
       </c>
       <c r="C121" t="n">
-        <v>1208.506632486979</v>
+        <v>379.5873413085938</v>
       </c>
       <c r="D121" t="n">
-        <v>0.09371333755552769</v>
+        <v>0.09091115618745486</v>
       </c>
       <c r="E121" t="n">
-        <v>1208.451375325521</v>
+        <v>379.4766540527344</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2455,16 +2455,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>0.1016237065196037</v>
+        <v>0.1390611926714579</v>
       </c>
       <c r="C122" t="n">
-        <v>1182.736857096354</v>
+        <v>373.0145568847656</v>
       </c>
       <c r="D122" t="n">
-        <v>0.09453706753750642</v>
+        <v>0.07225380248079698</v>
       </c>
       <c r="E122" t="n">
-        <v>1182.729797363281</v>
+        <v>372.9477437337239</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2472,16 +2472,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>0.1300805608431498</v>
+        <v>0.120980312426885</v>
       </c>
       <c r="C123" t="n">
-        <v>1157.579060872396</v>
+        <v>366.6087544759114</v>
       </c>
       <c r="D123" t="n">
-        <v>0.2473322562873363</v>
+        <v>0.09359074135621388</v>
       </c>
       <c r="E123" t="n">
-        <v>1157.696309407552</v>
+        <v>366.5813496907552</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2489,16 +2489,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>0.1327240218718847</v>
+        <v>0.1786915510892868</v>
       </c>
       <c r="C124" t="n">
-        <v>1132.923014322917</v>
+        <v>360.3999837239583</v>
       </c>
       <c r="D124" t="n">
-        <v>0.08961441802481811</v>
+        <v>0.09453628957271576</v>
       </c>
       <c r="E124" t="n">
-        <v>1132.8798828125</v>
+        <v>360.3158213297526</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2506,16 +2506,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>0.1547693759202957</v>
+        <v>0.1404646039009094</v>
       </c>
       <c r="C125" t="n">
-        <v>1108.802856445312</v>
+        <v>354.2141621907552</v>
       </c>
       <c r="D125" t="n">
-        <v>0.1167037530491749</v>
+        <v>0.07380097483595212</v>
       </c>
       <c r="E125" t="n">
-        <v>1108.764770507812</v>
+        <v>354.1475016276042</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2523,16 +2523,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>0.07179369404911995</v>
+        <v>0.1131738275289536</v>
       </c>
       <c r="C126" t="n">
-        <v>1085.085611979167</v>
+        <v>348.1543680826823</v>
       </c>
       <c r="D126" t="n">
-        <v>0.1350315697491169</v>
+        <v>0.08315945540865262</v>
       </c>
       <c r="E126" t="n">
-        <v>1085.148813883464</v>
+        <v>348.1243642171224</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2540,16 +2540,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>0.2345504860083262</v>
+        <v>0.1287831962108612</v>
       </c>
       <c r="C127" t="n">
-        <v>1062.112589518229</v>
+        <v>342.2513122558594</v>
       </c>
       <c r="D127" t="n">
-        <v>0.1191250613580147</v>
+        <v>0.07880849360177915</v>
       </c>
       <c r="E127" t="n">
-        <v>1061.99717203776</v>
+        <v>342.2013320922852</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2557,16 +2557,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>0.183880145351092</v>
+        <v>0.09843739122152328</v>
       </c>
       <c r="C128" t="n">
-        <v>1039.411905924479</v>
+        <v>336.4143880208333</v>
       </c>
       <c r="D128" t="n">
-        <v>0.1195052675902843</v>
+        <v>0.07215638101721804</v>
       </c>
       <c r="E128" t="n">
-        <v>1039.347534179688</v>
+        <v>336.3881072998047</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2574,16 +2574,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>0.1397524128357569</v>
+        <v>0.1883232245842616</v>
       </c>
       <c r="C129" t="n">
-        <v>1017.195353190104</v>
+        <v>330.8095499674479</v>
       </c>
       <c r="D129" t="n">
-        <v>0.1002483554184437</v>
+        <v>0.09210318668435018</v>
       </c>
       <c r="E129" t="n">
-        <v>1017.155858357747</v>
+        <v>330.7133153279622</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2591,16 +2591,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>0.1021283641457558</v>
+        <v>0.1052218625942866</v>
       </c>
       <c r="C130" t="n">
-        <v>995.4533894856771</v>
+        <v>325.1381530761719</v>
       </c>
       <c r="D130" t="n">
-        <v>0.1126392272611459</v>
+        <v>0.08100509426246087</v>
       </c>
       <c r="E130" t="n">
-        <v>995.4638926188151</v>
+        <v>325.1139348347982</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2608,16 +2608,16 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>0.1567487170298894</v>
+        <v>0.2066573699315389</v>
       </c>
       <c r="C131" t="n">
-        <v>974.2638142903646</v>
+        <v>319.7574361165364</v>
       </c>
       <c r="D131" t="n">
-        <v>0.09457849152386189</v>
+        <v>0.1063926586260398</v>
       </c>
       <c r="E131" t="n">
-        <v>974.2016347249349</v>
+        <v>319.6571731567383</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2625,16 +2625,16 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>0.1450825283924738</v>
+        <v>0.1095896065235138</v>
       </c>
       <c r="C132" t="n">
-        <v>953.4549560546875</v>
+        <v>314.2825113932292</v>
       </c>
       <c r="D132" t="n">
-        <v>0.09625043037037055</v>
+        <v>0.08076668779055278</v>
       </c>
       <c r="E132" t="n">
-        <v>953.4061177571615</v>
+        <v>314.2536773681641</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2642,16 +2642,16 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>0.2545802692572276</v>
+        <v>0.1723278909921646</v>
       </c>
       <c r="C133" t="n">
-        <v>933.2085774739584</v>
+        <v>309.0691833496094</v>
       </c>
       <c r="D133" t="n">
-        <v>0.1689947495857874</v>
+        <v>0.09530521494646867</v>
       </c>
       <c r="E133" t="n">
-        <v>933.1229705810547</v>
+        <v>308.9921595255534</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2659,16 +2659,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>0.157506600022316</v>
+        <v>0.2633856932322184</v>
       </c>
       <c r="C134" t="n">
-        <v>913.1909586588541</v>
+        <v>303.9847920735677</v>
       </c>
       <c r="D134" t="n">
-        <v>0.08664251739780109</v>
+        <v>0.1362835299223661</v>
       </c>
       <c r="E134" t="n">
-        <v>913.1200968424479</v>
+        <v>303.8576914469401</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2676,16 +2676,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>0.07644249498844147</v>
+        <v>0.07302401959896088</v>
       </c>
       <c r="C135" t="n">
-        <v>893.6141153971354</v>
+        <v>298.7178344726562</v>
       </c>
       <c r="D135" t="n">
-        <v>0.1222475326309602</v>
+        <v>0.1058055168638627</v>
       </c>
       <c r="E135" t="n">
-        <v>893.6598968505859</v>
+        <v>298.7506103515625</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2693,16 +2693,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>0.0471910455574592</v>
+        <v>0.1301215762893359</v>
       </c>
       <c r="C136" t="n">
-        <v>874.5054524739584</v>
+        <v>293.7956136067708</v>
       </c>
       <c r="D136" t="n">
-        <v>0.2125945265094439</v>
+        <v>0.08511773993571599</v>
       </c>
       <c r="E136" t="n">
-        <v>874.6708424886068</v>
+        <v>293.750617980957</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2710,16 +2710,16 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>0.04998310407002767</v>
+        <v>0.1569420844316483</v>
       </c>
       <c r="C137" t="n">
-        <v>855.8380737304688</v>
+        <v>288.9369506835938</v>
       </c>
       <c r="D137" t="n">
-        <v>0.1688890506823858</v>
+        <v>0.07447410669798653</v>
       </c>
       <c r="E137" t="n">
-        <v>855.9569753011068</v>
+        <v>288.8544743855794</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2727,16 +2727,16 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0782614288230737</v>
+        <v>0.1077499464154243</v>
       </c>
       <c r="C138" t="n">
-        <v>837.5982869466146</v>
+        <v>284.0945027669271</v>
       </c>
       <c r="D138" t="n">
-        <v>0.127303550640742</v>
+        <v>0.07462130083392064</v>
       </c>
       <c r="E138" t="n">
-        <v>837.6473134358724</v>
+        <v>284.0613784790039</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2744,16 +2744,16 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>0.05287641783555349</v>
+        <v>0.06431586667895317</v>
       </c>
       <c r="C139" t="n">
-        <v>819.6975708007812</v>
+        <v>279.3496195475261</v>
       </c>
       <c r="D139" t="n">
-        <v>0.1617045067250729</v>
+        <v>0.1225436472644408</v>
       </c>
       <c r="E139" t="n">
-        <v>819.8064117431641</v>
+        <v>279.40784962972</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2761,16 +2761,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>0.1223241463303566</v>
+        <v>0.1704826603333155</v>
       </c>
       <c r="C140" t="n">
-        <v>802.2781982421875</v>
+        <v>274.8451639811198</v>
       </c>
       <c r="D140" t="n">
-        <v>0.08868746925145388</v>
+        <v>0.08687410224229097</v>
       </c>
       <c r="E140" t="n">
-        <v>802.2445678710938</v>
+        <v>274.7615559895833</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2778,16 +2778,16 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>0.1542063107093175</v>
+        <v>0.1371977627277374</v>
       </c>
       <c r="C141" t="n">
-        <v>785.1983439127604</v>
+        <v>270.2885335286458</v>
       </c>
       <c r="D141" t="n">
-        <v>0.09063124035795529</v>
+        <v>0.07699574033419292</v>
       </c>
       <c r="E141" t="n">
-        <v>785.1347605387369</v>
+        <v>270.2283325195312</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2795,16 +2795,16 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>0.1016561836004257</v>
+        <v>0.1035038903355598</v>
       </c>
       <c r="C142" t="n">
-        <v>768.4032999674479</v>
+        <v>265.8180440266927</v>
       </c>
       <c r="D142" t="n">
-        <v>0.1081393000980218</v>
+        <v>0.07670196642478307</v>
       </c>
       <c r="E142" t="n">
-        <v>768.4097646077474</v>
+        <v>265.7912419637044</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2812,16 +2812,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>0.1145099873344104</v>
+        <v>0.1235219190518061</v>
       </c>
       <c r="C143" t="n">
-        <v>752.0364379882812</v>
+        <v>261.4861043294271</v>
       </c>
       <c r="D143" t="n">
-        <v>0.1516986141602198</v>
+        <v>0.08346608436355989</v>
       </c>
       <c r="E143" t="n">
-        <v>752.0736338297526</v>
+        <v>261.446044921875</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2829,16 +2829,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>0.1258829832077026</v>
+        <v>0.1733017762502035</v>
       </c>
       <c r="C144" t="n">
-        <v>736.0254720052084</v>
+        <v>257.2680867513021</v>
       </c>
       <c r="D144" t="n">
-        <v>0.0947055375824372</v>
+        <v>0.08164312100658815</v>
       </c>
       <c r="E144" t="n">
-        <v>735.9943033854166</v>
+        <v>257.1764322916667</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2846,16 +2846,16 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>0.2182238151629766</v>
+        <v>0.1397647311290105</v>
       </c>
       <c r="C145" t="n">
-        <v>720.4415893554688</v>
+        <v>253.0472208658854</v>
       </c>
       <c r="D145" t="n">
-        <v>0.1381670963019133</v>
+        <v>0.07524839912851651</v>
       </c>
       <c r="E145" t="n">
-        <v>720.3615519205729</v>
+        <v>252.9827041625977</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2863,16 +2863,16 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>0.2728901604811351</v>
+        <v>0.1152370596925418</v>
       </c>
       <c r="C146" t="n">
-        <v>705.1613972981771</v>
+        <v>248.9158630371094</v>
       </c>
       <c r="D146" t="n">
-        <v>0.1594916849086682</v>
+        <v>0.08074769998590152</v>
       </c>
       <c r="E146" t="n">
-        <v>705.0479787190756</v>
+        <v>248.8813781738281</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2880,16 +2880,16 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>0.1064781000216802</v>
+        <v>0.09830067803462346</v>
       </c>
       <c r="C147" t="n">
-        <v>689.9932657877604</v>
+        <v>244.8708038330078</v>
       </c>
       <c r="D147" t="n">
-        <v>0.1156483696152766</v>
+        <v>0.08449022999654214</v>
       </c>
       <c r="E147" t="n">
-        <v>690.002431233724</v>
+        <v>244.856995900472</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2897,16 +2897,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>0.08110358069340388</v>
+        <v>0.1636780550082525</v>
       </c>
       <c r="C148" t="n">
-        <v>675.2928263346354</v>
+        <v>240.9857126871745</v>
       </c>
       <c r="D148" t="n">
-        <v>0.2147757820785046</v>
+        <v>0.07408642706771691</v>
       </c>
       <c r="E148" t="n">
-        <v>675.426503499349</v>
+        <v>240.8961232503255</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2914,16 +2914,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>0.1488597889741262</v>
+        <v>0.1550097068150838</v>
       </c>
       <c r="C149" t="n">
-        <v>661.0104777018229</v>
+        <v>237.1014048258463</v>
       </c>
       <c r="D149" t="n">
-        <v>0.1133458813031514</v>
+        <v>0.0694227806913356</v>
       </c>
       <c r="E149" t="n">
-        <v>660.9749857584635</v>
+        <v>237.0158195495605</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2931,16 +2931,16 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>0.1206651329994202</v>
+        <v>0.199750488003095</v>
       </c>
       <c r="C150" t="n">
-        <v>646.9478759765625</v>
+        <v>233.3445892333984</v>
       </c>
       <c r="D150" t="n">
-        <v>0.1097476119175553</v>
+        <v>0.09478654464085896</v>
       </c>
       <c r="E150" t="n">
-        <v>646.9369608561198</v>
+        <v>233.2396240234375</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2948,16 +2948,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>0.2523431430260341</v>
+        <v>0.09263905386130016</v>
       </c>
       <c r="C151" t="n">
-        <v>633.3502400716146</v>
+        <v>229.5099232991537</v>
       </c>
       <c r="D151" t="n">
-        <v>0.1341999197999636</v>
+        <v>0.1095707000543674</v>
       </c>
       <c r="E151" t="n">
-        <v>633.2320963541666</v>
+        <v>229.5268541971842</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2965,16 +2965,16 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>0.06712360307574272</v>
+        <v>0.229948103427887</v>
       </c>
       <c r="C152" t="n">
-        <v>619.7368570963541</v>
+        <v>225.9912821451823</v>
       </c>
       <c r="D152" t="n">
-        <v>0.11605622805655</v>
+        <v>0.1213862343380849</v>
       </c>
       <c r="E152" t="n">
-        <v>619.7858022054037</v>
+        <v>225.8827234903971</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -2982,16 +2982,16 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>0.1302260532975197</v>
+        <v>0.1370399494965871</v>
       </c>
       <c r="C153" t="n">
-        <v>606.6691080729166</v>
+        <v>222.3132781982422</v>
       </c>
       <c r="D153" t="n">
-        <v>0.09645397153993447</v>
+        <v>0.07983795118828614</v>
       </c>
       <c r="E153" t="n">
-        <v>606.6353302001953</v>
+        <v>222.2560755411784</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -2999,16 +2999,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>0.1851309190193812</v>
+        <v>0.1292120367288589</v>
       </c>
       <c r="C154" t="n">
-        <v>593.8818562825521</v>
+        <v>218.7882232666016</v>
       </c>
       <c r="D154" t="n">
-        <v>0.1142466987172763</v>
+        <v>0.07335600381096204</v>
       </c>
       <c r="E154" t="n">
-        <v>593.8109588623047</v>
+        <v>218.7323659261068</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3016,16 +3016,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>0.1026072750488917</v>
+        <v>0.1864394992589951</v>
       </c>
       <c r="C155" t="n">
-        <v>581.2398885091146</v>
+        <v>215.3955281575521</v>
       </c>
       <c r="D155" t="n">
-        <v>0.09091866264740626</v>
+        <v>0.09421561285853386</v>
       </c>
       <c r="E155" t="n">
-        <v>581.2281901041666</v>
+        <v>215.3033078511556</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3033,16 +3033,16 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>0.187805712223053</v>
+        <v>0.1508125166098277</v>
       </c>
       <c r="C156" t="n">
-        <v>569.0436401367188</v>
+        <v>211.9762878417969</v>
       </c>
       <c r="D156" t="n">
-        <v>0.1077004428952932</v>
+        <v>0.07600575840721528</v>
       </c>
       <c r="E156" t="n">
-        <v>568.9635365804037</v>
+        <v>211.9014739990234</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3050,16 +3050,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>0.09876785178979237</v>
+        <v>0.1919012169043223</v>
       </c>
       <c r="C157" t="n">
-        <v>556.9469807942709</v>
+        <v>208.698964436849</v>
       </c>
       <c r="D157" t="n">
-        <v>0.1239137121786674</v>
+        <v>0.0969529723127683</v>
       </c>
       <c r="E157" t="n">
-        <v>556.9721120198568</v>
+        <v>208.6040178934733</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3067,16 +3067,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>0.2415824284156164</v>
+        <v>0.09608766188224156</v>
       </c>
       <c r="C158" t="n">
-        <v>545.3489990234375</v>
+        <v>205.3471272786458</v>
       </c>
       <c r="D158" t="n">
-        <v>0.1415723512570063</v>
+        <v>0.08984260509411494</v>
       </c>
       <c r="E158" t="n">
-        <v>545.2489980061849</v>
+        <v>205.340882619222</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3084,16 +3084,16 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>0.1808272351821264</v>
+        <v>0.09227959314982097</v>
       </c>
       <c r="C159" t="n">
-        <v>533.8105265299479</v>
+        <v>202.1505991617838</v>
       </c>
       <c r="D159" t="n">
-        <v>0.1023723265777032</v>
+        <v>0.09413584570089976</v>
       </c>
       <c r="E159" t="n">
-        <v>533.7320709228516</v>
+        <v>202.1524556477865</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3101,16 +3101,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>0.1500050326188405</v>
+        <v>0.1675909360249837</v>
       </c>
       <c r="C160" t="n">
-        <v>522.5568033854166</v>
+        <v>199.0943654378255</v>
       </c>
       <c r="D160" t="n">
-        <v>0.09528052310148875</v>
+        <v>0.08282660506665707</v>
       </c>
       <c r="E160" t="n">
-        <v>522.5020802815756</v>
+        <v>199.0096015930176</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3118,16 +3118,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="n">
-        <v>0.08725658059120178</v>
+        <v>0.143595889210701</v>
       </c>
       <c r="C161" t="n">
-        <v>511.5216776529948</v>
+        <v>195.9988199869792</v>
       </c>
       <c r="D161" t="n">
-        <v>0.1286098553488652</v>
+        <v>0.07545082022746404</v>
       </c>
       <c r="E161" t="n">
-        <v>511.5630264282227</v>
+        <v>195.9306755065918</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3135,16 +3135,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>0.1229759405056636</v>
+        <v>0.07995066543420155</v>
       </c>
       <c r="C162" t="n">
-        <v>500.8309224446614</v>
+        <v>192.9229075113932</v>
       </c>
       <c r="D162" t="n">
-        <v>0.1082179391135772</v>
+        <v>0.1027406556531787</v>
       </c>
       <c r="E162" t="n">
-        <v>500.8161646525065</v>
+        <v>192.9456965128581</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3152,16 +3152,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="n">
-        <v>0.1556929995616277</v>
+        <v>0.2412592569986979</v>
       </c>
       <c r="C163" t="n">
-        <v>490.3791402180989</v>
+        <v>190.1311492919922</v>
       </c>
       <c r="D163" t="n">
-        <v>0.1103088073432446</v>
+        <v>0.1296473977466424</v>
       </c>
       <c r="E163" t="n">
-        <v>490.3337605794271</v>
+        <v>190.019541422526</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3169,16 +3169,16 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>0.252272367477417</v>
+        <v>0.1614645024140676</v>
       </c>
       <c r="C164" t="n">
-        <v>480.2253519694011</v>
+        <v>187.1541392008463</v>
       </c>
       <c r="D164" t="n">
-        <v>0.1324863297243913</v>
+        <v>0.08272753655910492</v>
       </c>
       <c r="E164" t="n">
-        <v>480.1055704752604</v>
+        <v>187.0754025777181</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3186,16 +3186,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>0.08978529522816341</v>
+        <v>0.1581025570631027</v>
       </c>
       <c r="C165" t="n">
-        <v>470.0437316894531</v>
+        <v>184.3086954752604</v>
       </c>
       <c r="D165" t="n">
-        <v>0.1275080249955257</v>
+        <v>0.07564898611356814</v>
       </c>
       <c r="E165" t="n">
-        <v>470.0814590454102</v>
+        <v>184.2262382507324</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3203,16 +3203,16 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>0.1249570498863856</v>
+        <v>0.1334987059235573</v>
       </c>
       <c r="C166" t="n">
-        <v>460.2838236490886</v>
+        <v>181.4964752197266</v>
       </c>
       <c r="D166" t="n">
-        <v>0.1098131015896797</v>
+        <v>0.07288931682705879</v>
       </c>
       <c r="E166" t="n">
-        <v>460.26868947347</v>
+        <v>181.4358647664388</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3220,16 +3220,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>0.04236918315291405</v>
+        <v>0.09593248864014943</v>
       </c>
       <c r="C167" t="n">
-        <v>450.6272888183594</v>
+        <v>178.724609375</v>
       </c>
       <c r="D167" t="n">
-        <v>0.1859595999121666</v>
+        <v>0.08899686547617118</v>
       </c>
       <c r="E167" t="n">
-        <v>450.770886739095</v>
+        <v>178.7176742553711</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3237,16 +3237,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>0.04082452567915121</v>
+        <v>0.06964383274316788</v>
       </c>
       <c r="C168" t="n">
-        <v>441.2689819335938</v>
+        <v>176.0162251790365</v>
       </c>
       <c r="D168" t="n">
-        <v>0.1426444460327426</v>
+        <v>0.1144991454978784</v>
       </c>
       <c r="E168" t="n">
-        <v>441.3707936604818</v>
+        <v>176.0610783894857</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3254,16 +3254,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="n">
-        <v>0.08480847626924515</v>
+        <v>0.1049122512340546</v>
       </c>
       <c r="C169" t="n">
-        <v>432.1676127115886</v>
+        <v>173.4220937093099</v>
       </c>
       <c r="D169" t="n">
-        <v>0.1184721235185862</v>
+        <v>0.07964807283133268</v>
       </c>
       <c r="E169" t="n">
-        <v>432.2012685139974</v>
+        <v>173.3968327840169</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3271,16 +3271,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="n">
-        <v>0.1009799142678579</v>
+        <v>0.1341735099752744</v>
       </c>
       <c r="C170" t="n">
-        <v>423.2441101074219</v>
+        <v>170.8719177246094</v>
       </c>
       <c r="D170" t="n">
-        <v>0.102406678100427</v>
+        <v>0.08109181312223275</v>
       </c>
       <c r="E170" t="n">
-        <v>423.2455342610677</v>
+        <v>170.8188387552897</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3288,16 +3288,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>0.1385439808170001</v>
+        <v>0.1760594646135966</v>
       </c>
       <c r="C171" t="n">
-        <v>414.5448303222656</v>
+        <v>168.3843383789062</v>
       </c>
       <c r="D171" t="n">
-        <v>0.1175650643805663</v>
+        <v>0.08731283992528915</v>
       </c>
       <c r="E171" t="n">
-        <v>414.5238469441732</v>
+        <v>168.2955945332845</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3305,16 +3305,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>0.150762215256691</v>
+        <v>0.1534912784894308</v>
       </c>
       <c r="C172" t="n">
-        <v>406.0193277994792</v>
+        <v>165.8806355794271</v>
       </c>
       <c r="D172" t="n">
-        <v>0.0930371309320132</v>
+        <v>0.07554263823355238</v>
       </c>
       <c r="E172" t="n">
-        <v>405.9615987141927</v>
+        <v>165.8026847839355</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3322,16 +3322,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>0.2282936871051788</v>
+        <v>0.07205440104007721</v>
       </c>
       <c r="C173" t="n">
-        <v>397.7542114257812</v>
+        <v>163.3653310139974</v>
       </c>
       <c r="D173" t="n">
-        <v>0.1345990194628636</v>
+        <v>0.0984050997843345</v>
       </c>
       <c r="E173" t="n">
-        <v>397.66050974528</v>
+        <v>163.3916765848795</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3339,16 +3339,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>0.09295748670895894</v>
+        <v>0.1587192962567011</v>
       </c>
       <c r="C174" t="n">
-        <v>389.465576171875</v>
+        <v>161.0647989908854</v>
       </c>
       <c r="D174" t="n">
-        <v>0.1099834280709426</v>
+        <v>0.08642117244501908</v>
       </c>
       <c r="E174" t="n">
-        <v>389.4825973510742</v>
+        <v>160.9925028483073</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3356,16 +3356,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>0.1204987491170565</v>
+        <v>0.0673389695584774</v>
       </c>
       <c r="C175" t="n">
-        <v>381.5253092447917</v>
+        <v>158.6315358479818</v>
       </c>
       <c r="D175" t="n">
-        <v>0.09640278900042176</v>
+        <v>0.1090255926052729</v>
       </c>
       <c r="E175" t="n">
-        <v>381.501220703125</v>
+        <v>158.6732177734375</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3373,16 +3373,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>0.04725184105336666</v>
+        <v>0.1526647309462229</v>
       </c>
       <c r="C176" t="n">
-        <v>373.6658223470052</v>
+        <v>156.4210815429688</v>
       </c>
       <c r="D176" t="n">
-        <v>0.1375905517488718</v>
+        <v>0.07705928462867935</v>
       </c>
       <c r="E176" t="n">
-        <v>373.7561518351237</v>
+        <v>156.3454742431641</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3390,16 +3390,16 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>0.1645524154106776</v>
+        <v>0.150882954398791</v>
       </c>
       <c r="C177" t="n">
-        <v>366.1754760742188</v>
+        <v>154.1671803792318</v>
       </c>
       <c r="D177" t="n">
-        <v>0.09921429306268692</v>
+        <v>0.07645177577311794</v>
       </c>
       <c r="E177" t="n">
-        <v>366.1101379394531</v>
+        <v>154.0927492777506</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3407,16 +3407,16 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>0.1192693437139193</v>
+        <v>0.1502429793278376</v>
       </c>
       <c r="C178" t="n">
-        <v>358.6962076822917</v>
+        <v>151.9576263427734</v>
       </c>
       <c r="D178" t="n">
-        <v>0.112601421152552</v>
+        <v>0.075649068535616</v>
       </c>
       <c r="E178" t="n">
-        <v>358.6895370483398</v>
+        <v>151.8830388387044</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3424,16 +3424,16 @@
         <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>0.07587424417336781</v>
+        <v>0.1093859896063805</v>
       </c>
       <c r="C179" t="n">
-        <v>351.3893229166667</v>
+        <v>149.7496744791667</v>
       </c>
       <c r="D179" t="n">
-        <v>0.2329673903683821</v>
+        <v>0.07929029626150925</v>
       </c>
       <c r="E179" t="n">
-        <v>351.5464172363281</v>
+        <v>149.7195790608724</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3441,16 +3441,16 @@
         <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>0.2795137166976929</v>
+        <v>0.05634652947386106</v>
       </c>
       <c r="C180" t="n">
-        <v>344.4996948242188</v>
+        <v>147.5702362060547</v>
       </c>
       <c r="D180" t="n">
-        <v>0.1761754763623079</v>
+        <v>0.1415783253808816</v>
       </c>
       <c r="E180" t="n">
-        <v>344.3963623046875</v>
+        <v>147.655465443929</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3458,16 +3458,16 @@
         <v>180</v>
       </c>
       <c r="B181" t="n">
-        <v>0.110785685479641</v>
+        <v>0.1912927180528641</v>
       </c>
       <c r="C181" t="n">
-        <v>337.3997192382812</v>
+        <v>145.6214396158854</v>
       </c>
       <c r="D181" t="n">
-        <v>0.1003115754574537</v>
+        <v>0.09221205270538728</v>
       </c>
       <c r="E181" t="n">
-        <v>337.3892517089844</v>
+        <v>145.5223566691081</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3475,16 +3475,16 @@
         <v>181</v>
       </c>
       <c r="B182" t="n">
-        <v>0.2274377296368281</v>
+        <v>0.1117386519908905</v>
       </c>
       <c r="C182" t="n">
-        <v>330.7428181966146</v>
+        <v>143.4974110921224</v>
       </c>
       <c r="D182" t="n">
-        <v>0.1211924174179633</v>
+        <v>0.08573443349450827</v>
       </c>
       <c r="E182" t="n">
-        <v>330.6365737915039</v>
+        <v>143.4713999430338</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3492,16 +3492,16 @@
         <v>182</v>
       </c>
       <c r="B183" t="n">
-        <v>0.1038381506999334</v>
+        <v>0.09760445108016332</v>
       </c>
       <c r="C183" t="n">
-        <v>324.0011393229167</v>
+        <v>141.4779713948568</v>
       </c>
       <c r="D183" t="n">
-        <v>0.1202086511378487</v>
+        <v>0.08626119311278065</v>
       </c>
       <c r="E183" t="n">
-        <v>324.0175170898438</v>
+        <v>141.4666328430176</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3509,16 +3509,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>0.1810523668924967</v>
+        <v>0.1745257178942362</v>
       </c>
       <c r="C184" t="n">
-        <v>317.6139729817708</v>
+        <v>139.5875956217448</v>
       </c>
       <c r="D184" t="n">
-        <v>0.109574847544233</v>
+        <v>0.08233738644048572</v>
       </c>
       <c r="E184" t="n">
-        <v>317.5425008138021</v>
+        <v>139.4954096476237</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3526,16 +3526,16 @@
         <v>184</v>
       </c>
       <c r="B185" t="n">
-        <v>0.0889890119433403</v>
+        <v>0.07851435740788777</v>
       </c>
       <c r="C185" t="n">
-        <v>311.2069396972656</v>
+        <v>137.5612131754557</v>
       </c>
       <c r="D185" t="n">
-        <v>0.09730055431524913</v>
+        <v>0.09507304926713307</v>
       </c>
       <c r="E185" t="n">
-        <v>311.2152481079102</v>
+        <v>137.5777702331543</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3543,16 +3543,16 @@
         <v>185</v>
       </c>
       <c r="B186" t="n">
-        <v>0.2385542243719101</v>
+        <v>0.1255648682514826</v>
       </c>
       <c r="C186" t="n">
-        <v>305.1880900065104</v>
+        <v>135.7151641845703</v>
       </c>
       <c r="D186" t="n">
-        <v>0.1477994521458944</v>
+        <v>0.07893268732974927</v>
       </c>
       <c r="E186" t="n">
-        <v>305.0973230997722</v>
+        <v>135.6685320536295</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3560,16 +3560,16 @@
         <v>186</v>
       </c>
       <c r="B187" t="n">
-        <v>0.04705965891480446</v>
+        <v>0.193848450978597</v>
       </c>
       <c r="C187" t="n">
-        <v>298.9713439941406</v>
+        <v>133.9266662597656</v>
       </c>
       <c r="D187" t="n">
-        <v>0.1603017387290796</v>
+        <v>0.08779369418819745</v>
       </c>
       <c r="E187" t="n">
-        <v>299.084582010905</v>
+        <v>133.8206100463867</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3577,16 +3577,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>0.05941954255104065</v>
+        <v>0.09313540905714035</v>
       </c>
       <c r="C188" t="n">
-        <v>293.1000467936198</v>
+        <v>132.0039927164713</v>
       </c>
       <c r="D188" t="n">
-        <v>0.1968172571311394</v>
+        <v>0.08673482419302066</v>
       </c>
       <c r="E188" t="n">
-        <v>293.237434387207</v>
+        <v>131.9975954691569</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3594,16 +3594,16 @@
         <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>0.2835864027341207</v>
+        <v>0.1905446797609329</v>
       </c>
       <c r="C189" t="n">
-        <v>287.5777180989583</v>
+        <v>130.3141377766927</v>
       </c>
       <c r="D189" t="n">
-        <v>0.1647034585475922</v>
+        <v>0.09582340220610301</v>
       </c>
       <c r="E189" t="n">
-        <v>287.4588317871094</v>
+        <v>130.219420115153</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3611,16 +3611,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>0.06927876174449921</v>
+        <v>0.0845349704225858</v>
       </c>
       <c r="C190" t="n">
-        <v>281.7501322428386</v>
+        <v>128.4544423421224</v>
       </c>
       <c r="D190" t="n">
-        <v>0.1149806256095568</v>
+        <v>0.09293075340489547</v>
       </c>
       <c r="E190" t="n">
-        <v>281.7958323160807</v>
+        <v>128.462833404541</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3628,16 +3628,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="n">
-        <v>0.1597474714120229</v>
+        <v>0.06674742574493091</v>
       </c>
       <c r="C191" t="n">
-        <v>276.3567097981771</v>
+        <v>126.7164154052734</v>
       </c>
       <c r="D191" t="n">
-        <v>0.09464511399467786</v>
+        <v>0.1116461598624786</v>
       </c>
       <c r="E191" t="n">
-        <v>276.2916030883789</v>
+        <v>126.7613124847412</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3645,16 +3645,16 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>0.1573596050341924</v>
+        <v>0.1563060283660889</v>
       </c>
       <c r="C192" t="n">
-        <v>270.9986063639323</v>
+        <v>125.1194025675456</v>
       </c>
       <c r="D192" t="n">
-        <v>0.1169331601510445</v>
+        <v>0.07603096247961123</v>
       </c>
       <c r="E192" t="n">
-        <v>270.9581807454427</v>
+        <v>125.0391267140706</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3662,16 +3662,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>0.2206405152877172</v>
+        <v>0.08571294198433559</v>
       </c>
       <c r="C193" t="n">
-        <v>265.8315938313802</v>
+        <v>123.3935216267904</v>
       </c>
       <c r="D193" t="n">
-        <v>0.1285332351302107</v>
+        <v>0.09090328899522622</v>
       </c>
       <c r="E193" t="n">
-        <v>265.7394917805989</v>
+        <v>123.3987115224202</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3679,16 +3679,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>0.2877807219823201</v>
+        <v>0.1653481125831604</v>
       </c>
       <c r="C194" t="n">
-        <v>260.7915954589844</v>
+        <v>121.8489939371745</v>
       </c>
       <c r="D194" t="n">
-        <v>0.1788649509350459</v>
+        <v>0.07951076390842597</v>
       </c>
       <c r="E194" t="n">
-        <v>260.6826807657878</v>
+        <v>121.7631581624349</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3696,16 +3696,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>0.05890974154074987</v>
+        <v>0.07692758738994598</v>
       </c>
       <c r="C195" t="n">
-        <v>255.573486328125</v>
+        <v>120.1663818359375</v>
       </c>
       <c r="D195" t="n">
-        <v>0.13888803559045</v>
+        <v>0.09609266929328442</v>
       </c>
       <c r="E195" t="n">
-        <v>255.6534601847331</v>
+        <v>120.1855475107829</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3713,16 +3713,16 @@
         <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>0.1506290932496389</v>
+        <v>0.1932999442021052</v>
       </c>
       <c r="C196" t="n">
-        <v>250.7935434977213</v>
+        <v>118.719482421875</v>
       </c>
       <c r="D196" t="n">
-        <v>0.1067718882113695</v>
+        <v>0.094078597612679</v>
       </c>
       <c r="E196" t="n">
-        <v>250.7496859232585</v>
+        <v>118.620262781779</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3730,16 +3730,16 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>0.167967086037</v>
+        <v>0.1220088501771291</v>
       </c>
       <c r="C197" t="n">
-        <v>246.0523071289062</v>
+        <v>117.1133015950521</v>
       </c>
       <c r="D197" t="n">
-        <v>0.1103932106246551</v>
+        <v>0.08466403434673946</v>
       </c>
       <c r="E197" t="n">
-        <v>245.9947306315104</v>
+        <v>117.0759582519531</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3747,16 +3747,16 @@
         <v>197</v>
       </c>
       <c r="B198" t="n">
-        <v>0.1407862404982249</v>
+        <v>0.09135269622008006</v>
       </c>
       <c r="C198" t="n">
-        <v>241.3761698404948</v>
+        <v>115.5769017537435</v>
       </c>
       <c r="D198" t="n">
-        <v>0.09907292015850544</v>
+        <v>0.08865583998461564</v>
       </c>
       <c r="E198" t="n">
-        <v>241.3344535827637</v>
+        <v>115.5742060343425</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3764,16 +3764,16 @@
         <v>198</v>
       </c>
       <c r="B199" t="n">
-        <v>0.154087429245313</v>
+        <v>0.1191056917111079</v>
       </c>
       <c r="C199" t="n">
-        <v>236.848866780599</v>
+        <v>114.1270243326823</v>
       </c>
       <c r="D199" t="n">
-        <v>0.09518790493408839</v>
+        <v>0.08145523071289062</v>
       </c>
       <c r="E199" t="n">
-        <v>236.789966583252</v>
+        <v>114.0893739064534</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3781,16 +3781,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>0.1769997874895732</v>
+        <v>0.09988058606783549</v>
       </c>
       <c r="C200" t="n">
-        <v>232.4379119873047</v>
+        <v>112.6576131184896</v>
       </c>
       <c r="D200" t="n">
-        <v>0.1097407694905996</v>
+        <v>0.08792303937176864</v>
       </c>
       <c r="E200" t="n">
-        <v>232.3706512451172</v>
+        <v>112.6456546783447</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3798,16 +3798,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="n">
-        <v>0.242524062593778</v>
+        <v>0.1509126822153727</v>
       </c>
       <c r="C201" t="n">
-        <v>228.1736195882162</v>
+        <v>111.2858683268229</v>
       </c>
       <c r="D201" t="n">
-        <v>0.1423332542181015</v>
+        <v>0.07888905238360167</v>
       </c>
       <c r="E201" t="n">
-        <v>228.073424021403</v>
+        <v>111.2138436635335</v>
       </c>
     </row>
   </sheetData>
@@ -3842,7 +3842,7 @@
         <v>0.400601724137931</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6968107223510742</v>
+        <v>0.4608834683895111</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3850,7 +3850,7 @@
         <v>0.4023327586206896</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6016316413879395</v>
+        <v>0.6196399331092834</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3858,7 +3858,7 @@
         <v>0.4026821839080459</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7866865396499634</v>
+        <v>0.594085156917572</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3866,7 +3866,7 @@
         <v>0.4000988505747126</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8086147308349609</v>
+        <v>0.5929413437843323</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3874,7 +3874,7 @@
         <v>0.3962137931034482</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6166121363639832</v>
+        <v>0.6278558969497681</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3882,7 +3882,7 @@
         <v>0.392055172413793</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6406716108322144</v>
+        <v>0.5988269448280334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3890,7 +3890,7 @@
         <v>0.3887643678160919</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6615086793899536</v>
+        <v>0.5774360299110413</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3898,7 +3898,7 @@
         <v>0.3856844827586206</v>
       </c>
       <c r="B9" t="n">
-        <v>0.598468542098999</v>
+        <v>0.4813587069511414</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3906,7 +3906,7 @@
         <v>0.3853890804597701</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5658607482910156</v>
+        <v>0.361097514629364</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3914,7 +3914,7 @@
         <v>0.3845540229885057</v>
       </c>
       <c r="B11" t="n">
-        <v>0.659136176109314</v>
+        <v>0.3449170887470245</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3922,7 +3922,7 @@
         <v>0.385133908045977</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7458145618438721</v>
+        <v>0.4316798746585846</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3930,7 +3930,7 @@
         <v>0.3863442528735632</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6354959011077881</v>
+        <v>0.552051842212677</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3938,7 +3938,7 @@
         <v>0.3888724137931034</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7251092195510864</v>
+        <v>0.4727047085762024</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3946,7 +3946,7 @@
         <v>0.3909229885057471</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6134165525436401</v>
+        <v>0.5285335779190063</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3954,7 +3954,7 @@
         <v>0.3922413793103448</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5950809121131897</v>
+        <v>0.5215295553207397</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3962,7 +3962,7 @@
         <v>0.3928637931034483</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6755018830299377</v>
+        <v>0.4387888312339783</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3970,7 +3970,7 @@
         <v>0.3938977011494253</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5463643074035645</v>
+        <v>0.655376136302948</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3978,7 +3978,7 @@
         <v>0.3975264367816091</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7356016039848328</v>
+        <v>0.5307630896568298</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3986,7 +3986,7 @@
         <v>0.4021775862068964</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6487781405448914</v>
+        <v>0.5827147364616394</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3994,7 +3994,7 @@
         <v>0.4074086206896551</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5829207301139832</v>
+        <v>0.7292733192443848</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4002,7 +4002,7 @@
         <v>0.4132494252873562</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7704740166664124</v>
+        <v>0.6003857851028442</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4010,7 +4010,7 @@
         <v>0.421101724137931</v>
       </c>
       <c r="B23" t="n">
-        <v>0.7031999826431274</v>
+        <v>0.5479801893234253</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4018,7 +4018,7 @@
         <v>0.431155172413793</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6921477317810059</v>
+        <v>0.488090842962265</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4026,7 +4026,7 @@
         <v>0.4405321839080459</v>
       </c>
       <c r="B25" t="n">
-        <v>0.7101521492004395</v>
+        <v>0.6143912076950073</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4034,7 +4034,7 @@
         <v>0.4462522988505747</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8119882941246033</v>
+        <v>0.6100545525550842</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4042,7 +4042,7 @@
         <v>0.4488499999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>0.7951797246932983</v>
+        <v>0.6358955502510071</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4050,7 +4050,7 @@
         <v>0.4513022988505747</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6312346458435059</v>
+        <v>0.6872650980949402</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4058,7 +4058,7 @@
         <v>0.4552436781609195</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6773067712783813</v>
+        <v>0.6779876947402954</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4066,7 +4066,7 @@
         <v>0.4601977011494253</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6241599321365356</v>
+        <v>0.5852192044258118</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4074,7 +4074,7 @@
         <v>0.4652063218390805</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7360363602638245</v>
+        <v>0.6139077544212341</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4082,7 +4082,7 @@
         <v>0.4712402298850575</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7655391097068787</v>
+        <v>0.6284201741218567</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4090,7 +4090,7 @@
         <v>0.477216091954023</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6778237819671631</v>
+        <v>0.5337145328521729</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4098,7 +4098,7 @@
         <v>0.4865511494252874</v>
       </c>
       <c r="B34" t="n">
-        <v>0.7429028749465942</v>
+        <v>0.6238555312156677</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4106,7 +4106,7 @@
         <v>0.4972798850574713</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5242926478385925</v>
+        <v>0.4990277886390686</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4114,7 +4114,7 @@
         <v>0.506283908045977</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7039355039596558</v>
+        <v>0.5078858137130737</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4122,7 +4122,7 @@
         <v>0.5118350574712643</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5800159573554993</v>
+        <v>0.5126024484634399</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4130,7 +4130,7 @@
         <v>0.5134890804597702</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6442629098892212</v>
+        <v>0.508587121963501</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4138,7 +4138,7 @@
         <v>0.5095408045977012</v>
       </c>
       <c r="B39" t="n">
-        <v>0.8034963607788086</v>
+        <v>0.59962397813797</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4146,7 +4146,7 @@
         <v>0.5064522988505746</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5934547781944275</v>
+        <v>0.5524291396141052</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4154,7 +4154,7 @@
         <v>0.502235632183908</v>
       </c>
       <c r="B41" t="n">
-        <v>0.643797755241394</v>
+        <v>0.4955374002456665</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4162,7 +4162,7 @@
         <v>0.4992005747126437</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7888354063034058</v>
+        <v>0.6305985450744629</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4170,7 +4170,7 @@
         <v>0.494882183908046</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5052063465118408</v>
+        <v>0.5774668455123901</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4178,7 +4178,7 @@
         <v>0.4912431034482759</v>
       </c>
       <c r="B44" t="n">
-        <v>0.710183322429657</v>
+        <v>0.5924832820892334</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4186,7 +4186,7 @@
         <v>0.4904281609195403</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6408098936080933</v>
+        <v>0.550424337387085</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4194,7 +4194,7 @@
         <v>0.4912706896551725</v>
       </c>
       <c r="B46" t="n">
-        <v>0.7832072973251343</v>
+        <v>0.6958881020545959</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -4202,7 +4202,7 @@
         <v>0.4906672413793104</v>
       </c>
       <c r="B47" t="n">
-        <v>0.7552847862243652</v>
+        <v>0.6466367244720459</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -4210,7 +4210,7 @@
         <v>0.4868977011494254</v>
       </c>
       <c r="B48" t="n">
-        <v>0.7065380215644836</v>
+        <v>0.687508225440979</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -4218,7 +4218,7 @@
         <v>0.4814660919540231</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7870696187019348</v>
+        <v>0.5619152784347534</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -4226,7 +4226,7 @@
         <v>0.4756500000000002</v>
       </c>
       <c r="B50" t="n">
-        <v>0.6316292881965637</v>
+        <v>0.691219687461853</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -4234,7 +4234,7 @@
         <v>0.4699160919540232</v>
       </c>
       <c r="B51" t="n">
-        <v>0.8230204582214355</v>
+        <v>0.6520554423332214</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -4242,7 +4242,7 @@
         <v>0.4642586206896553</v>
       </c>
       <c r="B52" t="n">
-        <v>0.69992595911026</v>
+        <v>0.6537901759147644</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -4250,7 +4250,7 @@
         <v>0.4575275862068967</v>
       </c>
       <c r="B53" t="n">
-        <v>0.9168879389762878</v>
+        <v>0.709740936756134</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -4258,7 +4258,7 @@
         <v>0.4543488505747127</v>
       </c>
       <c r="B54" t="n">
-        <v>0.7525901198387146</v>
+        <v>0.7192409634590149</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -4266,7 +4266,7 @@
         <v>0.4534798850574713</v>
       </c>
       <c r="B55" t="n">
-        <v>0.6967302560806274</v>
+        <v>0.7551361918449402</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -4274,7 +4274,7 @@
         <v>0.4546459770114943</v>
       </c>
       <c r="B56" t="n">
-        <v>0.7996883392333984</v>
+        <v>0.8067950010299683</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -4282,7 +4282,7 @@
         <v>0.4552494252873564</v>
       </c>
       <c r="B57" t="n">
-        <v>0.7365930080413818</v>
+        <v>0.6649766564369202</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -4290,7 +4290,7 @@
         <v>0.4545977011494254</v>
       </c>
       <c r="B58" t="n">
-        <v>0.8067272901535034</v>
+        <v>0.5726516246795654</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -4298,7 +4298,7 @@
         <v>0.4516379310344829</v>
       </c>
       <c r="B59" t="n">
-        <v>0.6919346451759338</v>
+        <v>0.726422905921936</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -4306,7 +4306,7 @@
         <v>0.4467758620689656</v>
       </c>
       <c r="B60" t="n">
-        <v>0.7816877365112305</v>
+        <v>0.5723728537559509</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -4314,7 +4314,7 @@
         <v>0.4434431034482759</v>
       </c>
       <c r="B61" t="n">
-        <v>0.6204007863998413</v>
+        <v>0.5800672769546509</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -4322,7 +4322,7 @@
         <v>0.4404488505747127</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6898552179336548</v>
+        <v>0.66729736328125</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -4330,7 +4330,7 @@
         <v>0.4362718390804597</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6909785270690918</v>
+        <v>0.8195292353630066</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -4338,7 +4338,7 @@
         <v>0.4305764367816092</v>
       </c>
       <c r="B64" t="n">
-        <v>0.8867867588996887</v>
+        <v>0.684588611125946</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -4346,7 +4346,7 @@
         <v>0.4247580459770114</v>
       </c>
       <c r="B65" t="n">
-        <v>0.7400791049003601</v>
+        <v>0.6880465149879456</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -4354,7 +4354,7 @@
         <v>0.4195925287356321</v>
       </c>
       <c r="B66" t="n">
-        <v>0.753553569316864</v>
+        <v>0.7027377486228943</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -4362,7 +4362,7 @@
         <v>0.4145034482758621</v>
       </c>
       <c r="B67" t="n">
-        <v>0.7487338781356812</v>
+        <v>0.6438628435134888</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -4370,7 +4370,7 @@
         <v>0.4108793103448276</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6259782314300537</v>
+        <v>0.6287655234336853</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -4378,7 +4378,7 @@
         <v>0.4045747126436782</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6607904434204102</v>
+        <v>0.6320104002952576</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -4386,7 +4386,7 @@
         <v>0.3973902298850574</v>
       </c>
       <c r="B70" t="n">
-        <v>0.7604031562805176</v>
+        <v>0.6380242109298706</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -4394,7 +4394,7 @@
         <v>0.3926632183908045</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7387953400611877</v>
+        <v>0.5327764749526978</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -4402,7 +4402,7 @@
         <v>0.3895172413793103</v>
       </c>
       <c r="B72" t="n">
-        <v>0.7189538478851318</v>
+        <v>0.5546039342880249</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -4410,7 +4410,7 @@
         <v>0.3866155172413792</v>
       </c>
       <c r="B73" t="n">
-        <v>0.6361978650093079</v>
+        <v>0.5780577063560486</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -4418,7 +4418,7 @@
         <v>0.3848586206896551</v>
       </c>
       <c r="B74" t="n">
-        <v>0.6152864098548889</v>
+        <v>0.4538520574569702</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -4426,7 +4426,7 @@
         <v>0.3832408045977011</v>
       </c>
       <c r="B75" t="n">
-        <v>0.6079728603363037</v>
+        <v>0.4353227317333221</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -4434,7 +4434,7 @@
         <v>0.3824913793103448</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5686384439468384</v>
+        <v>0.4878908395767212</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -4442,7 +4442,7 @@
         <v>0.3820988505747126</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6330748796463013</v>
+        <v>0.5394470691680908</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -4450,7 +4450,7 @@
         <v>0.3834649425287356</v>
       </c>
       <c r="B78" t="n">
-        <v>0.7511038780212402</v>
+        <v>0.5937449932098389</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -4458,7 +4458,7 @@
         <v>0.3866304597701149</v>
       </c>
       <c r="B79" t="n">
-        <v>0.6294744610786438</v>
+        <v>0.5819096565246582</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -4466,7 +4466,7 @@
         <v>0.3913477011494253</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6995980143547058</v>
+        <v>0.453308641910553</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -4474,7 +4474,7 @@
         <v>0.3952597701149425</v>
       </c>
       <c r="B81" t="n">
-        <v>0.6638795733451843</v>
+        <v>0.5318190455436707</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -4482,7 +4482,7 @@
         <v>0.4011454022988505</v>
       </c>
       <c r="B82" t="n">
-        <v>0.4561668634414673</v>
+        <v>0.4813138246536255</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -4490,7 +4490,7 @@
         <v>0.4051741379310345</v>
       </c>
       <c r="B83" t="n">
-        <v>0.6955633163452148</v>
+        <v>0.5370599031448364</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -4498,7 +4498,7 @@
         <v>0.4075517241379311</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5799923539161682</v>
+        <v>0.5178620219230652</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -4506,7 +4506,7 @@
         <v>0.4092189655172414</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5970456004142761</v>
+        <v>0.4593164920806885</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -4514,7 +4514,7 @@
         <v>0.4084528735632184</v>
       </c>
       <c r="B86" t="n">
-        <v>0.4919058680534363</v>
+        <v>0.490571141242981</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -4522,7 +4522,7 @@
         <v>0.4043155172413794</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5185628533363342</v>
+        <v>0.5524412393569946</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -4530,7 +4530,7 @@
         <v>0.4010327586206897</v>
       </c>
       <c r="B88" t="n">
-        <v>0.6235601902008057</v>
+        <v>0.5521953701972961</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -4538,7 +4538,7 @@
         <v>0.3977287356321839</v>
       </c>
       <c r="B89" t="n">
-        <v>0.4785284399986267</v>
+        <v>0.4715685248374939</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -4546,7 +4546,7 @@
         <v>0.390651724137931</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5805791020393372</v>
+        <v>0.5824235081672668</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -4554,7 +4554,7 @@
         <v>0.3849666666666666</v>
       </c>
       <c r="B91" t="n">
-        <v>0.7816304564476013</v>
+        <v>0.6223318576812744</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -4562,7 +4562,7 @@
         <v>0.3791787356321838</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5721133947372437</v>
+        <v>0.5570930242538452</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -4570,7 +4570,7 @@
         <v>0.3742977011494252</v>
       </c>
       <c r="B93" t="n">
-        <v>0.6438529491424561</v>
+        <v>0.6144142150878906</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -4578,7 +4578,7 @@
         <v>0.3714758620689655</v>
       </c>
       <c r="B94" t="n">
-        <v>0.7203389406204224</v>
+        <v>0.5968679189682007</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -4586,7 +4586,7 @@
         <v>0.3700752873563218</v>
       </c>
       <c r="B95" t="n">
-        <v>0.688905656337738</v>
+        <v>0.4893389642238617</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -4594,7 +4594,7 @@
         <v>0.3716655172413793</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5379837155342102</v>
+        <v>0.530494749546051</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -4602,7 +4602,7 @@
         <v>0.3755844827586207</v>
       </c>
       <c r="B97" t="n">
-        <v>0.7209799289703369</v>
+        <v>0.5982986688613892</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -4610,7 +4610,7 @@
         <v>0.3807385057471265</v>
       </c>
       <c r="B98" t="n">
-        <v>0.6555836200714111</v>
+        <v>0.5264186859130859</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -4618,7 +4618,7 @@
         <v>0.3865310344827587</v>
       </c>
       <c r="B99" t="n">
-        <v>0.6125397086143494</v>
+        <v>0.5581317543983459</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -4626,7 +4626,7 @@
         <v>0.390583908045977</v>
       </c>
       <c r="B100" t="n">
-        <v>0.7844018936157227</v>
+        <v>0.5479736924171448</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -4634,7 +4634,7 @@
         <v>0.3938137931034483</v>
       </c>
       <c r="B101" t="n">
-        <v>0.6228451132774353</v>
+        <v>0.5473929047584534</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -4642,7 +4642,7 @@
         <v>0.3964298850574713</v>
       </c>
       <c r="B102" t="n">
-        <v>0.8029173612594604</v>
+        <v>0.631333589553833</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -4650,7 +4650,7 @@
         <v>0.3976816091954023</v>
       </c>
       <c r="B103" t="n">
-        <v>0.7587774395942688</v>
+        <v>0.776753842830658</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -4658,7 +4658,7 @@
         <v>0.3994833333333333</v>
       </c>
       <c r="B104" t="n">
-        <v>0.6791098117828369</v>
+        <v>0.5497831106185913</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -4666,7 +4666,7 @@
         <v>0.4002471264367816</v>
       </c>
       <c r="B105" t="n">
-        <v>0.6521913409233093</v>
+        <v>0.6792375445365906</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -4674,7 +4674,7 @@
         <v>0.4009488505747126</v>
       </c>
       <c r="B106" t="n">
-        <v>0.7012710571289062</v>
+        <v>0.7518537640571594</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -4682,7 +4682,7 @@
         <v>0.4015183908045977</v>
       </c>
       <c r="B107" t="n">
-        <v>0.6407951712608337</v>
+        <v>0.637195348739624</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -4690,7 +4690,7 @@
         <v>0.3991333333333333</v>
       </c>
       <c r="B108" t="n">
-        <v>0.6261546015739441</v>
+        <v>0.5001729130744934</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -4698,7 +4698,7 @@
         <v>0.3935718390804597</v>
       </c>
       <c r="B109" t="n">
-        <v>0.8029937148094177</v>
+        <v>0.5578814148902893</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -4706,7 +4706,7 @@
         <v>0.38703908045977</v>
       </c>
       <c r="B110" t="n">
-        <v>0.6052868962287903</v>
+        <v>0.649976909160614</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -4714,7 +4714,7 @@
         <v>0.3780534482758619</v>
       </c>
       <c r="B111" t="n">
-        <v>0.7114989161491394</v>
+        <v>0.5459153056144714</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -4722,7 +4722,7 @@
         <v>0.367106896551724</v>
       </c>
       <c r="B112" t="n">
-        <v>0.7769247889518738</v>
+        <v>0.578256368637085</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -4730,7 +4730,7 @@
         <v>0.3586735632183908</v>
       </c>
       <c r="B113" t="n">
-        <v>0.6507659554481506</v>
+        <v>0.6602899432182312</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -4738,7 +4738,7 @@
         <v>0.3503574712643678</v>
       </c>
       <c r="B114" t="n">
-        <v>0.482380211353302</v>
+        <v>0.400994211435318</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -4746,7 +4746,7 @@
         <v>0.3439879310344827</v>
       </c>
       <c r="B115" t="n">
-        <v>0.5925456881523132</v>
+        <v>0.5188924670219421</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -4754,7 +4754,7 @@
         <v>0.3405741379310344</v>
       </c>
       <c r="B116" t="n">
-        <v>0.5570008158683777</v>
+        <v>0.3817178905010223</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -4762,7 +4762,7 @@
         <v>0.3386775862068965</v>
       </c>
       <c r="B117" t="n">
-        <v>0.5675041675567627</v>
+        <v>0.5446849465370178</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -4770,7 +4770,7 @@
         <v>0.3378747126436782</v>
       </c>
       <c r="B118" t="n">
-        <v>0.6356354355812073</v>
+        <v>0.326344758272171</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -4778,7 +4778,7 @@
         <v>0.3400034482758622</v>
       </c>
       <c r="B119" t="n">
-        <v>0.5360332727432251</v>
+        <v>0.2849428057670593</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -4786,7 +4786,7 @@
         <v>0.3406500000000001</v>
       </c>
       <c r="B120" t="n">
-        <v>0.4974778890609741</v>
+        <v>0.4243337512016296</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -4794,7 +4794,7 @@
         <v>0.3420431034482759</v>
       </c>
       <c r="B121" t="n">
-        <v>0.5583276748657227</v>
+        <v>0.3613336086273193</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -4802,7 +4802,7 @@
         <v>0.3449183908045977</v>
       </c>
       <c r="B122" t="n">
-        <v>0.5836390852928162</v>
+        <v>0.397606372833252</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -4810,7 +4810,7 @@
         <v>0.3475902298850576</v>
       </c>
       <c r="B123" t="n">
-        <v>0.6196396946907043</v>
+        <v>0.4152425825595856</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -4818,7 +4818,7 @@
         <v>0.3526522988505747</v>
       </c>
       <c r="B124" t="n">
-        <v>0.5758418440818787</v>
+        <v>0.4794752895832062</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -4826,7 +4826,7 @@
         <v>0.3584224137931035</v>
       </c>
       <c r="B125" t="n">
-        <v>0.5732724070549011</v>
+        <v>0.5148685574531555</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -4834,7 +4834,7 @@
         <v>0.3654143678160919</v>
       </c>
       <c r="B126" t="n">
-        <v>0.7003132700920105</v>
+        <v>0.4919400811195374</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -4842,7 +4842,7 @@
         <v>0.3733620689655173</v>
       </c>
       <c r="B127" t="n">
-        <v>0.5251871347427368</v>
+        <v>0.5041670799255371</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -4850,7 +4850,7 @@
         <v>0.3803362068965518</v>
       </c>
       <c r="B128" t="n">
-        <v>0.5614248514175415</v>
+        <v>0.4938086569309235</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -4858,7 +4858,7 @@
         <v>0.38376091954023</v>
       </c>
       <c r="B129" t="n">
-        <v>0.6047661900520325</v>
+        <v>0.5034592747688293</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -4866,7 +4866,7 @@
         <v>0.3861655172413793</v>
       </c>
       <c r="B130" t="n">
-        <v>0.6312849521636963</v>
+        <v>0.4798767864704132</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -4874,7 +4874,7 @@
         <v>0.388217816091954</v>
       </c>
       <c r="B131" t="n">
-        <v>0.4599498808383942</v>
+        <v>0.4597415030002594</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -4882,7 +4882,7 @@
         <v>0.3885701149425288</v>
       </c>
       <c r="B132" t="n">
-        <v>0.6247356534004211</v>
+        <v>0.3881063461303711</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -4890,7 +4890,7 @@
         <v>0.3851212643678162</v>
       </c>
       <c r="B133" t="n">
-        <v>0.8218685984611511</v>
+        <v>0.3913819789886475</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -4898,7 +4898,7 @@
         <v>0.3813459770114943</v>
       </c>
       <c r="B134" t="n">
-        <v>0.5462644100189209</v>
+        <v>0.5144314765930176</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -4906,7 +4906,7 @@
         <v>0.3782798850574712</v>
       </c>
       <c r="B135" t="n">
-        <v>0.6336071491241455</v>
+        <v>0.5155324339866638</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -4914,7 +4914,7 @@
         <v>0.3747505747126437</v>
       </c>
       <c r="B136" t="n">
-        <v>0.5491629242897034</v>
+        <v>0.4713355898857117</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -4922,7 +4922,7 @@
         <v>0.3735402298850575</v>
       </c>
       <c r="B137" t="n">
-        <v>0.6520017385482788</v>
+        <v>0.4212668240070343</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -4930,7 +4930,7 @@
         <v>0.3741120689655173</v>
       </c>
       <c r="B138" t="n">
-        <v>0.5621162056922913</v>
+        <v>0.4988008737564087</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -4938,7 +4938,7 @@
         <v>0.3755057471264368</v>
       </c>
       <c r="B139" t="n">
-        <v>0.5369048714637756</v>
+        <v>0.4486003816127777</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -4946,7 +4946,7 @@
         <v>0.3793971264367816</v>
       </c>
       <c r="B140" t="n">
-        <v>0.6141427159309387</v>
+        <v>0.4510181844234467</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -4954,7 +4954,7 @@
         <v>0.3852344827586207</v>
       </c>
       <c r="B141" t="n">
-        <v>0.6181837916374207</v>
+        <v>0.4221221804618835</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -4962,7 +4962,7 @@
         <v>0.3905402298850575</v>
       </c>
       <c r="B142" t="n">
-        <v>0.5498548746109009</v>
+        <v>0.4436083137989044</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -4970,7 +4970,7 @@
         <v>0.3967166666666667</v>
       </c>
       <c r="B143" t="n">
-        <v>0.7077585458755493</v>
+        <v>0.5499210953712463</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -4978,7 +4978,7 @@
         <v>0.4038040229885058</v>
       </c>
       <c r="B144" t="n">
-        <v>0.5126887559890747</v>
+        <v>0.449591726064682</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -4986,7 +4986,7 @@
         <v>0.4103862068965518</v>
       </c>
       <c r="B145" t="n">
-        <v>0.5953739285469055</v>
+        <v>0.3510421812534332</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -4994,7 +4994,7 @@
         <v>0.416064367816092</v>
       </c>
       <c r="B146" t="n">
-        <v>0.53233402967453</v>
+        <v>0.5040240883827209</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -5002,7 +5002,7 @@
         <v>0.4213764367816092</v>
       </c>
       <c r="B147" t="n">
-        <v>0.6199396252632141</v>
+        <v>0.5091854929924011</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -5010,7 +5010,7 @@
         <v>0.4244856321839081</v>
       </c>
       <c r="B148" t="n">
-        <v>0.6290200352668762</v>
+        <v>0.6071327924728394</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -5018,7 +5018,7 @@
         <v>0.4276005747126437</v>
       </c>
       <c r="B149" t="n">
-        <v>0.6801521182060242</v>
+        <v>0.5608062744140625</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -5026,7 +5026,7 @@
         <v>0.4332287356321839</v>
       </c>
       <c r="B150" t="n">
-        <v>0.5832433700561523</v>
+        <v>0.5388063192367554</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -5034,7 +5034,7 @@
         <v>0.4401545977011494</v>
       </c>
       <c r="B151" t="n">
-        <v>0.8000169396400452</v>
+        <v>0.6229686737060547</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -5042,7 +5042,7 @@
         <v>0.4467827586206897</v>
       </c>
       <c r="B152" t="n">
-        <v>0.7456324696540833</v>
+        <v>0.5718268156051636</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -5050,7 +5050,7 @@
         <v>0.4501793103448276</v>
       </c>
       <c r="B153" t="n">
-        <v>0.7401517629623413</v>
+        <v>0.564866840839386</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -5058,7 +5058,7 @@
         <v>0.4509362068965517</v>
       </c>
       <c r="B154" t="n">
-        <v>0.7195605039596558</v>
+        <v>0.6001989841461182</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -5066,7 +5066,7 @@
         <v>0.4494494252873563</v>
       </c>
       <c r="B155" t="n">
-        <v>0.7750133872032166</v>
+        <v>0.611334502696991</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -5074,7 +5074,7 @@
         <v>0.4465385057471264</v>
       </c>
       <c r="B156" t="n">
-        <v>0.800254762172699</v>
+        <v>0.5347054004669189</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -5082,7 +5082,7 @@
         <v>0.4425091954022989</v>
       </c>
       <c r="B157" t="n">
-        <v>0.5258083939552307</v>
+        <v>0.5991079211235046</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -5090,7 +5090,7 @@
         <v>0.4370477011494253</v>
       </c>
       <c r="B158" t="n">
-        <v>0.5645202398300171</v>
+        <v>0.5982088446617126</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -5098,7 +5098,7 @@
         <v>0.4318856321839081</v>
       </c>
       <c r="B159" t="n">
-        <v>0.6167375445365906</v>
+        <v>0.6176697015762329</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -5106,7 +5106,7 @@
         <v>0.4272442528735632</v>
       </c>
       <c r="B160" t="n">
-        <v>0.6794707775115967</v>
+        <v>0.5895307064056396</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -5114,7 +5114,7 @@
         <v>0.4264655172413793</v>
       </c>
       <c r="B161" t="n">
-        <v>0.6405320763587952</v>
+        <v>0.6006563901901245</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -5122,7 +5122,7 @@
         <v>0.4298885057471264</v>
       </c>
       <c r="B162" t="n">
-        <v>0.7047761678695679</v>
+        <v>0.6097065210342407</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -5130,7 +5130,7 @@
         <v>0.434367816091954</v>
       </c>
       <c r="B163" t="n">
-        <v>0.6036816239356995</v>
+        <v>0.6300995945930481</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -5138,7 +5138,7 @@
         <v>0.4398477011494253</v>
       </c>
       <c r="B164" t="n">
-        <v>0.6906650066375732</v>
+        <v>0.6109465956687927</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -5146,7 +5146,7 @@
         <v>0.4461287356321839</v>
       </c>
       <c r="B165" t="n">
-        <v>0.6510371565818787</v>
+        <v>0.6236481666564941</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -5154,7 +5154,7 @@
         <v>0.4523005747126436</v>
       </c>
       <c r="B166" t="n">
-        <v>0.6816274523735046</v>
+        <v>0.6172502040863037</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -5162,7 +5162,7 @@
         <v>0.458251724137931</v>
       </c>
       <c r="B167" t="n">
-        <v>0.7120252251625061</v>
+        <v>0.7199192643165588</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -5170,7 +5170,7 @@
         <v>0.46333908045977</v>
       </c>
       <c r="B168" t="n">
-        <v>0.7368277907371521</v>
+        <v>0.654758632183075</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -5178,7 +5178,7 @@
         <v>0.4649137931034483</v>
       </c>
       <c r="B169" t="n">
-        <v>0.6005305647850037</v>
+        <v>0.6501877307891846</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -5186,7 +5186,7 @@
         <v>0.4650649425287356</v>
       </c>
       <c r="B170" t="n">
-        <v>0.7486549019813538</v>
+        <v>0.5617196559906006</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -5194,7 +5194,7 @@
         <v>0.465058620689655</v>
       </c>
       <c r="B171" t="n">
-        <v>0.587222158908844</v>
+        <v>0.5344948768615723</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -5202,7 +5202,7 @@
         <v>0.4634948275862069</v>
       </c>
       <c r="B172" t="n">
-        <v>0.6600745320320129</v>
+        <v>0.5691379308700562</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -5210,7 +5210,7 @@
         <v>0.4615408045977011</v>
       </c>
       <c r="B173" t="n">
-        <v>0.7389051914215088</v>
+        <v>0.6537140607833862</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -5218,7 +5218,7 @@
         <v>0.4606942528735632</v>
       </c>
       <c r="B174" t="n">
-        <v>0.6507449150085449</v>
+        <v>0.5881063938140869</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -5226,7 +5226,7 @@
         <v>0.4598908045977011</v>
       </c>
       <c r="B175" t="n">
-        <v>0.6234337687492371</v>
+        <v>0.5601266026496887</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -5234,7 +5234,7 @@
         <v>0.4611574712643677</v>
       </c>
       <c r="B176" t="n">
-        <v>0.7626472115516663</v>
+        <v>0.6487165093421936</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -5242,7 +5242,7 @@
         <v>0.4654781609195401</v>
       </c>
       <c r="B177" t="n">
-        <v>0.6951985955238342</v>
+        <v>0.6273226737976074</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -5250,7 +5250,7 @@
         <v>0.471866091954023</v>
       </c>
       <c r="B178" t="n">
-        <v>0.534259021282196</v>
+        <v>0.5712330937385559</v>
       </c>
     </row>
   </sheetData>
